--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1204,7 +1204,7 @@
   <dimension ref="C3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1306,6 +1306,9 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
       <c r="H6" s="1">
         <v>999</v>
       </c>
@@ -1329,6 +1332,9 @@
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
       <c r="H7" s="3">
         <v>99</v>
       </c>
@@ -1352,6 +1358,9 @@
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
       <c r="H8" s="3">
         <v>99</v>
       </c>
@@ -1375,6 +1384,9 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
       <c r="H9" s="3">
         <v>99</v>
       </c>
@@ -1398,6 +1410,9 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
       <c r="H10" s="3">
         <v>99</v>
       </c>
@@ -1421,6 +1436,9 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
       <c r="H11" s="3">
         <v>99</v>
       </c>
@@ -1444,6 +1462,9 @@
       <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
       <c r="H12" s="3">
         <v>99</v>
       </c>
@@ -1467,6 +1488,9 @@
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
       <c r="H13" s="3">
         <v>99</v>
       </c>
@@ -1490,6 +1514,9 @@
       <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
       <c r="H14" s="3">
         <v>99</v>
       </c>
@@ -1513,6 +1540,9 @@
       <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
       <c r="H15" s="3">
         <v>99</v>
       </c>
@@ -1536,6 +1566,9 @@
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
       <c r="H16" s="3">
         <v>99</v>
       </c>
@@ -1559,6 +1592,9 @@
       <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
       <c r="H17" s="3">
         <v>99</v>
       </c>
@@ -1582,6 +1618,9 @@
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
       <c r="H18" s="3">
         <v>99</v>
       </c>
@@ -1605,6 +1644,9 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
       <c r="H19" s="3">
         <v>99</v>
       </c>
@@ -1628,6 +1670,9 @@
       <c r="F20" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
       <c r="H20" s="3">
         <v>99</v>
       </c>
@@ -1651,6 +1696,9 @@
       <c r="F21" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
       <c r="H21" s="3">
         <v>99</v>
       </c>
@@ -1674,6 +1722,9 @@
       <c r="F22" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
       <c r="H22" s="3">
         <v>99</v>
       </c>
@@ -1697,6 +1748,9 @@
       <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
       <c r="H23" s="3">
         <v>99</v>
       </c>
@@ -1720,6 +1774,9 @@
       <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
       <c r="H24" s="3">
         <v>99</v>
       </c>
@@ -1743,6 +1800,9 @@
       <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
       <c r="H25" s="3">
         <v>99</v>
       </c>
@@ -1766,6 +1826,9 @@
       <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
       <c r="H26" s="3">
         <v>99</v>
       </c>
@@ -1788,6 +1851,9 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="G27" s="1">
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>99</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>_Id</t>
   </si>
@@ -75,6 +75,9 @@
     <t>品质</t>
   </si>
   <si>
+    <t>使用效果值</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t>Quality</t>
+  </si>
+  <si>
+    <t>UseParam</t>
   </si>
   <si>
     <t>int</t>
@@ -410,12 +416,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1201,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J27"/>
+  <dimension ref="C3:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1214,11 +1220,11 @@
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1243,65 +1249,74 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1318,19 +1333,22 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:10">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
       <c r="C7" s="1">
         <v>1001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1344,19 +1362,22 @@
       <c r="J7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="3:10">
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
       <c r="C8" s="1">
         <v>1002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
@@ -1370,19 +1391,22 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="K8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
       <c r="C9" s="1">
         <v>1003</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>100</v>
@@ -1396,19 +1420,22 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="K9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="1">
         <v>1004</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -1422,19 +1449,22 @@
       <c r="J10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="1">
         <v>1005</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
@@ -1448,19 +1478,22 @@
       <c r="J11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
       <c r="C12" s="1">
         <v>1006</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>100</v>
@@ -1474,19 +1507,22 @@
       <c r="J12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="3:10">
+      <c r="K12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
       <c r="C13" s="1">
         <v>1007</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
@@ -1500,19 +1536,22 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="K13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
       <c r="C14" s="1">
         <v>2001</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1526,19 +1565,22 @@
       <c r="J14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="K14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
       <c r="C15" s="1">
         <v>2002</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1552,19 +1594,22 @@
       <c r="J15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
       <c r="C16" s="1">
         <v>2003</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1578,19 +1623,22 @@
       <c r="J16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="K16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" s="1">
         <v>2004</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1604,19 +1652,22 @@
       <c r="J17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:10">
+      <c r="K17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" s="1">
         <v>2005</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -1630,19 +1681,22 @@
       <c r="J18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:10">
+      <c r="K18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
       <c r="C19" s="1">
         <v>2006</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -1656,19 +1710,22 @@
       <c r="J19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="3:10">
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" s="1">
         <v>2007</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -1682,19 +1739,22 @@
       <c r="J20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:10">
+      <c r="K20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" s="1">
         <v>3001</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -1708,19 +1768,22 @@
       <c r="J21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="K21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" s="1">
         <v>3002</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -1734,19 +1797,22 @@
       <c r="J22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:10">
+      <c r="K22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="C23" s="1">
         <v>3003</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -1760,19 +1826,22 @@
       <c r="J23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:10">
+      <c r="K23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
       <c r="C24" s="1">
         <v>3004</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -1786,19 +1855,22 @@
       <c r="J24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:10">
+      <c r="K24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" s="1">
         <v>3005</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -1812,19 +1884,22 @@
       <c r="J25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="K25" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" s="1">
         <v>3006</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -1838,19 +1913,22 @@
       <c r="J26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="K26" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
       <c r="C27" s="1">
         <v>3007</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -1863,6 +1941,9 @@
       </c>
       <c r="J27" s="1">
         <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="100">
   <si>
     <t>_Id</t>
   </si>
@@ -111,109 +111,211 @@
     <t>string</t>
   </si>
   <si>
-    <t>金币</t>
+    <t>1001</t>
   </si>
   <si>
     <t>基本剑术</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>学习或者升级战士技能“基本剑术”</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>刺杀剑术</t>
   </si>
   <si>
     <t>学习或者升级战士技能“刺杀剑术”</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
     <t>半月弯刀</t>
   </si>
   <si>
     <t>学习或者升级战士技能“半月弯刀”</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>武力盾</t>
   </si>
   <si>
     <t>学习或者升级战士技能“武力盾”</t>
   </si>
   <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>武力精通</t>
   </si>
   <si>
     <t>学习或者升级战士技能“武力精通”</t>
   </si>
   <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>野蛮撞击</t>
   </si>
   <si>
     <t>学习或者升级战士技能“野蛮撞击”</t>
   </si>
   <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
     <t>烈火剑法</t>
   </si>
   <si>
     <t>学习或者升级战士技能“烈火剑法”</t>
   </si>
   <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>小火球</t>
   </si>
   <si>
     <t>学习或者升级法师技能“小火球”</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>雷电术</t>
   </si>
   <si>
     <t>学习或者升级法师技能“雷电术”</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>火墙</t>
   </si>
   <si>
     <t>学习或者升级法师技能“火墙”</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
     <t>学习或者升级法师技能“魔法盾”</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>法术精通</t>
   </si>
   <si>
     <t>学习或者升级法师技能“法术精通”</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>抗拒光环</t>
   </si>
   <si>
     <t>学习或者升级法师技能“抗拒光环”</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>冰咆哮</t>
   </si>
   <si>
     <t>学习或者升级法师技能“冰咆哮”</t>
   </si>
   <si>
+    <t>3001</t>
+  </si>
+  <si>
     <t>灵魂火符</t>
   </si>
   <si>
     <t>学习或者升级道士技能“灵魂火符”</t>
   </si>
   <si>
+    <t>3002</t>
+  </si>
+  <si>
     <t>召唤骷髅</t>
   </si>
   <si>
     <t>学习或者升级道士技能“召唤骷髅”</t>
   </si>
   <si>
-    <t>群体施毒术</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能“群体施毒术”</t>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>群体施毒</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能“群体施毒”</t>
+  </si>
+  <si>
+    <t>3004</t>
   </si>
   <si>
     <t>道力盾</t>
@@ -222,16 +324,25 @@
     <t>学习或者升级道士技能“道力盾”</t>
   </si>
   <si>
+    <t>3005</t>
+  </si>
+  <si>
     <t>道力精通</t>
   </si>
   <si>
     <t>学习或者升级道士技能“道力精通”</t>
   </si>
   <si>
+    <t>3006</t>
+  </si>
+  <si>
     <t>禁锢术</t>
   </si>
   <si>
     <t>学习或者升级道士技能“禁锢术”</t>
+  </si>
+  <si>
+    <t>3007</t>
   </si>
   <si>
     <t>无极真气</t>
@@ -416,12 +527,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -881,13 +992,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,21 +1317,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K27"/>
+  <dimension ref="C3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1311,644 +1421,618 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" ht="24.0" customHeight="true">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>99</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>99</v>
-      </c>
-      <c r="I9" s="3">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>99</v>
-      </c>
-      <c r="I10" s="3">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="1">
-        <v>1005</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="3">
-        <v>99</v>
-      </c>
-      <c r="I11" s="3">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>99</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3">
-        <v>99</v>
-      </c>
-      <c r="I13" s="3">
-        <v>60</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>99</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>99</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1">
-        <v>100</v>
-      </c>
-      <c r="H16" s="3">
-        <v>99</v>
-      </c>
-      <c r="I16" s="3">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>99</v>
-      </c>
-      <c r="I17" s="3">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="1">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>99</v>
-      </c>
-      <c r="I18" s="3">
-        <v>40</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1">
-        <v>100</v>
-      </c>
-      <c r="H19" s="3">
-        <v>99</v>
-      </c>
-      <c r="I19" s="3">
-        <v>50</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="1">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>99</v>
-      </c>
-      <c r="I20" s="3">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>99</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="1">
-        <v>3002</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="1">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>99</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="1">
-        <v>3003</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="1">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>99</v>
-      </c>
-      <c r="I23" s="3">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="1">
-        <v>3004</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>99</v>
-      </c>
-      <c r="I24" s="3">
-        <v>30</v>
-      </c>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
-      <c r="K24" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="1">
-        <v>3005</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="1">
-        <v>100</v>
-      </c>
-      <c r="H25" s="3">
-        <v>99</v>
-      </c>
-      <c r="I25" s="3">
-        <v>40</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="1">
-        <v>3006</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="1">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>99</v>
-      </c>
-      <c r="I26" s="3">
-        <v>50</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
-      <c r="C27" s="1">
-        <v>3007</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="1">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>99</v>
-      </c>
-      <c r="I27" s="3">
-        <v>60</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-      <c r="K27" s="1">
-        <v>50</v>
+      <c r="K26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D6" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -40,7 +40,7 @@
 1 金币
 2 装备
 3 技能书
-，</t>
+4 礼包</t>
         </r>
       </text>
     </comment>
@@ -1319,19 +1319,19 @@
   <sheetPr/>
   <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
-    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1421,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:11">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="true">
+    <row r="7" ht="24" customHeight="1" spans="3:11">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="3:11">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="24.0" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="3:11">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="24.0" customHeight="true">
+    <row r="10" ht="24" customHeight="1" spans="3:11">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="24.0" customHeight="true">
+    <row r="11" ht="24" customHeight="1" spans="3:11">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="24.0" customHeight="true">
+    <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="24.0" customHeight="true">
+    <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="24.0" customHeight="true">
+    <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="24.0" customHeight="true">
+    <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="24.0" customHeight="true">
+    <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
         <v>67</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="true">
+    <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
         <v>70</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="24.0" customHeight="true">
+    <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="24.0" customHeight="true">
+    <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
         <v>76</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="24.0" customHeight="true">
+    <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
         <v>79</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="24.0" customHeight="true">
+    <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21" t="s">
         <v>82</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="24.0" customHeight="true">
+    <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
         <v>85</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="24.0" customHeight="true">
+    <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
         <v>88</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="24.0" customHeight="true">
+    <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
         <v>91</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="24.0" customHeight="true">
+    <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
         <v>94</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="24.0" customHeight="true">
+    <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
         <v>97</v>
       </c>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -40,7 +40,7 @@
 1 金币
 2 装备
 3 技能书
-4 礼包</t>
+，</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
   <si>
     <t>_Id</t>
   </si>
@@ -114,13 +114,13 @@
     <t>1001</t>
   </si>
   <si>
-    <t>基本剑术</t>
+    <t>基础剑术</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“基本剑术”</t>
+    <t>学习或者升级1技能“基础剑术”</t>
   </si>
   <si>
     <t>100</t>
@@ -129,7 +129,7 @@
     <t>99</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0</t>
   </si>
   <si>
     <t>4</t>
@@ -144,7 +144,7 @@
     <t>刺杀剑术</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“刺杀剑术”</t>
+    <t>学习或者升级1技能“刺杀剑术”</t>
   </si>
   <si>
     <t>1000</t>
@@ -159,7 +159,7 @@
     <t>半月弯刀</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“半月弯刀”</t>
+    <t>学习或者升级1技能“半月弯刀”</t>
   </si>
   <si>
     <t>10000</t>
@@ -174,7 +174,7 @@
     <t>武力盾</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“武力盾”</t>
+    <t>学习或者升级1技能“武力盾”</t>
   </si>
   <si>
     <t>100000</t>
@@ -189,7 +189,7 @@
     <t>武力精通</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“武力精通”</t>
+    <t>学习或者升级1技能“武力精通”</t>
   </si>
   <si>
     <t>1000000</t>
@@ -204,7 +204,7 @@
     <t>野蛮撞击</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“野蛮撞击”</t>
+    <t>学习或者升级1技能“野蛮撞击”</t>
   </si>
   <si>
     <t>10000000</t>
@@ -216,7 +216,7 @@
     <t>烈火剑法</t>
   </si>
   <si>
-    <t>学习或者升级战士技能“烈火剑法”</t>
+    <t>学习或者升级1技能“烈火剑法”</t>
   </si>
   <si>
     <t>100000000</t>
@@ -231,7 +231,10 @@
     <t>小火球</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“小火球”</t>
+    <t>学习或者升级2技能“小火球”</t>
+  </si>
+  <si>
+    <t>1000000000</t>
   </si>
   <si>
     <t>2002</t>
@@ -240,7 +243,10 @@
     <t>雷电术</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“雷电术”</t>
+    <t>学习或者升级2技能“雷电术”</t>
+  </si>
+  <si>
+    <t>2147483647</t>
   </si>
   <si>
     <t>2003</t>
@@ -249,7 +255,7 @@
     <t>火墙</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“火墙”</t>
+    <t>学习或者升级2技能“火墙”</t>
   </si>
   <si>
     <t>2004</t>
@@ -258,7 +264,7 @@
     <t>魔法盾</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“魔法盾”</t>
+    <t>学习或者升级2技能“魔法盾”</t>
   </si>
   <si>
     <t>2005</t>
@@ -267,7 +273,7 @@
     <t>法术精通</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“法术精通”</t>
+    <t>学习或者升级2技能“法术精通”</t>
   </si>
   <si>
     <t>2006</t>
@@ -276,7 +282,7 @@
     <t>抗拒光环</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“抗拒光环”</t>
+    <t>学习或者升级2技能“抗拒光环”</t>
   </si>
   <si>
     <t>2007</t>
@@ -285,34 +291,34 @@
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>学习或者升级法师技能“冰咆哮”</t>
+    <t>学习或者升级2技能“冰咆哮”</t>
   </si>
   <si>
     <t>3001</t>
   </si>
   <si>
-    <t>灵魂火符</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能“灵魂火符”</t>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>学习或者升级3技能“治疗术”</t>
   </si>
   <si>
     <t>3002</t>
   </si>
   <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>学习或者升级3技能“施毒术”</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>召唤骷髅</t>
   </si>
   <si>
-    <t>学习或者升级道士技能“召唤骷髅”</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>群体施毒</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能“群体施毒”</t>
+    <t>学习或者升级3技能“召唤骷髅”</t>
   </si>
   <si>
     <t>3004</t>
@@ -321,7 +327,7 @@
     <t>道力盾</t>
   </si>
   <si>
-    <t>学习或者升级道士技能“道力盾”</t>
+    <t>学习或者升级3技能“道力盾”</t>
   </si>
   <si>
     <t>3005</t>
@@ -330,7 +336,7 @@
     <t>道力精通</t>
   </si>
   <si>
-    <t>学习或者升级道士技能“道力精通”</t>
+    <t>学习或者升级3技能“道力精通”</t>
   </si>
   <si>
     <t>3006</t>
@@ -339,16 +345,16 @@
     <t>禁锢术</t>
   </si>
   <si>
-    <t>学习或者升级道士技能“禁锢术”</t>
+    <t>学习或者升级3技能“禁锢术”</t>
   </si>
   <si>
     <t>3007</t>
   </si>
   <si>
-    <t>无极真气</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能“无极真气”</t>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>学习或者升级3技能“召唤神兽”</t>
   </si>
 </sst>
 </file>
@@ -1319,19 +1325,19 @@
   <sheetPr/>
   <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1421,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
+    <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
+    <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
+    <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
+    <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
+    <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
+    <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
+    <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
+    <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1653,21 +1659,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
+    <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -1682,21 +1688,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
+    <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -1711,21 +1717,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
+    <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1740,21 +1746,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
+    <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -1769,21 +1775,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
+    <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1798,21 +1804,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
+    <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
@@ -1827,21 +1833,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
+    <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1856,21 +1862,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
+    <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -1885,21 +1891,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
+    <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1914,21 +1920,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
+    <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -1943,21 +1949,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
+    <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1972,21 +1978,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
+    <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -2001,21 +2007,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
+    <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,19 +171,34 @@
     <t>1004</t>
   </si>
   <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>学习或者升级1技能“野蛮撞击”</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>武力盾</t>
   </si>
   <si>
     <t>学习或者升级1技能“武力盾”</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1005</t>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>武力精通</t>
@@ -192,21 +207,6 @@
     <t>学习或者升级1技能“武力精通”</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>野蛮撞击</t>
-  </si>
-  <si>
-    <t>学习或者升级1技能“野蛮撞击”</t>
-  </si>
-  <si>
     <t>10000000</t>
   </si>
   <si>
@@ -261,13 +261,22 @@
     <t>2004</t>
   </si>
   <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>学习或者升级2技能“爆裂火焰”</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>魔法盾</t>
   </si>
   <si>
     <t>学习或者升级2技能“魔法盾”</t>
   </si>
   <si>
-    <t>2005</t>
+    <t>2006</t>
   </si>
   <si>
     <t>法术精通</t>
@@ -276,15 +285,6 @@
     <t>学习或者升级2技能“法术精通”</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>抗拒光环</t>
-  </si>
-  <si>
-    <t>学习或者升级2技能“抗拒光环”</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -306,13 +306,22 @@
     <t>3002</t>
   </si>
   <si>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>学习或者升级3技能“火符术”</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>施毒术</t>
   </si>
   <si>
     <t>学习或者升级3技能“施毒术”</t>
   </si>
   <si>
-    <t>3003</t>
+    <t>3004</t>
   </si>
   <si>
     <t>召唤骷髅</t>
@@ -321,7 +330,7 @@
     <t>学习或者升级3技能“召唤骷髅”</t>
   </si>
   <si>
-    <t>3004</t>
+    <t>3005</t>
   </si>
   <si>
     <t>道力盾</t>
@@ -330,22 +339,13 @@
     <t>学习或者升级3技能“道力盾”</t>
   </si>
   <si>
-    <t>3005</t>
+    <t>3006</t>
   </si>
   <si>
     <t>道力精通</t>
   </si>
   <si>
     <t>学习或者升级3技能“道力精通”</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>禁锢术</t>
-  </si>
-  <si>
-    <t>学习或者升级3技能“禁锢术”</t>
   </si>
   <si>
     <t>3007</t>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 1 金币
 2 装备
 3 技能书
-，</t>
+4 材料</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="100">
   <si>
     <t>_Id</t>
   </si>
@@ -207,9 +207,6 @@
     <t>学习或者升级1技能“武力精通”</t>
   </si>
   <si>
-    <t>10000000</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>学习或者升级1技能“烈火剑法”</t>
   </si>
   <si>
-    <t>100000000</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>学习或者升级2技能“小火球”</t>
   </si>
   <si>
-    <t>1000000000</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>学习或者升级2技能“雷电术”</t>
   </si>
   <si>
-    <t>2147483647</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -355,6 +343,12 @@
   </si>
   <si>
     <t>学习或者升级3技能“召唤神兽”</t>
+  </si>
+  <si>
+    <t>魂环碎片</t>
+  </si>
+  <si>
+    <t>合成魂环的材料</t>
   </si>
 </sst>
 </file>
@@ -1323,21 +1317,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K26"/>
+  <dimension ref="C3:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
-    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1427,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:11">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="true">
+    <row r="7" ht="24" customHeight="1" spans="3:11">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="24.0" customHeight="true">
+    <row r="8" ht="24" customHeight="1" spans="3:11">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="24.0" customHeight="true">
+    <row r="9" ht="24" customHeight="1" spans="3:11">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="24.0" customHeight="true">
+    <row r="10" ht="24" customHeight="1" spans="3:11">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -1572,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="24.0" customHeight="true">
+    <row r="11" ht="24" customHeight="1" spans="3:11">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1580,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1601,27 +1595,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="24.0" customHeight="true">
+    <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -1630,21 +1624,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="24.0" customHeight="true">
+    <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1659,21 +1653,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="24.0" customHeight="true">
+    <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -1688,21 +1682,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="24.0" customHeight="true">
+    <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -1717,21 +1711,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="24.0" customHeight="true">
+    <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1746,21 +1740,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="true">
+    <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -1775,21 +1769,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="24.0" customHeight="true">
+    <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1804,27 +1798,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="24.0" customHeight="true">
+    <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -1833,21 +1827,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="24.0" customHeight="true">
+    <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1862,21 +1856,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="24.0" customHeight="true">
+    <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -1891,21 +1885,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="24.0" customHeight="true">
+    <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1920,21 +1914,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="24.0" customHeight="true">
+    <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -1949,21 +1943,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="24.0" customHeight="true">
+    <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1978,21 +1972,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="24.0" customHeight="true">
+    <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -2007,33 +2001,59 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="24.0" customHeight="true">
+    <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="定制配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -40,7 +41,42 @@
 1 金币
 2 装备
 3 技能书
-4 材料</t>
+，</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+，</t>
         </r>
       </text>
     </comment>
@@ -49,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
     <t>_Id</t>
   </si>
@@ -207,6 +243,9 @@
     <t>学习或者升级1技能“武力精通”</t>
   </si>
   <si>
+    <t>10000000</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
@@ -216,6 +255,9 @@
     <t>学习或者升级1技能“烈火剑法”</t>
   </si>
   <si>
+    <t>100000000</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
@@ -228,6 +270,9 @@
     <t>学习或者升级2技能“小火球”</t>
   </si>
   <si>
+    <t>1000000000</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
@@ -235,6 +280,9 @@
   </si>
   <si>
     <t>学习或者升级2技能“雷电术”</t>
+  </si>
+  <si>
+    <t>2147483647</t>
   </si>
   <si>
     <t>2003</t>
@@ -1317,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K27"/>
+  <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1329,7 +1377,7 @@
     <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -1580,7 +1628,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1597,25 +1645,25 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:11">
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -1626,19 +1674,19 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:11">
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1655,19 +1703,19 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -1684,19 +1732,19 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -1713,19 +1761,19 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1742,19 +1790,19 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
@@ -1771,19 +1819,19 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1800,25 +1848,25 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -1829,19 +1877,19 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1858,19 +1906,19 @@
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:11">
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
@@ -1887,19 +1935,19 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1916,19 +1964,19 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -1945,19 +1993,19 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1974,19 +2022,19 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -2003,57 +2051,31 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:10">
-      <c r="C27" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>99999999</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2067,4 +2089,152 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="1" customFormat="1" spans="3:11">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:11">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2096,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -41,7 +41,9 @@
 1 金币
 2 装备
 3 技能书
-，</t>
+4.礼包
+5.材料
+</t>
         </r>
       </text>
     </comment>
@@ -76,7 +78,8 @@
 1 金币
 2 装备
 3 技能书
-，</t>
+4.礼包
+5.材料</t>
         </r>
       </text>
     </comment>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
   <si>
     <t>_Id</t>
   </si>
@@ -147,6 +150,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>魂环碎片</t>
+  </si>
+  <si>
+    <t>合成魂环的材料</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
@@ -156,10 +165,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>学习或者升级1技能“基础剑术”</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>学习或者升级战士技能基础剑术</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
   <si>
     <t>99</t>
@@ -180,10 +189,7 @@
     <t>刺杀剑术</t>
   </si>
   <si>
-    <t>学习或者升级1技能“刺杀剑术”</t>
-  </si>
-  <si>
-    <t>1000</t>
+    <t>学习或者升级战士技能刺杀剑术</t>
   </si>
   <si>
     <t>10</t>
@@ -195,10 +201,7 @@
     <t>半月弯刀</t>
   </si>
   <si>
-    <t>学习或者升级1技能“半月弯刀”</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>学习或者升级战士技能半月弯刀</t>
   </si>
   <si>
     <t>20</t>
@@ -210,52 +213,43 @@
     <t>野蛮撞击</t>
   </si>
   <si>
-    <t>学习或者升级1技能“野蛮撞击”</t>
+    <t>学习或者升级战士技能野蛮撞击</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>武力盾</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能武力盾</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>武力精通</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能武力精通</t>
   </si>
   <si>
     <t>100000</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>武力盾</t>
-  </si>
-  <si>
-    <t>学习或者升级1技能“武力盾”</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>武力精通</t>
-  </si>
-  <si>
-    <t>学习或者升级1技能“武力精通”</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
     <t>烈火剑法</t>
   </si>
   <si>
-    <t>学习或者升级1技能“烈火剑法”</t>
-  </si>
-  <si>
-    <t>100000000</t>
+    <t>学习或者升级战士技能烈火剑法</t>
   </si>
   <si>
     <t>60</t>
@@ -267,10 +261,7 @@
     <t>小火球</t>
   </si>
   <si>
-    <t>学习或者升级2技能“小火球”</t>
-  </si>
-  <si>
-    <t>1000000000</t>
+    <t>学习或者升级法师技能小火球</t>
   </si>
   <si>
     <t>2002</t>
@@ -279,10 +270,7 @@
     <t>雷电术</t>
   </si>
   <si>
-    <t>学习或者升级2技能“雷电术”</t>
-  </si>
-  <si>
-    <t>2147483647</t>
+    <t>学习或者升级法师技能雷电术</t>
   </si>
   <si>
     <t>2003</t>
@@ -291,7 +279,7 @@
     <t>火墙</t>
   </si>
   <si>
-    <t>学习或者升级2技能“火墙”</t>
+    <t>学习或者升级法师技能火墙</t>
   </si>
   <si>
     <t>2004</t>
@@ -300,7 +288,7 @@
     <t>爆裂火焰</t>
   </si>
   <si>
-    <t>学习或者升级2技能“爆裂火焰”</t>
+    <t>学习或者升级法师技能爆裂火焰</t>
   </si>
   <si>
     <t>2005</t>
@@ -309,7 +297,7 @@
     <t>魔法盾</t>
   </si>
   <si>
-    <t>学习或者升级2技能“魔法盾”</t>
+    <t>学习或者升级法师技能魔法盾</t>
   </si>
   <si>
     <t>2006</t>
@@ -318,7 +306,7 @@
     <t>法术精通</t>
   </si>
   <si>
-    <t>学习或者升级2技能“法术精通”</t>
+    <t>学习或者升级法师技能法术精通</t>
   </si>
   <si>
     <t>2007</t>
@@ -327,7 +315,7 @@
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>学习或者升级2技能“冰咆哮”</t>
+    <t>学习或者升级法师技能冰咆哮</t>
   </si>
   <si>
     <t>3001</t>
@@ -336,7 +324,7 @@
     <t>治疗术</t>
   </si>
   <si>
-    <t>学习或者升级3技能“治疗术”</t>
+    <t>学习或者升级道士技能治疗术</t>
   </si>
   <si>
     <t>3002</t>
@@ -345,7 +333,7 @@
     <t>火符术</t>
   </si>
   <si>
-    <t>学习或者升级3技能“火符术”</t>
+    <t>学习或者升级道士技能火符术</t>
   </si>
   <si>
     <t>3003</t>
@@ -354,7 +342,7 @@
     <t>施毒术</t>
   </si>
   <si>
-    <t>学习或者升级3技能“施毒术”</t>
+    <t>学习或者升级道士技能施毒术</t>
   </si>
   <si>
     <t>3004</t>
@@ -363,7 +351,7 @@
     <t>召唤骷髅</t>
   </si>
   <si>
-    <t>学习或者升级3技能“召唤骷髅”</t>
+    <t>学习或者升级道士技能召唤骷髅</t>
   </si>
   <si>
     <t>3005</t>
@@ -372,7 +360,7 @@
     <t>道力盾</t>
   </si>
   <si>
-    <t>学习或者升级3技能“道力盾”</t>
+    <t>学习或者升级道士技能道力盾</t>
   </si>
   <si>
     <t>3006</t>
@@ -381,7 +369,7 @@
     <t>道力精通</t>
   </si>
   <si>
-    <t>学习或者升级3技能“道力精通”</t>
+    <t>学习或者升级道士技能道力精通</t>
   </si>
   <si>
     <t>3007</t>
@@ -390,13 +378,7 @@
     <t>召唤神兽</t>
   </si>
   <si>
-    <t>学习或者升级3技能“召唤神兽”</t>
-  </si>
-  <si>
-    <t>魂环碎片</t>
-  </si>
-  <si>
-    <t>合成魂环的材料</t>
+    <t>学习或者升级道士技能召唤神兽</t>
   </si>
 </sst>
 </file>
@@ -1368,18 +1350,18 @@
   <dimension ref="C3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E26" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1469,94 +1451,94 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
+    <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
-      <c r="C7" t="s">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1564,518 +1546,518 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
       </c>
       <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="J9" t="s">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
         <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
       <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
         <v>27</v>
       </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
         <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
-      <c r="C23" t="s">
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D25" t="s">
         <v>92</v>
       </c>
-      <c r="G23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
+      <c r="C26" t="s">
         <v>94</v>
       </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2097,18 +2079,18 @@
   <dimension ref="A3:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:11">
@@ -2205,13 +2187,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>_Id</t>
   </si>
@@ -156,6 +156,21 @@
     <t>合成魂环的材料</t>
   </si>
   <si>
+    <t>装备精炼石</t>
+  </si>
+  <si>
+    <t>装备精练材料</t>
+  </si>
+  <si>
+    <t>2倍经验一小时</t>
+  </si>
+  <si>
+    <t>4倍经验一小时</t>
+  </si>
+  <si>
+    <t>8倍经验一小时</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
@@ -228,6 +243,9 @@
     <t>学习或者升级战士技能武力盾</t>
   </si>
   <si>
+    <t>100000</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -238,9 +256,6 @@
   </si>
   <si>
     <t>学习或者升级战士技能武力精通</t>
-  </si>
-  <si>
-    <t>100000</t>
   </si>
   <si>
     <t>1007</t>
@@ -1350,7 +1365,7 @@
   <dimension ref="C3:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E25:E26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1453,611 +1468,611 @@
     </row>
     <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="24.0" customHeight="true">
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" ht="24.0" customHeight="true">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="24.0" customHeight="true">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="24.0" customHeight="true">
       <c r="C11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.0" customHeight="true">
       <c r="C13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="24.0" customHeight="true">
       <c r="C14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.0" customHeight="true">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="24.0" customHeight="true">
       <c r="C16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="24.0" customHeight="true">
       <c r="C17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="24.0" customHeight="true">
       <c r="C19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
         <v>34</v>
       </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="24.0" customHeight="true">
       <c r="C22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2076,13 +2091,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K6"/>
+  <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
     <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
@@ -2209,6 +2224,128 @@
       </c>
       <c r="K6" s="1"/>
     </row>
+    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>4002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>99</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>6002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>6003</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -150,6 +150,27 @@
     <t>string</t>
   </si>
   <si>
+    <t>魂环碎片</t>
+  </si>
+  <si>
+    <t>合成魂环的材料</t>
+  </si>
+  <si>
+    <t>精炼石</t>
+  </si>
+  <si>
+    <t>装备精练材料</t>
+  </si>
+  <si>
+    <t>2倍经验一小时</t>
+  </si>
+  <si>
+    <t>4倍经验一小时</t>
+  </si>
+  <si>
+    <t>8倍经验一小时</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
@@ -165,10 +186,10 @@
     <t>10000</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>4</t>
@@ -186,7 +207,7 @@
     <t>学习或者升级战士技能刺杀剑术</t>
   </si>
   <si>
-    <t>10</t>
+    <t>20</t>
   </si>
   <si>
     <t>1003</t>
@@ -198,7 +219,7 @@
     <t>学习或者升级战士技能半月弯刀</t>
   </si>
   <si>
-    <t>20</t>
+    <t>30</t>
   </si>
   <si>
     <t>1004</t>
@@ -210,7 +231,10 @@
     <t>学习或者升级战士技能野蛮撞击</t>
   </si>
   <si>
-    <t>30</t>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>1005</t>
@@ -222,12 +246,6 @@
     <t>学习或者升级战士技能武力盾</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
@@ -237,6 +255,9 @@
     <t>学习或者升级战士技能武力精通</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
@@ -246,7 +267,7 @@
     <t>学习或者升级战士技能烈火剑法</t>
   </si>
   <si>
-    <t>60</t>
+    <t>70</t>
   </si>
   <si>
     <t>2001</t>
@@ -373,27 +394,6 @@
   </si>
   <si>
     <t>学习或者升级道士技能召唤神兽</t>
-  </si>
-  <si>
-    <t>魂环碎片</t>
-  </si>
-  <si>
-    <t>合成魂环的材料</t>
-  </si>
-  <si>
-    <t>精炼石</t>
-  </si>
-  <si>
-    <t>装备精练材料</t>
-  </si>
-  <si>
-    <t>2倍经验一小时</t>
-  </si>
-  <si>
-    <t>4倍经验一小时</t>
-  </si>
-  <si>
-    <t>8倍经验一小时</t>
   </si>
 </sst>
 </file>
@@ -1368,15 +1368,15 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1466,613 +1466,613 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
+    <row r="6" ht="24.0" customHeight="true">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="24.0" customHeight="true">
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="true">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
-      <c r="C8" t="s">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="24.0" customHeight="true">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="24.0" customHeight="true">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="24.0" customHeight="true">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="24.0" customHeight="true">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="24.0" customHeight="true">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="14" ht="24.0" customHeight="true">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="24.0" customHeight="true">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="24.0" customHeight="true">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="24.0" customHeight="true">
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="24.0" customHeight="true">
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="24.0" customHeight="true">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
-      <c r="C15" t="s">
+      <c r="I19" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="24.0" customHeight="true">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="true">
       <c r="C21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="24.0" customHeight="true">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
         <v>32</v>
       </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="24.0" customHeight="true">
       <c r="C23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" ht="24.0" customHeight="true">
       <c r="C24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="true">
       <c r="C25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2094,18 +2094,18 @@
   <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
+    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:11">
@@ -2202,13 +2202,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2260,13 +2260,13 @@
         <v>6001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2291,13 +2291,13 @@
         <v>6002</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>6003</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,231 @@
     <t>string</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>基础剑术</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能基础剑术</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>刺杀剑术</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能刺杀剑术</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>半月弯刀</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能半月弯刀</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能野蛮撞击</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>武力盾</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能武力盾</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>武力精通</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能武力精通</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>烈火剑法</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能烈火剑法</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>小火球</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能小火球</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能雷电术</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能火墙</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能爆裂火焰</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能魔法盾</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>法术精通</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能法术精通</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>冰咆哮</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能冰咆哮</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能治疗术</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能火符术</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能施毒术</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能召唤骷髅</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>道力盾</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能道力盾</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>道力精通</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能道力精通</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能召唤神兽</t>
+  </si>
+  <si>
     <t>魂环碎片</t>
   </si>
   <si>
@@ -169,231 +394,6 @@
   </si>
   <si>
     <t>8倍经验一小时</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>基础剑术</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能基础剑术</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>刺杀剑术</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能刺杀剑术</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>半月弯刀</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能半月弯刀</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>野蛮撞击</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能野蛮撞击</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>武力盾</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能武力盾</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>武力精通</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能武力精通</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>烈火剑法</t>
-  </si>
-  <si>
-    <t>学习或者升级战士技能烈火剑法</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>小火球</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能小火球</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>雷电术</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能雷电术</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>火墙</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能火墙</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>爆裂火焰</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能爆裂火焰</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>魔法盾</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能魔法盾</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>法术精通</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能法术精通</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>冰咆哮</t>
-  </si>
-  <si>
-    <t>学习或者升级法师技能冰咆哮</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>治疗术</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能治疗术</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>火符术</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能火符术</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>施毒术</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能施毒术</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能召唤骷髅</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>道力盾</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能道力盾</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>道力精通</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能道力精通</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>召唤神兽</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能召唤神兽</t>
   </si>
 </sst>
 </file>
@@ -1364,19 +1364,19 @@
   <sheetPr/>
   <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
-    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
@@ -1466,613 +1466,613 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24.0" customHeight="true">
+    <row r="6" ht="24" customHeight="1" spans="3:11">
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:11">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:11">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" ht="24.0" customHeight="true">
-      <c r="C7" t="s">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:11">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:11">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:11">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:11">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:11">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:11">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="true">
-      <c r="C8" t="s">
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:11">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:11">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:11">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:11">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:11">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:11">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:11">
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="24.0" customHeight="true">
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:11">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:11">
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:11">
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:11">
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="true">
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="true">
-      <c r="C11" t="s">
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:11">
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="true">
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="24.0" customHeight="true">
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="true">
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="true">
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="24.0" customHeight="true">
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="24.0" customHeight="true">
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" ht="24.0" customHeight="true">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="24.0" customHeight="true">
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="24.0" customHeight="true">
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="true">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" ht="24.0" customHeight="true">
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" ht="24.0" customHeight="true">
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" ht="24.0" customHeight="true">
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="true">
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" ht="24.0" customHeight="true">
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2093,19 +2093,19 @@
   <sheetPr/>
   <dimension ref="A3:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="26.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.0" collapsed="false"/>
-    <col min="8" max="11" customWidth="true" style="1" width="12.25" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:11">
@@ -2202,13 +2202,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2260,13 +2260,13 @@
         <v>6001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2291,13 +2291,13 @@
         <v>6002</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>6003</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,10 @@
 2 装备
 3 技能书
 4.礼包
-5.材料</t>
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
         </r>
       </text>
     </comment>
@@ -88,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
   <si>
     <t>_Id</t>
   </si>
@@ -394,6 +397,60 @@
   </si>
   <si>
     <t>8倍经验一小时</t>
+  </si>
+  <si>
+    <t>金币1小时</t>
+  </si>
+  <si>
+    <t>1小时金币收益</t>
+  </si>
+  <si>
+    <t>金币2小时</t>
+  </si>
+  <si>
+    <t>2小时金币收益</t>
+  </si>
+  <si>
+    <t>金币3小时</t>
+  </si>
+  <si>
+    <t>3小时金币收益</t>
+  </si>
+  <si>
+    <t>金币4小时</t>
+  </si>
+  <si>
+    <t>4小时金币收益</t>
+  </si>
+  <si>
+    <t>金币5小时</t>
+  </si>
+  <si>
+    <t>5小时金币收益</t>
+  </si>
+  <si>
+    <t>金币6小时</t>
+  </si>
+  <si>
+    <t>6小时金币收益</t>
+  </si>
+  <si>
+    <t>经验1小时</t>
+  </si>
+  <si>
+    <t>经验2小时</t>
+  </si>
+  <si>
+    <t>经验3小时</t>
+  </si>
+  <si>
+    <t>经验4小时</t>
+  </si>
+  <si>
+    <t>经验5小时</t>
+  </si>
+  <si>
+    <t>经验6小时</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1421,7 @@
   <sheetPr/>
   <dimension ref="C3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2091,16 +2148,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K10"/>
+  <dimension ref="A3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
@@ -2344,6 +2401,354 @@
       </c>
       <c r="K10" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="1">
+        <v>6101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>99</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="1">
+        <v>6102</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="1">
+        <v>6103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>99</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="1">
+        <v>6104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>99</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="1">
+        <v>6105</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>99</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="1">
+        <v>6106</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="1">
+        <v>7101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>99</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="1">
+        <v>7102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>99</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="1">
+        <v>7103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>99</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="1">
+        <v>7104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>99</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="1">
+        <v>7105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>99</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
   <si>
     <t>_Id</t>
   </si>
@@ -438,19 +438,37 @@
     <t>经验1小时</t>
   </si>
   <si>
+    <t>1小时经验收益</t>
+  </si>
+  <si>
     <t>经验2小时</t>
   </si>
   <si>
+    <t>2小时经验收益</t>
+  </si>
+  <si>
     <t>经验3小时</t>
   </si>
   <si>
+    <t>3小时经验收益</t>
+  </si>
+  <si>
     <t>经验4小时</t>
   </si>
   <si>
+    <t>4小时经验收益</t>
+  </si>
+  <si>
     <t>经验5小时</t>
   </si>
   <si>
+    <t>5小时经验收益</t>
+  </si>
+  <si>
     <t>经验6小时</t>
+  </si>
+  <si>
+    <t>6小时经验收益</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2169,7 @@
   <dimension ref="A3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2588,7 +2606,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2611,13 +2629,13 @@
         <v>7102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2640,13 +2658,13 @@
         <v>7103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2669,13 +2687,13 @@
         <v>7104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2698,13 +2716,13 @@
         <v>7105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2727,13 +2745,13 @@
         <v>7107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
   <si>
     <t>_Id</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>装备精练材料</t>
+  </si>
+  <si>
+    <t>装备副本卷</t>
+  </si>
+  <si>
+    <t>装备副本次数+1</t>
   </si>
   <si>
     <t>2倍经验一小时</t>
@@ -474,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -503,6 +509,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -516,6 +550,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,21 +597,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,28 +647,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,13 +679,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,24 +745,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,18 +793,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,36 +805,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -805,24 +829,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,12 +848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +870,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -896,21 +917,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,148 +973,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,52 +1127,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2166,10 +2172,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K22"/>
+  <dimension ref="A3:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2328,26 +2334,26 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>6001</v>
+        <v>4003</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2355,27 +2361,25 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>99</v>
@@ -2390,23 +2394,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="10" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
         <v>99</v>
@@ -2421,21 +2425,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>6101</v>
+        <v>6003</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>99</v>
@@ -2447,12 +2453,12 @@
         <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>104</v>
@@ -2476,12 +2482,12 @@
         <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>106</v>
@@ -2505,12 +2511,12 @@
         <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
@@ -2534,12 +2540,12 @@
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>110</v>
@@ -2563,12 +2569,12 @@
         <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>112</v>
@@ -2592,18 +2598,18 @@
         <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>115</v>
@@ -2621,12 +2627,12 @@
         <v>4</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
@@ -2650,12 +2656,12 @@
         <v>4</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>118</v>
@@ -2679,12 +2685,12 @@
         <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>120</v>
@@ -2708,12 +2714,12 @@
         <v>4</v>
       </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>122</v>
@@ -2737,12 +2743,12 @@
         <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>124</v>
@@ -2766,6 +2772,35 @@
         <v>4</v>
       </c>
       <c r="K22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>99</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
   <si>
     <t>_Id</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>装备副本次数+1</t>
+  </si>
+  <si>
+    <t>BOSS挑战卷</t>
+  </si>
+  <si>
+    <t>挑战BOSS之家</t>
   </si>
   <si>
     <t>2倍经验一小时</t>
@@ -653,12 +659,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2172,10 +2178,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K23"/>
+  <dimension ref="A3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2363,26 +2369,26 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>6001</v>
+        <v>4004</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2390,27 +2396,25 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>99</v>
@@ -2425,23 +2429,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
         <v>99</v>
@@ -2456,21 +2460,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>6101</v>
+        <v>6003</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="1">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>99</v>
@@ -2482,12 +2488,12 @@
         <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>106</v>
@@ -2511,12 +2517,12 @@
         <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
@@ -2540,12 +2546,12 @@
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>110</v>
@@ -2569,12 +2575,12 @@
         <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>112</v>
@@ -2598,12 +2604,12 @@
         <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>114</v>
@@ -2627,18 +2633,18 @@
         <v>4</v>
       </c>
       <c r="K17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>117</v>
@@ -2656,12 +2662,12 @@
         <v>4</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>118</v>
@@ -2685,12 +2691,12 @@
         <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>120</v>
@@ -2714,12 +2720,12 @@
         <v>4</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>122</v>
@@ -2743,12 +2749,12 @@
         <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>124</v>
@@ -2772,12 +2778,12 @@
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>126</v>
@@ -2801,6 +2807,35 @@
         <v>4</v>
       </c>
       <c r="K23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>99</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
   <si>
     <t>_Id</t>
   </si>
@@ -252,6 +252,18 @@
     <t>70</t>
   </si>
   <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>护体神盾</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能护体神盾</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -315,6 +327,15 @@
     <t>学习或者升级法师技能冰咆哮</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能瞬息移动ing</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -376,6 +397,15 @@
   </si>
   <si>
     <t>学习或者升级道士技能召唤神兽</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能隐身术</t>
   </si>
   <si>
     <t>魂环碎片</t>
@@ -659,12 +689,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1130,6 +1160,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1449,10 +1480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K26"/>
+  <dimension ref="C3:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1757,7 +1788,7 @@
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
@@ -1770,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
@@ -1787,16 +1818,16 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:11">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -1805,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -1816,16 +1847,16 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:11">
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -1834,7 +1865,7 @@
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -1845,25 +1876,25 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:11">
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -1874,16 +1905,16 @@
     </row>
     <row r="17" ht="24" customHeight="1" spans="3:11">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
@@ -1892,7 +1923,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -1903,16 +1934,16 @@
     </row>
     <row r="18" ht="24" customHeight="1" spans="3:11">
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -1921,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -1932,16 +1963,16 @@
     </row>
     <row r="19" ht="24" customHeight="1" spans="3:11">
       <c r="C19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -1950,7 +1981,7 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -1961,25 +1992,25 @@
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:11">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -1989,26 +2020,26 @@
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" t="s">
-        <v>77</v>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" t="s">
-        <v>32</v>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2019,16 +2050,16 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:11">
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -2037,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2048,25 +2079,25 @@
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:11">
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2077,25 +2108,25 @@
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:11">
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2106,16 +2137,16 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:11">
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2124,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2135,16 +2166,16 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:11">
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -2153,12 +2184,99 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="K26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:11">
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:11">
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:11">
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2180,7 +2298,7 @@
   <sheetPr/>
   <dimension ref="A3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2289,13 +2407,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2318,13 +2436,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2347,13 +2465,13 @@
         <v>4003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2376,13 +2494,13 @@
         <v>4004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2405,13 +2523,13 @@
         <v>6001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2436,13 +2554,13 @@
         <v>6002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
@@ -2467,13 +2585,13 @@
         <v>6003</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1">
         <v>8</v>
@@ -2496,13 +2614,13 @@
         <v>6101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2525,13 +2643,13 @@
         <v>6102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2554,13 +2672,13 @@
         <v>6103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2583,13 +2701,13 @@
         <v>6104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2612,13 +2730,13 @@
         <v>6105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2641,13 +2759,13 @@
         <v>6106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2670,13 +2788,13 @@
         <v>7101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2699,13 +2817,13 @@
         <v>7102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2728,13 +2846,13 @@
         <v>7103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2757,13 +2875,13 @@
         <v>7104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2786,13 +2904,13 @@
         <v>7105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2815,13 +2933,13 @@
         <v>7107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>_Id</t>
   </si>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -545,34 +545,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -586,14 +558,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +597,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,7 +662,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,49 +715,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,121 +853,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,21 +906,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -953,6 +938,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,148 +1009,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,52 +1164,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="C3:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2026,8 +2026,8 @@
       <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="E21">
-        <v>3</v>
+      <c r="E21" t="s">
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>80</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
   <si>
     <t>_Id</t>
   </si>
@@ -432,13 +432,25 @@
     <t>挑战BOSS之家</t>
   </si>
   <si>
-    <t>2倍经验一小时</t>
-  </si>
-  <si>
-    <t>4倍经验一小时</t>
-  </si>
-  <si>
-    <t>8倍经验一小时</t>
+    <t>铜矿</t>
+  </si>
+  <si>
+    <t>合成专属装备</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>银矿</t>
+  </si>
+  <si>
+    <t>金矿</t>
+  </si>
+  <si>
+    <t>黑铁矿</t>
+  </si>
+  <si>
+    <t>紫金矿</t>
   </si>
   <si>
     <t>金币1小时</t>
@@ -1482,7 +1494,7 @@
   <sheetPr/>
   <dimension ref="C3:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2296,10 +2308,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K24"/>
+  <dimension ref="A3:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2516,285 +2528,231 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>6001</v>
+        <v>4101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>6002</v>
+        <v>4102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>6003</v>
+        <v>4103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>6101</v>
+        <v>4104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>6102</v>
+        <v>4105</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>6103</v>
+        <v>4106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="1">
-        <v>6104</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>99</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="1">
-        <v>6105</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>99</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="1">
-        <v>6106</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>99</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6</v>
-      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="1">
-        <v>7101</v>
+        <v>6101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -2814,16 +2772,16 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="1">
-        <v>7102</v>
+        <v>6102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2843,16 +2801,16 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="1">
-        <v>7103</v>
+        <v>6103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2872,16 +2830,16 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>7104</v>
+        <v>6104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2901,16 +2859,16 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>7105</v>
+        <v>6105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2930,16 +2888,16 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>7107</v>
+        <v>6106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -2954,6 +2912,180 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="1">
+        <v>7101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>99</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="1">
+        <v>7102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>99</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="1">
+        <v>7103</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>99</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="1">
+        <v>7104</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>99</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="1">
+        <v>7105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>99</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>99</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="146">
   <si>
     <t>_Id</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>挑战BOSS之家</t>
+  </si>
+  <si>
+    <t>专属洗练石</t>
+  </si>
+  <si>
+    <t>洗练专属词条</t>
   </si>
   <si>
     <t>铜矿</t>
@@ -2308,10 +2314,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K30"/>
+  <dimension ref="A3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2437,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -2524,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -2532,7 +2538,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>4101</v>
+        <v>4005</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>113</v>
@@ -2561,7 +2567,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>115</v>
@@ -2570,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2590,16 +2596,16 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2619,16 +2625,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2648,16 +2654,16 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2677,16 +2683,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2702,20 +2708,36 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="C16" s="1">
+        <v>4106</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" customFormat="1" ht="19" customHeight="1" spans="1:11">
+    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2728,7 +2750,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2741,38 +2763,22 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="1">
-        <v>6101</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>99</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
+    <row r="19" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>122</v>
@@ -2796,12 +2802,12 @@
         <v>4</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>124</v>
@@ -2825,12 +2831,12 @@
         <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>126</v>
@@ -2854,12 +2860,12 @@
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>128</v>
@@ -2883,12 +2889,12 @@
         <v>4</v>
       </c>
       <c r="K23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>130</v>
@@ -2912,18 +2918,18 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>133</v>
@@ -2941,12 +2947,12 @@
         <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>134</v>
@@ -2970,12 +2976,12 @@
         <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>136</v>
@@ -2999,12 +3005,12 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>138</v>
@@ -3028,12 +3034,12 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>140</v>
@@ -3057,12 +3063,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>142</v>
@@ -3086,6 +3092,35 @@
         <v>4</v>
       </c>
       <c r="K30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>99</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
   <si>
     <t>_Id</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>洗练专属词条</t>
+  </si>
+  <si>
+    <t>月饼</t>
+  </si>
+  <si>
+    <t>节日道具</t>
   </si>
   <si>
     <t>铜矿</t>
@@ -2314,10 +2320,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K31"/>
+  <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2567,7 +2573,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>4101</v>
+        <v>4006</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>115</v>
@@ -2590,13 +2596,15 @@
       <c r="J11" s="1">
         <v>5</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>117</v>
@@ -2605,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2625,16 +2633,16 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2654,16 +2662,16 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2683,16 +2691,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2712,16 +2720,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2737,20 +2745,36 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="C17" s="1">
+        <v>4106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:11">
+    <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2763,7 +2787,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="19" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2776,38 +2800,22 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="1">
-        <v>6101</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>99</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
+    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>124</v>
@@ -2831,12 +2839,12 @@
         <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>126</v>
@@ -2860,12 +2868,12 @@
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>128</v>
@@ -2889,12 +2897,12 @@
         <v>4</v>
       </c>
       <c r="K23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>130</v>
@@ -2918,12 +2926,12 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>132</v>
@@ -2947,18 +2955,18 @@
         <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>135</v>
@@ -2976,12 +2984,12 @@
         <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>136</v>
@@ -3005,12 +3013,12 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>138</v>
@@ -3034,12 +3042,12 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>140</v>
@@ -3063,12 +3071,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>142</v>
@@ -3092,12 +3100,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>144</v>
@@ -3121,6 +3129,35 @@
         <v>4</v>
       </c>
       <c r="K31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>99</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
     <t>月饼</t>
   </si>
   <si>
-    <t>节日道具</t>
+    <t>节日道具，20个升级一级任意技能，10月8号过期自动消失</t>
   </si>
   <si>
     <t>铜矿</t>
@@ -2323,7 +2323,7 @@
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
+    <sheet name="图鉴" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -90,8 +91,47 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+4.礼包
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="187">
   <si>
     <t>_Id</t>
   </si>
@@ -441,18 +481,21 @@
     <t>月饼</t>
   </si>
   <si>
-    <t>节日道具，20个升级一级任意技能，10月8号过期自动消失</t>
-  </si>
-  <si>
-    <t>铜矿</t>
+    <t>节日道具，20个升级一级任意技能</t>
+  </si>
+  <si>
+    <t>图鉴碎片</t>
+  </si>
+  <si>
+    <t>兑换万能图鉴的碎片</t>
+  </si>
+  <si>
+    <t>铁矿</t>
   </si>
   <si>
     <t>合成专属装备</t>
   </si>
   <si>
-    <t>铁矿</t>
-  </si>
-  <si>
     <t>银矿</t>
   </si>
   <si>
@@ -535,6 +578,120 @@
   </si>
   <si>
     <t>6小时经验收益</t>
+  </si>
+  <si>
+    <t>万能图鉴</t>
+  </si>
+  <si>
+    <t>激活任意图鉴</t>
+  </si>
+  <si>
+    <t>龙城鸡腿</t>
+  </si>
+  <si>
+    <t>激活对应图鉴</t>
+  </si>
+  <si>
+    <t>死神之镰</t>
+  </si>
+  <si>
+    <t>落意之剑</t>
+  </si>
+  <si>
+    <t>管家之锤</t>
+  </si>
+  <si>
+    <t>召唤之书</t>
+  </si>
+  <si>
+    <t>狗头黄金</t>
+  </si>
+  <si>
+    <t>铁木灵叶</t>
+  </si>
+  <si>
+    <t>玄灵粉尘</t>
+  </si>
+  <si>
+    <t>邪灵磨齿</t>
+  </si>
+  <si>
+    <t>千金露</t>
+  </si>
+  <si>
+    <t>毒魔藤</t>
+  </si>
+  <si>
+    <t>犀灵角</t>
+  </si>
+  <si>
+    <t>三星石</t>
+  </si>
+  <si>
+    <t>阴阳玉</t>
+  </si>
+  <si>
+    <t>紫阳兽皮</t>
+  </si>
+  <si>
+    <t>三尾狐尾</t>
+  </si>
+  <si>
+    <t>白灵参果</t>
+  </si>
+  <si>
+    <t>灵元玉液</t>
+  </si>
+  <si>
+    <t>虎蛇鳞</t>
+  </si>
+  <si>
+    <t>蛇王胆</t>
+  </si>
+  <si>
+    <t>腾龙肉</t>
+  </si>
+  <si>
+    <t>玄冥罗盘</t>
+  </si>
+  <si>
+    <t>火心七叶花</t>
+  </si>
+  <si>
+    <t>大道青莲</t>
+  </si>
+  <si>
+    <t>流光镜玉</t>
+  </si>
+  <si>
+    <t>龙血项链</t>
+  </si>
+  <si>
+    <t>琅琊金玉</t>
+  </si>
+  <si>
+    <t>辉月魂石</t>
+  </si>
+  <si>
+    <t>寒域冰果</t>
+  </si>
+  <si>
+    <t>阴阳玄灵木</t>
+  </si>
+  <si>
+    <t>昊华紫蝶</t>
+  </si>
+  <si>
+    <t>赤炎金铜</t>
+  </si>
+  <si>
+    <t>硫炎灵涎</t>
+  </si>
+  <si>
+    <t>九天寒铁</t>
+  </si>
+  <si>
+    <t>水晶玄铜</t>
   </si>
 </sst>
 </file>
@@ -547,7 +704,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +717,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1048,140 +1212,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1522,89 +1687,89 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1812,7 +1977,7 @@
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
@@ -1830,7 +1995,7 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J13" t="s">
@@ -2044,7 +2209,7 @@
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
@@ -2062,7 +2227,7 @@
       <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J21" t="s">
@@ -2276,7 +2441,7 @@
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:11">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D29" t="s">
@@ -2294,7 +2459,7 @@
       <c r="H29" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J29" t="s">
@@ -2323,7 +2488,7 @@
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2338,89 +2503,89 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:11">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:11">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:11">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2642,7 +2807,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2665,13 +2830,13 @@
         <v>4103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2694,13 +2859,13 @@
         <v>4104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2723,13 +2888,13 @@
         <v>4105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2752,13 +2917,13 @@
         <v>4106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2818,13 +2983,13 @@
         <v>6101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2847,13 +3012,13 @@
         <v>6102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2876,13 +3041,13 @@
         <v>6103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2905,13 +3070,13 @@
         <v>6104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -2934,13 +3099,13 @@
         <v>6105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -2963,13 +3128,13 @@
         <v>6106</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -2992,13 +3157,13 @@
         <v>7101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3021,13 +3186,13 @@
         <v>7102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3050,13 +3215,13 @@
         <v>7103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3079,13 +3244,13 @@
         <v>7104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3108,13 +3273,13 @@
         <v>7105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -3137,13 +3302,13 @@
         <v>7107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3159,6 +3324,1059 @@
       </c>
       <c r="K32" s="1">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" s="1" customFormat="1" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>2000001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C8" s="2">
+        <v>2000002</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C9" s="2">
+        <v>2000003</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C10" s="2">
+        <v>2000004</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>2000005</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>2000100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>2000101</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>2000102</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>2000103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>2000104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>2000105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>2000106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>2000107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>2000108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>2000109</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>2000110</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C24" s="2">
+        <v>2000111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C25" s="2">
+        <v>2000112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>2000113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C27" s="2">
+        <v>2000114</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C28" s="2">
+        <v>2000115</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C29" s="2">
+        <v>2000116</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C30" s="2">
+        <v>2000117</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="2">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C31" s="2">
+        <v>2000118</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C32" s="2">
+        <v>2000119</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="2">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C33" s="2">
+        <v>2000120</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C34" s="2">
+        <v>2000121</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="2">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C35" s="2">
+        <v>2000122</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C36" s="2">
+        <v>2000123</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="2">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C37" s="2">
+        <v>2000124</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C38" s="2">
+        <v>2000125</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="2">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C39" s="2">
+        <v>2000126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="2">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C40" s="2">
+        <v>2000127</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="2">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C41" s="2">
+        <v>2000128</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="2">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C42" s="2">
+        <v>2000129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="2">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -472,10 +472,10 @@
     <t>挑战BOSS之家</t>
   </si>
   <si>
-    <t>专属洗练石</t>
-  </si>
-  <si>
-    <t>洗练专属词条</t>
+    <t>专属碎片</t>
+  </si>
+  <si>
+    <t>兑换专属自选包</t>
   </si>
   <si>
     <t>月饼</t>
@@ -2488,7 +2488,7 @@
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -478,10 +478,10 @@
     <t>兑换专属自选包</t>
   </si>
   <si>
-    <t>月饼</t>
-  </si>
-  <si>
-    <t>节日道具，20个升级一级任意技能</t>
+    <t>书页</t>
+  </si>
+  <si>
+    <t>每20个升级一级任意技能</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -2488,7 +2488,7 @@
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="189">
   <si>
     <t>_Id</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>每20个升级一级任意技能</t>
+  </si>
+  <si>
+    <t>四格碎片</t>
+  </si>
+  <si>
+    <t>升级四格</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -2485,10 +2491,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K32"/>
+  <dimension ref="A3:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2769,7 +2775,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>117</v>
@@ -2798,7 +2804,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -2827,7 +2833,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>121</v>
@@ -2836,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2856,16 +2862,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2885,16 +2891,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2914,16 +2920,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2939,20 +2945,36 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="C18" s="1">
+        <v>4106</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="1" ht="19" customHeight="1" spans="1:11">
+    <row r="19" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2965,7 +2987,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2978,38 +3000,22 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="1">
-        <v>6101</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>99</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
+    <row r="21" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>127</v>
@@ -3033,12 +3039,12 @@
         <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -3062,12 +3068,12 @@
         <v>4</v>
       </c>
       <c r="K23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>131</v>
@@ -3091,12 +3097,12 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>133</v>
@@ -3120,12 +3126,12 @@
         <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>135</v>
@@ -3149,18 +3155,18 @@
         <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>138</v>
@@ -3178,12 +3184,12 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>139</v>
@@ -3207,12 +3213,12 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>141</v>
@@ -3236,12 +3242,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>143</v>
@@ -3265,12 +3271,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>145</v>
@@ -3294,12 +3300,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>147</v>
@@ -3323,6 +3329,35 @@
         <v>4</v>
       </c>
       <c r="K32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>99</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3447,13 +3482,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3473,13 +3508,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3499,13 +3534,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3525,13 +3560,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3551,13 +3586,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3577,13 +3612,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3604,13 +3639,13 @@
         <v>2000100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3630,13 +3665,13 @@
         <v>2000101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3656,13 +3691,13 @@
         <v>2000102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3682,13 +3717,13 @@
         <v>2000103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3708,13 +3743,13 @@
         <v>2000104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3734,13 +3769,13 @@
         <v>2000105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3760,13 +3795,13 @@
         <v>2000106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3786,13 +3821,13 @@
         <v>2000107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3812,13 +3847,13 @@
         <v>2000108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3838,13 +3873,13 @@
         <v>2000109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3864,13 +3899,13 @@
         <v>2000110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3890,13 +3925,13 @@
         <v>2000111</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3916,13 +3951,13 @@
         <v>2000112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -3942,13 +3977,13 @@
         <v>2000113</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -3968,13 +4003,13 @@
         <v>2000114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -3994,13 +4029,13 @@
         <v>2000115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4020,13 +4055,13 @@
         <v>2000116</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4046,13 +4081,13 @@
         <v>2000117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4072,13 +4107,13 @@
         <v>2000118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4098,13 +4133,13 @@
         <v>2000119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4124,13 +4159,13 @@
         <v>2000120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4150,13 +4185,13 @@
         <v>2000121</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4176,13 +4211,13 @@
         <v>2000122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4202,13 +4237,13 @@
         <v>2000123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4228,13 +4263,13 @@
         <v>2000124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4254,13 +4289,13 @@
         <v>2000125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4280,13 +4315,13 @@
         <v>2000126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4306,13 +4341,13 @@
         <v>2000127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4332,13 +4367,13 @@
         <v>2000128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4358,13 +4393,13 @@
         <v>2000129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="198">
   <si>
     <t>_Id</t>
   </si>
@@ -304,6 +304,15 @@
     <t>80</t>
   </si>
   <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>开天斩</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能开天斩</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -376,6 +385,15 @@
     <t>学习或者升级法师技能瞬息移动ing</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能流星火雨</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -446,6 +464,15 @@
   </si>
   <si>
     <t>学习或者升级道士技能隐身术</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能召唤月灵</t>
   </si>
   <si>
     <t>魂环碎片</t>
@@ -1675,10 +1702,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K29"/>
+  <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2012,7 +2039,7 @@
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D14" t="s">
@@ -2025,19 +2052,19 @@
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
+      <c r="I14" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
+      <c r="K14">
+        <v>500</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="3:11">
@@ -2060,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -2089,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2112,13 +2139,13 @@
         <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2147,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2176,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2205,7 +2232,7 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2215,7 +2242,7 @@
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
@@ -2233,8 +2260,8 @@
       <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>56</v>
+      <c r="I21" t="s">
+        <v>52</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2244,7 +2271,7 @@
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:11">
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D22" t="s">
@@ -2257,13 +2284,13 @@
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" t="s">
-        <v>26</v>
+      <c r="I22" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2273,7 +2300,7 @@
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="3:11">
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="s">
@@ -2286,19 +2313,19 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="I23" t="s">
-        <v>32</v>
+      <c r="I23" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
-        <v>28</v>
+      <c r="K23">
+        <v>500</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="3:11">
@@ -2321,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2344,13 +2371,13 @@
         <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2373,13 +2400,13 @@
         <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -2408,7 +2435,7 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
@@ -2437,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
@@ -2447,7 +2474,7 @@
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:11">
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>102</v>
       </c>
       <c r="D29" t="s">
@@ -2465,14 +2492,101 @@
       <c r="H29" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>56</v>
+      <c r="I29" t="s">
+        <v>48</v>
       </c>
       <c r="J29" t="s">
         <v>27</v>
       </c>
       <c r="K29" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:11">
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:11">
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:11">
+      <c r="C32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2607,7 @@
   <sheetPr/>
   <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -2602,13 +2716,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2631,13 +2745,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2660,13 +2774,13 @@
         <v>4003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2689,13 +2803,13 @@
         <v>4004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2718,13 +2832,13 @@
         <v>4005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2747,13 +2861,13 @@
         <v>4006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2778,13 +2892,13 @@
         <v>4007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2807,13 +2921,13 @@
         <v>4101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2836,13 +2950,13 @@
         <v>4102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2865,13 +2979,13 @@
         <v>4103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2894,13 +3008,13 @@
         <v>4104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2923,13 +3037,13 @@
         <v>4105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2952,13 +3066,13 @@
         <v>4106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3018,13 +3132,13 @@
         <v>6101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3047,13 +3161,13 @@
         <v>6102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -3076,13 +3190,13 @@
         <v>6103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -3105,13 +3219,13 @@
         <v>6104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3134,13 +3248,13 @@
         <v>6105</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -3163,13 +3277,13 @@
         <v>6106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3192,13 +3306,13 @@
         <v>7101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3221,13 +3335,13 @@
         <v>7102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3250,13 +3364,13 @@
         <v>7103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3279,13 +3393,13 @@
         <v>7104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -3308,13 +3422,13 @@
         <v>7105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3337,13 +3451,13 @@
         <v>7107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1">
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3482,13 +3596,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3508,13 +3622,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3534,13 +3648,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3560,13 +3674,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3586,13 +3700,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3612,13 +3726,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3639,13 +3753,13 @@
         <v>2000100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3665,13 +3779,13 @@
         <v>2000101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3691,13 +3805,13 @@
         <v>2000102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3717,13 +3831,13 @@
         <v>2000103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3743,13 +3857,13 @@
         <v>2000104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3769,13 +3883,13 @@
         <v>2000105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3795,13 +3909,13 @@
         <v>2000106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3821,13 +3935,13 @@
         <v>2000107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3847,13 +3961,13 @@
         <v>2000108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3873,13 +3987,13 @@
         <v>2000109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -3899,13 +4013,13 @@
         <v>2000110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3925,13 +4039,13 @@
         <v>2000111</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3951,13 +4065,13 @@
         <v>2000112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -3977,13 +4091,13 @@
         <v>2000113</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4003,13 +4117,13 @@
         <v>2000114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4029,13 +4143,13 @@
         <v>2000115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4055,13 +4169,13 @@
         <v>2000116</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4081,13 +4195,13 @@
         <v>2000117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4107,13 +4221,13 @@
         <v>2000118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4133,13 +4247,13 @@
         <v>2000119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4159,13 +4273,13 @@
         <v>2000120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4185,13 +4299,13 @@
         <v>2000121</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4211,13 +4325,13 @@
         <v>2000122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4237,13 +4351,13 @@
         <v>2000123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4263,13 +4377,13 @@
         <v>2000124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4289,13 +4403,13 @@
         <v>2000125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4315,13 +4429,13 @@
         <v>2000126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4341,13 +4455,13 @@
         <v>2000127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4367,13 +4481,13 @@
         <v>2000128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4393,13 +4507,13 @@
         <v>2000129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="197">
   <si>
     <t>_Id</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>50</t>
@@ -737,7 +734,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +761,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1245,144 +1250,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1704,888 +1713,888 @@
   <sheetPr/>
   <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" customHeight="1" spans="3:11">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
-      <c r="C4" s="3" t="s">
+    <row r="4" customHeight="1" spans="3:11">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="3" t="s">
+    <row r="5" customHeight="1" spans="3:11">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="3:11">
-      <c r="C6" t="s">
+    <row r="6" customHeight="1" spans="3:11">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="3:11">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:11">
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:11">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:11">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:11">
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:11">
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:11">
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:11">
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:11">
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:11">
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:11">
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:11">
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:11">
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="3:11">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:11">
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:11">
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:11">
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:11">
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:11">
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:11">
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="28" customHeight="1" spans="3:11">
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:11">
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:11">
+      <c r="C29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:11">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="3:11">
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:11">
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="31" customHeight="1" spans="3:11">
+      <c r="C31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:11">
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="3:11">
+      <c r="C32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:11">
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:11">
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:11">
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:11">
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:11">
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:11">
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:11">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:11">
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:11">
-      <c r="C22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:11">
-      <c r="C23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:11">
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:11">
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:11">
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:11">
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:11">
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:11">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:11">
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:11">
-      <c r="C31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:11">
-      <c r="C32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5">
         <v>500</v>
       </c>
     </row>
@@ -2716,13 +2725,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2745,13 +2754,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2774,13 +2783,13 @@
         <v>4003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2803,13 +2812,13 @@
         <v>4004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2832,13 +2841,13 @@
         <v>4005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2861,13 +2870,13 @@
         <v>4006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2892,13 +2901,13 @@
         <v>4007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2921,13 +2930,13 @@
         <v>4101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -2950,13 +2959,13 @@
         <v>4102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2979,13 +2988,13 @@
         <v>4103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3008,13 +3017,13 @@
         <v>4104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3037,13 +3046,13 @@
         <v>4105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3066,13 +3075,13 @@
         <v>4106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3132,13 +3141,13 @@
         <v>6101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="1">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3161,13 +3170,13 @@
         <v>6102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -3190,13 +3199,13 @@
         <v>6103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -3219,13 +3228,13 @@
         <v>6104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3248,13 +3257,13 @@
         <v>6105</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -3277,13 +3286,13 @@
         <v>6106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3306,13 +3315,13 @@
         <v>7101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3335,13 +3344,13 @@
         <v>7102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3364,13 +3373,13 @@
         <v>7103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3393,13 +3402,13 @@
         <v>7104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -3422,13 +3431,13 @@
         <v>7105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3451,13 +3460,13 @@
         <v>7107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="1">
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3596,13 +3605,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3622,13 +3631,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3648,13 +3657,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3674,13 +3683,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3700,13 +3709,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3726,13 +3735,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3753,13 +3762,13 @@
         <v>2000100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3779,13 +3788,13 @@
         <v>2000101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3805,13 +3814,13 @@
         <v>2000102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3831,13 +3840,13 @@
         <v>2000103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3857,13 +3866,13 @@
         <v>2000104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3883,13 +3892,13 @@
         <v>2000105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -3909,13 +3918,13 @@
         <v>2000106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -3935,13 +3944,13 @@
         <v>2000107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -3961,13 +3970,13 @@
         <v>2000108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -3987,13 +3996,13 @@
         <v>2000109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4013,13 +4022,13 @@
         <v>2000110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -4039,13 +4048,13 @@
         <v>2000111</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -4065,13 +4074,13 @@
         <v>2000112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -4091,13 +4100,13 @@
         <v>2000113</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4117,13 +4126,13 @@
         <v>2000114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4143,13 +4152,13 @@
         <v>2000115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4169,13 +4178,13 @@
         <v>2000116</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4195,13 +4204,13 @@
         <v>2000117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4221,13 +4230,13 @@
         <v>2000118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4247,13 +4256,13 @@
         <v>2000119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4273,13 +4282,13 @@
         <v>2000120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4299,13 +4308,13 @@
         <v>2000121</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4325,13 +4334,13 @@
         <v>2000122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4351,13 +4360,13 @@
         <v>2000123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4377,13 +4386,13 @@
         <v>2000124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4403,13 +4412,13 @@
         <v>2000125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4429,13 +4438,13 @@
         <v>2000126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4455,13 +4464,13 @@
         <v>2000127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4481,13 +4490,13 @@
         <v>2000128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4507,13 +4516,13 @@
         <v>2000129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="202">
   <si>
     <t>_Id</t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>召唤之书</t>
+  </si>
+  <si>
+    <t>龙城攻击</t>
+  </si>
+  <si>
+    <t>龙城防御</t>
+  </si>
+  <si>
+    <t>龙城生命</t>
+  </si>
+  <si>
+    <t>龙城增伤</t>
+  </si>
+  <si>
+    <t>龙城减伤</t>
   </si>
   <si>
     <t>狗头黄金</t>
@@ -1380,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1390,7 +1405,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1713,7 +1727,7 @@
   <sheetPr/>
   <dimension ref="C3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2033,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2037,7 +2051,7 @@
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="2">
@@ -2048,7 +2062,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2066,13 +2080,13 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <v>500</v>
       </c>
     </row>
@@ -2280,7 +2294,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2298,7 +2312,7 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="2">
@@ -2309,7 +2323,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2327,13 +2341,13 @@
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="2">
         <v>5</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="2">
         <v>500</v>
       </c>
     </row>
@@ -2541,7 +2555,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2559,7 +2573,7 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="2">
@@ -2570,7 +2584,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2588,13 +2602,13 @@
       <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="2">
         <v>5</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="2">
         <v>500</v>
       </c>
     </row>
@@ -3499,10 +3513,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K42"/>
+  <dimension ref="C1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3756,13 +3770,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>2000006</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C13" s="2">
-        <v>2000100</v>
+        <v>2000007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
@@ -3780,15 +3819,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C14" s="2">
-        <v>2000101</v>
+        <v>2000008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
@@ -3806,15 +3845,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C15" s="2">
-        <v>2000102</v>
+        <v>2000009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
@@ -3832,15 +3871,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C16" s="2">
-        <v>2000103</v>
+        <v>2000010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
@@ -3858,171 +3897,21 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C17" s="2">
-        <v>2000104</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="2">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C18" s="2">
-        <v>2000105</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C19" s="2">
-        <v>2000106</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="2">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C20" s="2">
-        <v>2000107</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="2">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C21" s="2">
-        <v>2000108</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="2">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
-      <c r="C22" s="2">
-        <v>2000109</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="2">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="24" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="24" customHeight="1"/>
     <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C23" s="2">
-        <v>2000110</v>
+        <v>2000100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
@@ -4045,10 +3934,10 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C24" s="2">
-        <v>2000111</v>
+        <v>2000101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
@@ -4071,10 +3960,10 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C25" s="2">
-        <v>2000112</v>
+        <v>2000102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
@@ -4092,15 +3981,15 @@
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C26" s="2">
-        <v>2000113</v>
+        <v>2000103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
@@ -4118,15 +4007,15 @@
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C27" s="2">
-        <v>2000114</v>
+        <v>2000104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
@@ -4144,15 +4033,15 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C28" s="2">
-        <v>2000115</v>
+        <v>2000105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
@@ -4170,15 +4059,15 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C29" s="2">
-        <v>2000116</v>
+        <v>2000106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
@@ -4196,15 +4085,15 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C30" s="2">
-        <v>2000117</v>
+        <v>2000107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
@@ -4222,15 +4111,15 @@
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C31" s="2">
-        <v>2000118</v>
+        <v>2000108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
@@ -4248,15 +4137,15 @@
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C32" s="2">
-        <v>2000119</v>
+        <v>2000109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
@@ -4274,15 +4163,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C33" s="2">
-        <v>2000120</v>
+        <v>2000110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
@@ -4300,15 +4189,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C34" s="2">
-        <v>2000121</v>
+        <v>2000111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
@@ -4326,15 +4215,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C35" s="2">
-        <v>2000122</v>
+        <v>2000112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
@@ -4352,15 +4241,15 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C36" s="2">
-        <v>2000123</v>
+        <v>2000113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
@@ -4378,15 +4267,15 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C37" s="2">
-        <v>2000124</v>
+        <v>2000114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
@@ -4404,15 +4293,15 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C38" s="2">
-        <v>2000125</v>
+        <v>2000115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
@@ -4430,15 +4319,15 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C39" s="2">
-        <v>2000126</v>
+        <v>2000116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
@@ -4456,15 +4345,15 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C40" s="2">
-        <v>2000127</v>
+        <v>2000117</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
@@ -4482,15 +4371,15 @@
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C41" s="2">
-        <v>2000128</v>
+        <v>2000118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
@@ -4508,15 +4397,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C42" s="2">
-        <v>2000129</v>
+        <v>2000119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
@@ -4534,6 +4423,266 @@
         <v>0</v>
       </c>
       <c r="J42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C43" s="2">
+        <v>2000120</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="2">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C44" s="2">
+        <v>2000121</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="2">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C45" s="2">
+        <v>2000122</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="2">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C46" s="2">
+        <v>2000123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="2">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C47" s="2">
+        <v>2000124</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C48" s="2">
+        <v>2000125</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C49" s="2">
+        <v>2000126</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="2">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C50" s="2">
+        <v>2000127</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="2">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C51" s="2">
+        <v>2000128</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C52" s="2">
+        <v>2000129</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="2">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
         <v>4</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
   <si>
     <t>_Id</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>升级四格</t>
+  </si>
+  <si>
+    <t>凤凰之羽</t>
+  </si>
+  <si>
+    <t>合成或者升级翅膀</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -2628,10 +2634,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K33"/>
+  <dimension ref="A3:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2941,7 +2947,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>4101</v>
+        <v>4008</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>127</v>
@@ -2970,7 +2976,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>129</v>
@@ -2999,7 +3005,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>131</v>
@@ -3008,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3028,16 +3034,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3057,16 +3063,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3086,16 +3092,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3111,20 +3117,36 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="19" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="C19" s="1">
+        <v>4106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:11">
+    <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3137,7 +3159,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="21" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3150,38 +3172,22 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="1">
-        <v>6101</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>99</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
+    <row r="22" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>137</v>
@@ -3205,12 +3211,12 @@
         <v>4</v>
       </c>
       <c r="K23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>139</v>
@@ -3234,12 +3240,12 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>141</v>
@@ -3263,12 +3269,12 @@
         <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>143</v>
@@ -3292,12 +3298,12 @@
         <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>145</v>
@@ -3321,18 +3327,18 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>148</v>
@@ -3350,12 +3356,12 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>149</v>
@@ -3379,12 +3385,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>151</v>
@@ -3408,12 +3414,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>153</v>
@@ -3437,12 +3443,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>155</v>
@@ -3466,12 +3472,12 @@
         <v>4</v>
       </c>
       <c r="K32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>157</v>
@@ -3495,6 +3501,35 @@
         <v>4</v>
       </c>
       <c r="K33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>99</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3515,7 +3550,7 @@
   <sheetPr/>
   <dimension ref="C1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D16"/>
     </sheetView>
   </sheetViews>
@@ -3619,13 +3654,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3645,13 +3680,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3671,13 +3706,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3697,13 +3732,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3723,13 +3758,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3749,13 +3784,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3775,13 +3810,13 @@
         <v>2000006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -3801,13 +3836,13 @@
         <v>2000007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3827,13 +3862,13 @@
         <v>2000008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3853,13 +3888,13 @@
         <v>2000009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3879,13 +3914,13 @@
         <v>2000010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3911,13 +3946,13 @@
         <v>2000100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3937,13 +3972,13 @@
         <v>2000101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -3963,13 +3998,13 @@
         <v>2000102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -3989,13 +4024,13 @@
         <v>2000103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4015,13 +4050,13 @@
         <v>2000104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4041,13 +4076,13 @@
         <v>2000105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4067,13 +4102,13 @@
         <v>2000106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4093,13 +4128,13 @@
         <v>2000107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4119,13 +4154,13 @@
         <v>2000108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4145,13 +4180,13 @@
         <v>2000109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4171,13 +4206,13 @@
         <v>2000110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4197,13 +4232,13 @@
         <v>2000111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4223,13 +4258,13 @@
         <v>2000112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4249,13 +4284,13 @@
         <v>2000113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4275,13 +4310,13 @@
         <v>2000114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4301,13 +4336,13 @@
         <v>2000115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4327,13 +4362,13 @@
         <v>2000116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4353,13 +4388,13 @@
         <v>2000117</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4379,13 +4414,13 @@
         <v>2000118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4405,13 +4440,13 @@
         <v>2000119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4431,13 +4466,13 @@
         <v>2000120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4457,13 +4492,13 @@
         <v>2000121</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4483,13 +4518,13 @@
         <v>2000122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4509,13 +4544,13 @@
         <v>2000123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4535,13 +4570,13 @@
         <v>2000124</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4561,13 +4596,13 @@
         <v>2000125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4587,13 +4622,13 @@
         <v>2000126</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4613,13 +4648,13 @@
         <v>2000127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4639,13 +4674,13 @@
         <v>2000128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4665,13 +4700,13 @@
         <v>2000129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -11,7 +11,20 @@
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -748,7 +761,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2637,7 +2650,7 @@
   <dimension ref="A3:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
+    <sheet name="时装" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,8 +144,47 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+4.礼包
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="229">
   <si>
     <t>_Id</t>
   </si>
@@ -756,6 +796,81 @@
   </si>
   <si>
     <t>水晶玄铜</t>
+  </si>
+  <si>
+    <t>战神之刃</t>
+  </si>
+  <si>
+    <t>激活或者升级对应部位时装</t>
+  </si>
+  <si>
+    <t>战神之甲</t>
+  </si>
+  <si>
+    <t>战神之头</t>
+  </si>
+  <si>
+    <t>战神之链</t>
+  </si>
+  <si>
+    <t>战神之镯</t>
+  </si>
+  <si>
+    <t>战神之戒</t>
+  </si>
+  <si>
+    <t>战神之带</t>
+  </si>
+  <si>
+    <t>战神之靴</t>
+  </si>
+  <si>
+    <t>恶魔之杖</t>
+  </si>
+  <si>
+    <t>恶魔之衣</t>
+  </si>
+  <si>
+    <t>恶魔之头</t>
+  </si>
+  <si>
+    <t>恶魔之链</t>
+  </si>
+  <si>
+    <t>恶魔之镯</t>
+  </si>
+  <si>
+    <t>恶魔之戒</t>
+  </si>
+  <si>
+    <t>恶魔之带</t>
+  </si>
+  <si>
+    <t>恶魔之靴</t>
+  </si>
+  <si>
+    <t>幽灵之剑</t>
+  </si>
+  <si>
+    <t>幽灵之袍</t>
+  </si>
+  <si>
+    <t>幽灵之头</t>
+  </si>
+  <si>
+    <t>幽灵之链</t>
+  </si>
+  <si>
+    <t>幽灵之镯</t>
+  </si>
+  <si>
+    <t>幽灵之戒</t>
+  </si>
+  <si>
+    <t>幽灵之带</t>
+  </si>
+  <si>
+    <t>幽灵之靴</t>
   </si>
 </sst>
 </file>
@@ -768,7 +883,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +909,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -949,12 +1070,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1284,16 +1405,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,126 +1420,130 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -1762,89 +1884,89 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:11">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:11">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:11">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2052,7 +2174,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2070,7 +2192,7 @@
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="2">
@@ -2081,7 +2203,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2099,7 +2221,7 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="2">
@@ -2313,7 +2435,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2331,7 +2453,7 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="2">
@@ -2342,7 +2464,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2360,7 +2482,7 @@
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="2">
@@ -2574,7 +2696,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2592,7 +2714,7 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="2">
@@ -2603,7 +2725,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2621,7 +2743,7 @@
       <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="2">
@@ -2649,7 +2771,7 @@
   <sheetPr/>
   <dimension ref="A3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3563,19 +3685,19 @@
   <sheetPr/>
   <dimension ref="C1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="2" s="1" customFormat="1"/>
-    <row r="3" s="1" customFormat="1" spans="3:11">
+    <row r="1" s="1" customFormat="1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:11">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3633,7 +3755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:11">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3662,7 +3784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
         <v>2000000</v>
       </c>
@@ -3688,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
         <v>2000001</v>
       </c>
@@ -3714,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
         <v>2000002</v>
       </c>
@@ -3740,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="2">
         <v>2000003</v>
       </c>
@@ -3766,7 +3888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="2">
         <v>2000004</v>
       </c>
@@ -3792,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="2">
         <v>2000005</v>
       </c>
@@ -3818,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
         <v>2000006</v>
       </c>
@@ -3844,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
         <v>2000007</v>
       </c>
@@ -3870,7 +3992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
         <v>2000008</v>
       </c>
@@ -3896,7 +4018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
         <v>2000009</v>
       </c>
@@ -3922,7 +4044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
         <v>2000010</v>
       </c>
@@ -3948,13 +4070,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1"/>
-    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="17" s="2" customFormat="1" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C23" s="2">
         <v>2000100</v>
       </c>
@@ -3980,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="2">
         <v>2000101</v>
       </c>
@@ -4006,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C25" s="2">
         <v>2000102</v>
       </c>
@@ -4032,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C26" s="2">
         <v>2000103</v>
       </c>
@@ -4058,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C27" s="2">
         <v>2000104</v>
       </c>
@@ -4084,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="2">
         <v>2000105</v>
       </c>
@@ -4110,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C29" s="2">
         <v>2000106</v>
       </c>
@@ -4136,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C30" s="2">
         <v>2000107</v>
       </c>
@@ -4162,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
         <v>2000108</v>
       </c>
@@ -4188,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C32" s="2">
         <v>2000109</v>
       </c>
@@ -4214,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
         <v>2000110</v>
       </c>
@@ -4240,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C34" s="2">
         <v>2000111</v>
       </c>
@@ -4266,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C35" s="2">
         <v>2000112</v>
       </c>
@@ -4292,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C36" s="2">
         <v>2000113</v>
       </c>
@@ -4318,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C37" s="2">
         <v>2000114</v>
       </c>
@@ -4344,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C38" s="2">
         <v>2000115</v>
       </c>
@@ -4370,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C39" s="2">
         <v>2000116</v>
       </c>
@@ -4396,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C40" s="2">
         <v>2000117</v>
       </c>
@@ -4422,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C41" s="2">
         <v>2000118</v>
       </c>
@@ -4448,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C42" s="2">
         <v>2000119</v>
       </c>
@@ -4474,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C43" s="2">
         <v>2000120</v>
       </c>
@@ -4500,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C44" s="2">
         <v>2000121</v>
       </c>
@@ -4526,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C45" s="2">
         <v>2000122</v>
       </c>
@@ -4552,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C46" s="2">
         <v>2000123</v>
       </c>
@@ -4578,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C47" s="2">
         <v>2000124</v>
       </c>
@@ -4604,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C48" s="2">
         <v>2000125</v>
       </c>
@@ -4630,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C49" s="2">
         <v>2000126</v>
       </c>
@@ -4656,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C50" s="2">
         <v>2000127</v>
       </c>
@@ -4682,7 +4804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C51" s="2">
         <v>2000128</v>
       </c>
@@ -4708,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="3:10">
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C52" s="2">
         <v>2000129</v>
       </c>
@@ -4734,6 +4856,769 @@
         <v>4</v>
       </c>
     </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:K52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="2">
+        <v>3000001</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>3000002</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C8" s="2">
+        <v>3000003</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C9" s="2">
+        <v>3000004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C10" s="2">
+        <v>3000005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>3000006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>3000007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>3000008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>3000009</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>3000010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>3000011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>3000012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>3000013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>3000014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>3000015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>3000016</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>3000017</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>3000018</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="2">
+        <v>3000019</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="2">
+        <v>3000020</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>3000021</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="2">
+        <v>3000022</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C28" s="2">
+        <v>3000023</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="2">
+        <v>3000024</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1"/>
+    <row r="32" s="2" customFormat="1" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" customHeight="1"/>
+    <row r="42" s="2" customFormat="1" customHeight="1"/>
+    <row r="43" s="2" customFormat="1" customHeight="1"/>
+    <row r="44" s="2" customFormat="1" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" customHeight="1"/>
+    <row r="46" s="2" customFormat="1" customHeight="1"/>
+    <row r="47" s="2" customFormat="1" customHeight="1"/>
+    <row r="48" s="2" customFormat="1" customHeight="1"/>
+    <row r="49" s="2" customFormat="1" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" customHeight="1"/>
+    <row r="51" s="2" customFormat="1" customHeight="1"/>
+    <row r="52" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="231">
   <si>
     <t>_Id</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>合成或者升级翅膀</t>
+  </si>
+  <si>
+    <t>专属精华</t>
+  </si>
+  <si>
+    <t>升级专属</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -1070,12 +1076,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2769,10 +2775,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K34"/>
+  <dimension ref="A3:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3111,7 +3117,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4101</v>
+        <v>4009</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>129</v>
@@ -3140,7 +3146,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>131</v>
@@ -3169,7 +3175,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>133</v>
@@ -3178,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3198,16 +3204,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3227,16 +3233,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -3256,16 +3262,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -3281,20 +3287,36 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:11">
+    <row r="20" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="C20" s="1">
+        <v>4106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" customFormat="1" ht="19" customHeight="1" spans="1:11">
+    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3307,7 +3329,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" customFormat="1" ht="18" customHeight="1" spans="1:11">
+    <row r="22" customFormat="1" ht="19" customHeight="1" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3320,38 +3342,22 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="1">
-        <v>6101</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="1">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>99</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
+    <row r="23" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="1">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>139</v>
@@ -3375,12 +3381,12 @@
         <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="1">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>141</v>
@@ -3404,12 +3410,12 @@
         <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="1">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>143</v>
@@ -3433,12 +3439,12 @@
         <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="1">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>145</v>
@@ -3462,12 +3468,12 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="1">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>147</v>
@@ -3491,18 +3497,18 @@
         <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="1">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E29" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>150</v>
@@ -3520,12 +3526,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>151</v>
@@ -3549,12 +3555,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="1">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>153</v>
@@ -3578,12 +3584,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="1">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>155</v>
@@ -3607,12 +3613,12 @@
         <v>4</v>
       </c>
       <c r="K32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="1">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>157</v>
@@ -3636,12 +3642,12 @@
         <v>4</v>
       </c>
       <c r="K33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="1">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>159</v>
@@ -3665,6 +3671,35 @@
         <v>4</v>
       </c>
       <c r="K34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="1">
+        <v>7107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>99</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
         <v>6</v>
       </c>
     </row>
@@ -3789,13 +3824,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3815,13 +3850,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3841,13 +3876,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3867,13 +3902,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3893,13 +3928,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3919,13 +3954,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3945,13 +3980,13 @@
         <v>2000006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -3971,13 +4006,13 @@
         <v>2000007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3997,13 +4032,13 @@
         <v>2000008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4023,13 +4058,13 @@
         <v>2000009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4049,13 +4084,13 @@
         <v>2000010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4081,13 +4116,13 @@
         <v>2000100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -4107,13 +4142,13 @@
         <v>2000101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -4133,13 +4168,13 @@
         <v>2000102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -4159,13 +4194,13 @@
         <v>2000103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4185,13 +4220,13 @@
         <v>2000104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4211,13 +4246,13 @@
         <v>2000105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4237,13 +4272,13 @@
         <v>2000106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4263,13 +4298,13 @@
         <v>2000107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4289,13 +4324,13 @@
         <v>2000108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4315,13 +4350,13 @@
         <v>2000109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4341,13 +4376,13 @@
         <v>2000110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4367,13 +4402,13 @@
         <v>2000111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4393,13 +4428,13 @@
         <v>2000112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4419,13 +4454,13 @@
         <v>2000113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4445,13 +4480,13 @@
         <v>2000114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4471,13 +4506,13 @@
         <v>2000115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4497,13 +4532,13 @@
         <v>2000116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4523,13 +4558,13 @@
         <v>2000117</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4549,13 +4584,13 @@
         <v>2000118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4575,13 +4610,13 @@
         <v>2000119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4601,13 +4636,13 @@
         <v>2000120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4627,13 +4662,13 @@
         <v>2000121</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4653,13 +4688,13 @@
         <v>2000122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4679,13 +4714,13 @@
         <v>2000123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4705,13 +4740,13 @@
         <v>2000124</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4731,13 +4766,13 @@
         <v>2000125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4757,13 +4792,13 @@
         <v>2000126</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4783,13 +4818,13 @@
         <v>2000127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4809,13 +4844,13 @@
         <v>2000128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4835,13 +4870,13 @@
         <v>2000129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -4873,7 +4908,7 @@
   <sheetPr/>
   <dimension ref="C1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4977,13 +5012,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5003,13 +5038,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5029,13 +5064,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5055,13 +5090,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5081,13 +5116,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5107,13 +5142,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5133,13 +5168,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5159,13 +5194,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5185,13 +5220,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5211,13 +5246,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5237,13 +5272,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5263,13 +5298,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5289,13 +5324,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5315,13 +5350,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5341,13 +5376,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5367,13 +5402,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5393,13 +5428,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5419,13 +5454,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5445,13 +5480,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5471,13 +5506,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5497,13 +5532,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5523,13 +5558,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5549,13 +5584,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5575,13 +5610,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="232">
   <si>
     <t>_Id</t>
   </si>
@@ -600,7 +600,10 @@
     <t>黑铁矿</t>
   </si>
   <si>
-    <t>紫金矿</t>
+    <t>鞭炮</t>
+  </si>
+  <si>
+    <t>春节活动材料，兑换其他道具</t>
   </si>
   <si>
     <t>金币1小时</t>
@@ -2778,7 +2781,7 @@
   <dimension ref="A3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3300,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -3360,13 +3363,13 @@
         <v>6101</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -3389,13 +3392,13 @@
         <v>6102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3418,13 +3421,13 @@
         <v>6103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -3447,13 +3450,13 @@
         <v>6104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -3476,13 +3479,13 @@
         <v>6105</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3505,13 +3508,13 @@
         <v>6106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3534,13 +3537,13 @@
         <v>7101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3563,13 +3566,13 @@
         <v>7102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -3592,13 +3595,13 @@
         <v>7103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -3621,13 +3624,13 @@
         <v>7104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1">
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -3650,13 +3653,13 @@
         <v>7105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" s="1">
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3679,13 +3682,13 @@
         <v>7107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1">
         <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -3824,13 +3827,13 @@
         <v>2000000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3850,13 +3853,13 @@
         <v>2000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3876,13 +3879,13 @@
         <v>2000002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3902,13 +3905,13 @@
         <v>2000003</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3928,13 +3931,13 @@
         <v>2000004</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3954,13 +3957,13 @@
         <v>2000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3980,13 +3983,13 @@
         <v>2000006</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4006,13 +4009,13 @@
         <v>2000007</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4032,13 +4035,13 @@
         <v>2000008</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4058,13 +4061,13 @@
         <v>2000009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4084,13 +4087,13 @@
         <v>2000010</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4116,13 +4119,13 @@
         <v>2000100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -4142,13 +4145,13 @@
         <v>2000101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -4168,13 +4171,13 @@
         <v>2000102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -4194,13 +4197,13 @@
         <v>2000103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4220,13 +4223,13 @@
         <v>2000104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4246,13 +4249,13 @@
         <v>2000105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4272,13 +4275,13 @@
         <v>2000106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4298,13 +4301,13 @@
         <v>2000107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4324,13 +4327,13 @@
         <v>2000108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4350,13 +4353,13 @@
         <v>2000109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4376,13 +4379,13 @@
         <v>2000110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4402,13 +4405,13 @@
         <v>2000111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4428,13 +4431,13 @@
         <v>2000112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4454,13 +4457,13 @@
         <v>2000113</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4480,13 +4483,13 @@
         <v>2000114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4506,13 +4509,13 @@
         <v>2000115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4532,13 +4535,13 @@
         <v>2000116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4558,13 +4561,13 @@
         <v>2000117</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4584,13 +4587,13 @@
         <v>2000118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4610,13 +4613,13 @@
         <v>2000119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4636,13 +4639,13 @@
         <v>2000120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4662,13 +4665,13 @@
         <v>2000121</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4688,13 +4691,13 @@
         <v>2000122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4714,13 +4717,13 @@
         <v>2000123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4740,13 +4743,13 @@
         <v>2000124</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4766,13 +4769,13 @@
         <v>2000125</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4792,13 +4795,13 @@
         <v>2000126</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4818,13 +4821,13 @@
         <v>2000127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4844,13 +4847,13 @@
         <v>2000128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4870,13 +4873,13 @@
         <v>2000129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5012,13 +5015,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5038,13 +5041,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5064,13 +5067,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5090,13 +5093,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5116,13 +5119,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5142,13 +5145,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5168,13 +5171,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5194,13 +5197,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5220,13 +5223,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5246,13 +5249,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5272,13 +5275,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5298,13 +5301,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5324,13 +5327,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5350,13 +5353,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5376,13 +5379,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5402,13 +5405,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5428,13 +5431,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5454,13 +5457,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5480,13 +5483,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5506,13 +5509,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5532,13 +5535,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5558,13 +5561,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5584,13 +5587,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5610,13 +5613,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
     <t>装备副本卷</t>
   </si>
   <si>
-    <t>装备副本次数+1</t>
+    <t>装备副本次数+1，全部使用最多一次性使用200张</t>
   </si>
   <si>
     <t>BOSS挑战卷</t>
@@ -573,7 +573,7 @@
     <t>合成或者升级翅膀</t>
   </si>
   <si>
-    <t>专属精华</t>
+    <t>专属之心</t>
   </si>
   <si>
     <t>升级专属</t>
@@ -2781,7 +2781,7 @@
   <dimension ref="A3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2789,7 +2789,7 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -3120,7 +3120,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>129</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -892,7 +892,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +921,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1414,16 +1421,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,119 +1436,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1552,7 +1559,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -1893,89 +1904,89 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:11">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:11">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:11">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2183,7 +2194,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2201,7 +2212,7 @@
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="2">
@@ -2212,7 +2223,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2230,7 +2241,7 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="2">
@@ -2444,7 +2455,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2462,7 +2473,7 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="2">
@@ -2473,7 +2484,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2491,7 +2502,7 @@
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="2">
@@ -2705,7 +2716,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2723,7 +2734,7 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="2">
@@ -2734,7 +2745,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2752,7 +2763,7 @@
       <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="2">
@@ -2781,928 +2792,928 @@
   <dimension ref="A3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" customWidth="1"/>
+    <col min="8" max="11" width="12.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:11">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" s="4" customFormat="1" spans="3:11">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:11">
-      <c r="C4" s="3" t="s">
+    <row r="4" s="4" customFormat="1" spans="3:11">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:11">
-      <c r="C5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" spans="3:11">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
+    <row r="6" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>4001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
         <v>99999999</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>4002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>99999999</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
         <v>4003</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>4004</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
         <v>4005</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>4006</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
+    <row r="12" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>4007</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>4008</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>4010</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>4101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
         <v>4102</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
         <v>4103</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
         <v>4104</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
         <v>4105</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
         <v>4106</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" ht="19" customHeight="1" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="19" customHeight="1" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>6101</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>99</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <v>4</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>6102</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
         <v>99</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>4</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>6103</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>7</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
         <v>99</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <v>4</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>6104</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
         <v>99</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <v>4</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>6105</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>7</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
         <v>99</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <v>4</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>6106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>7</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
         <v>99</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>4</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>7101</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>8</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
         <v>99</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <v>4</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>7102</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
         <v>99</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <v>4</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>7103</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>8</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
         <v>99</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>4</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>7104</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>8</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
         <v>99</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
         <v>4</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>7105</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>8</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <v>99</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <v>4</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>7107</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>8</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
         <v>99</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
         <v>4</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="235">
   <si>
     <t>_Id</t>
   </si>
@@ -678,6 +678,18 @@
     <t>6小时经验收益</t>
   </si>
   <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>激活对应图鉴</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
     <t>万能图鉴</t>
   </si>
   <si>
@@ -685,9 +697,6 @@
   </si>
   <si>
     <t>龙城鸡腿</t>
-  </si>
-  <si>
-    <t>激活对应图鉴</t>
   </si>
   <si>
     <t>死神之镰</t>
@@ -1551,14 +1560,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1904,89 +1912,89 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:11">
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:11">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:11">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2194,7 +2202,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2212,7 +2220,7 @@
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="2">
@@ -2223,7 +2231,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2241,7 +2249,7 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="2">
@@ -2455,7 +2463,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2473,7 +2481,7 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="2">
@@ -2484,7 +2492,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2502,7 +2510,7 @@
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="2">
@@ -2716,7 +2724,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2734,7 +2742,7 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="2">
@@ -2745,7 +2753,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2763,7 +2771,7 @@
       <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="2">
@@ -2789,9 +2797,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K35"/>
+  <dimension ref="C3:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2807,95 +2815,93 @@
   </cols>
   <sheetData>
     <row r="3" s="4" customFormat="1" spans="3:11">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="3:11">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="3:11">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C6" s="4">
         <v>4001</v>
       </c>
@@ -2920,11 +2926,8 @@
       <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C7" s="4">
         <v>4002</v>
       </c>
@@ -2949,11 +2952,8 @@
       <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C8" s="4">
         <v>4003</v>
       </c>
@@ -2978,11 +2978,8 @@
       <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C9" s="4">
         <v>4004</v>
       </c>
@@ -3007,11 +3004,8 @@
       <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C10" s="4">
         <v>4005</v>
       </c>
@@ -3036,11 +3030,8 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="24" customHeight="1" spans="3:11">
       <c r="C11" s="4">
         <v>4006</v>
       </c>
@@ -3069,9 +3060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C12" s="4">
         <v>4007</v>
       </c>
@@ -3096,11 +3085,8 @@
       <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C13" s="4">
         <v>4008</v>
       </c>
@@ -3125,11 +3111,8 @@
       <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C14" s="4">
         <v>4010</v>
       </c>
@@ -3154,11 +3137,8 @@
       <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C15" s="4">
         <v>4101</v>
       </c>
@@ -3183,11 +3163,8 @@
       <c r="J15" s="4">
         <v>5</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C16" s="4">
         <v>4102</v>
       </c>
@@ -3212,11 +3189,8 @@
       <c r="J16" s="4">
         <v>5</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C17" s="4">
         <v>4103</v>
       </c>
@@ -3241,11 +3215,8 @@
       <c r="J17" s="4">
         <v>5</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C18" s="4">
         <v>4104</v>
       </c>
@@ -3270,11 +3241,8 @@
       <c r="J18" s="4">
         <v>5</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C19" s="4">
         <v>4105</v>
       </c>
@@ -3299,11 +3267,8 @@
       <c r="J19" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C20" s="4">
         <v>4106</v>
       </c>
@@ -3328,47 +3293,10 @@
       <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="19" customHeight="1" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="21" customHeight="1"/>
+    <row r="22" s="4" customFormat="1" ht="19" customHeight="1"/>
+    <row r="23" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="24" spans="3:11">
       <c r="C24" s="4">
         <v>6101</v>
@@ -3732,10 +3660,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K52"/>
+  <dimension ref="C1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K18" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3835,9 +3763,9 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>1999995</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E6" s="2">
@@ -3856,21 +3784,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
-        <v>2000001</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>1999996</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3882,21 +3810,21 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>2000002</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>1999997</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3908,21 +3836,21 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="2">
-        <v>2000003</v>
+        <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3939,7 +3867,7 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="2">
-        <v>2000004</v>
+        <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>170</v>
@@ -3948,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3965,7 +3893,7 @@
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="2">
-        <v>2000005</v>
+        <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>171</v>
@@ -3974,7 +3902,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3991,7 +3919,7 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
-        <v>2000006</v>
+        <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>172</v>
@@ -4000,7 +3928,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4017,7 +3945,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
-        <v>2000007</v>
+        <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>173</v>
@@ -4026,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4043,7 +3971,7 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
-        <v>2000008</v>
+        <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>174</v>
@@ -4052,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4069,7 +3997,7 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
-        <v>2000009</v>
+        <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>175</v>
@@ -4078,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4095,7 +4023,7 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
-        <v>2000010</v>
+        <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>176</v>
@@ -4104,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4119,93 +4047,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>2000008</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>2000009</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>2000010</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="20" s="2" customFormat="1" customHeight="1"/>
     <row r="21" s="2" customFormat="1" customHeight="1"/>
     <row r="22" s="2" customFormat="1" customHeight="1"/>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C23" s="2">
-        <v>2000100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="2">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C24" s="2">
-        <v>2000101</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="2">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C25" s="2">
-        <v>2000102</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="2">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" customHeight="1"/>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C26" s="2">
-        <v>2000103</v>
+        <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>180</v>
@@ -4214,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4231,7 +4159,7 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C27" s="2">
-        <v>2000104</v>
+        <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>181</v>
@@ -4240,7 +4168,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4257,7 +4185,7 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="2">
-        <v>2000105</v>
+        <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>182</v>
@@ -4266,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4283,7 +4211,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C29" s="2">
-        <v>2000106</v>
+        <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>183</v>
@@ -4292,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4309,7 +4237,7 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C30" s="2">
-        <v>2000107</v>
+        <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>184</v>
@@ -4318,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4335,7 +4263,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
-        <v>2000108</v>
+        <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>185</v>
@@ -4344,7 +4272,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4361,7 +4289,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C32" s="2">
-        <v>2000109</v>
+        <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>186</v>
@@ -4370,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4387,7 +4315,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
-        <v>2000110</v>
+        <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>187</v>
@@ -4396,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4413,7 +4341,7 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C34" s="2">
-        <v>2000111</v>
+        <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>188</v>
@@ -4422,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4439,7 +4367,7 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C35" s="2">
-        <v>2000112</v>
+        <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>189</v>
@@ -4448,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4460,12 +4388,12 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C36" s="2">
-        <v>2000113</v>
+        <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>190</v>
@@ -4474,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4486,12 +4414,12 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C37" s="2">
-        <v>2000114</v>
+        <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>191</v>
@@ -4500,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4512,12 +4440,12 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C38" s="2">
-        <v>2000115</v>
+        <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>192</v>
@@ -4526,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4543,7 +4471,7 @@
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C39" s="2">
-        <v>2000116</v>
+        <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>193</v>
@@ -4552,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4569,7 +4497,7 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C40" s="2">
-        <v>2000117</v>
+        <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>194</v>
@@ -4578,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4595,7 +4523,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C41" s="2">
-        <v>2000118</v>
+        <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>195</v>
@@ -4604,7 +4532,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4621,7 +4549,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C42" s="2">
-        <v>2000119</v>
+        <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>196</v>
@@ -4630,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4647,7 +4575,7 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C43" s="2">
-        <v>2000120</v>
+        <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>197</v>
@@ -4656,7 +4584,7 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4673,7 +4601,7 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C44" s="2">
-        <v>2000121</v>
+        <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>198</v>
@@ -4682,7 +4610,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4694,12 +4622,12 @@
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C45" s="2">
-        <v>2000122</v>
+        <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>199</v>
@@ -4708,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4720,12 +4648,12 @@
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C46" s="2">
-        <v>2000123</v>
+        <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>200</v>
@@ -4734,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4746,12 +4674,12 @@
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C47" s="2">
-        <v>2000124</v>
+        <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>201</v>
@@ -4760,7 +4688,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4777,7 +4705,7 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C48" s="2">
-        <v>2000125</v>
+        <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>202</v>
@@ -4786,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4803,7 +4731,7 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C49" s="2">
-        <v>2000126</v>
+        <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>203</v>
@@ -4812,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4829,7 +4757,7 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C50" s="2">
-        <v>2000127</v>
+        <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>204</v>
@@ -4838,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4850,12 +4778,12 @@
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C51" s="2">
-        <v>2000128</v>
+        <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>205</v>
@@ -4864,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4876,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C52" s="2">
-        <v>2000129</v>
+        <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>206</v>
@@ -4890,7 +4818,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -4902,6 +4830,84 @@
         <v>0</v>
       </c>
       <c r="J52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C53" s="2">
+        <v>2000127</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="2">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C54" s="2">
+        <v>2000128</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="2">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C55" s="2">
+        <v>2000129</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="2">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4923,7 +4929,7 @@
   <dimension ref="C1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5026,13 +5032,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5052,13 +5058,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5078,13 +5084,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5104,13 +5110,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5130,13 +5136,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5156,13 +5162,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5182,13 +5188,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5208,13 +5214,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5234,13 +5240,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5260,13 +5266,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5286,13 +5292,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5312,13 +5318,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5338,13 +5344,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5364,13 +5370,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5390,13 +5396,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5416,13 +5422,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5442,13 +5448,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5468,13 +5474,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5494,13 +5500,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5520,13 +5526,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5546,13 +5552,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5572,13 +5578,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5598,13 +5604,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5624,13 +5630,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="237">
   <si>
     <t>_Id</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>合成或者升级翅膀</t>
+  </si>
+  <si>
+    <t>专属精华</t>
+  </si>
+  <si>
+    <t>废弃道具</t>
   </si>
   <si>
     <t>专属之心</t>
@@ -2797,10 +2803,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K35"/>
+  <dimension ref="C3:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L17" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3114,7 +3120,7 @@
     </row>
     <row r="14" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C14" s="4">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>129</v>
@@ -3140,7 +3146,7 @@
     </row>
     <row r="15" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C15" s="4">
-        <v>4101</v>
+        <v>4010</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>131</v>
@@ -3166,7 +3172,7 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C16" s="4">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>133</v>
@@ -3192,7 +3198,7 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C17" s="4">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>135</v>
@@ -3201,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -3218,16 +3224,16 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C18" s="4">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -3244,16 +3250,16 @@
     </row>
     <row r="19" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C19" s="4">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -3270,65 +3276,62 @@
     </row>
     <row r="20" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C20" s="4">
+        <v>4105</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C21" s="4">
         <v>4106</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>99999</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="22" s="4" customFormat="1" ht="19" customHeight="1"/>
-    <row r="23" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" spans="3:11">
-      <c r="C24" s="4">
-        <v>6101</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="4">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>99</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="21" customHeight="1"/>
+    <row r="23" s="4" customFormat="1" ht="19" customHeight="1"/>
+    <row r="24" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="25" spans="3:11">
       <c r="C25" s="4">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>142</v>
@@ -3352,12 +3355,12 @@
         <v>4</v>
       </c>
       <c r="K25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="4">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>144</v>
@@ -3381,12 +3384,12 @@
         <v>4</v>
       </c>
       <c r="K26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="4">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>146</v>
@@ -3410,12 +3413,12 @@
         <v>4</v>
       </c>
       <c r="K27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="4">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>148</v>
@@ -3439,12 +3442,12 @@
         <v>4</v>
       </c>
       <c r="K28" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="4">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>150</v>
@@ -3468,18 +3471,18 @@
         <v>4</v>
       </c>
       <c r="K29" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="4">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E30" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>153</v>
@@ -3497,12 +3500,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="4">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>154</v>
@@ -3526,12 +3529,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="4">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>156</v>
@@ -3555,12 +3558,12 @@
         <v>4</v>
       </c>
       <c r="K32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="4">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>158</v>
@@ -3584,12 +3587,12 @@
         <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="4">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>160</v>
@@ -3613,12 +3616,12 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>162</v>
@@ -3642,6 +3645,35 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="4">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>99</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>4</v>
+      </c>
+      <c r="K36" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3662,7 +3694,7 @@
   <sheetPr/>
   <dimension ref="C1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -3766,13 +3798,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3792,13 +3824,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3818,13 +3850,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3844,13 +3876,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3870,13 +3902,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3896,13 +3928,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3922,13 +3954,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -3948,13 +3980,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3974,13 +4006,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4000,13 +4032,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4026,13 +4058,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4052,13 +4084,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4078,13 +4110,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4104,13 +4136,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4136,13 +4168,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4162,13 +4194,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4188,13 +4220,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4214,13 +4246,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4240,13 +4272,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4266,13 +4298,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4292,13 +4324,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4318,13 +4350,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4344,13 +4376,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4370,13 +4402,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4396,13 +4428,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4422,13 +4454,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4448,13 +4480,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4474,13 +4506,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4500,13 +4532,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4526,13 +4558,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4552,13 +4584,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4578,13 +4610,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4604,13 +4636,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4630,13 +4662,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4656,13 +4688,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4682,13 +4714,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4708,13 +4740,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4734,13 +4766,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4760,13 +4792,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4786,13 +4818,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4812,13 +4844,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -4838,13 +4870,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -4864,13 +4896,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4890,13 +4922,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5032,13 +5064,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5058,13 +5090,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5084,13 +5116,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5110,13 +5142,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5136,13 +5168,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5162,13 +5194,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5188,13 +5220,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5214,13 +5246,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5240,13 +5272,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5266,13 +5298,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5292,13 +5324,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5318,13 +5350,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5344,13 +5376,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5370,13 +5402,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5396,13 +5428,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5422,13 +5454,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5448,13 +5480,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5474,13 +5506,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5500,13 +5532,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5526,13 +5558,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5552,13 +5584,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5578,13 +5610,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5604,13 +5636,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5630,13 +5662,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="246">
   <si>
     <t>_Id</t>
   </si>
@@ -363,6 +363,15 @@
     <t>学习或者升级战士技能开天斩</t>
   </si>
   <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>彻地钉</t>
+  </si>
+  <si>
+    <t>学习或者升级战士技能彻地钉</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -444,6 +453,15 @@
     <t>学习或者升级法师技能流星火雨</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>分身术</t>
+  </si>
+  <si>
+    <t>学习或者升级法师技能分身术</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -523,6 +541,15 @@
   </si>
   <si>
     <t>学习或者升级道士技能召唤月灵</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>飓风破</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能飓风破</t>
   </si>
   <si>
     <t>魂环碎片</t>
@@ -1101,12 +1128,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1900,10 +1927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K32"/>
+  <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2266,7 +2293,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:11">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2279,62 +2306,33 @@
         <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
+      <c r="I15" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:11">
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="K15" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -2343,7 +2341,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
@@ -2354,25 +2352,25 @@
     </row>
     <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
@@ -2383,28 +2381,28 @@
     </row>
     <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>27</v>
@@ -2412,16 +2410,16 @@
     </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>39</v>
@@ -2430,10 +2428,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>27</v>
@@ -2441,16 +2439,16 @@
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>39</v>
@@ -2459,7 +2457,7 @@
         <v>25</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
@@ -2469,17 +2467,17 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="7" t="s">
-        <v>80</v>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>39</v>
@@ -2487,28 +2485,28 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>55</v>
+      <c r="I22" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="7" t="s">
-        <v>83</v>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>39</v>
@@ -2516,156 +2514,127 @@
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>55</v>
+      <c r="I23" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
-      <c r="C24" s="2" t="s">
-        <v>86</v>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>26</v>
+      <c r="I24" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="J24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
-      <c r="C25" s="2" t="s">
-        <v>89</v>
+      <c r="C25" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>31</v>
+      <c r="I25" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="J25" s="2">
-        <v>3</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:11">
-      <c r="C26" s="2" t="s">
-        <v>92</v>
+      <c r="C26" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>35</v>
+      <c r="I26" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="J26" s="2">
-        <v>3</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:11">
-      <c r="C27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="K26" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>27</v>
@@ -2673,28 +2642,28 @@
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>27</v>
@@ -2702,45 +2671,45 @@
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
-      <c r="C31" s="7" t="s">
-        <v>107</v>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>39</v>
@@ -2748,28 +2717,28 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>55</v>
+      <c r="I31" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
-      <c r="C32" s="7" t="s">
-        <v>110</v>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>39</v>
@@ -2777,13 +2746,158 @@
       <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:11">
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:11">
+      <c r="C35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="2">
-        <v>5</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:11">
+      <c r="C36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:11">
+      <c r="C37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2">
         <v>500</v>
       </c>
     </row>
@@ -2805,7 +2919,7 @@
   <sheetPr/>
   <dimension ref="C3:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2912,13 +3026,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -2938,13 +3052,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -2964,13 +3078,13 @@
         <v>4003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E8" s="4">
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -2990,13 +3104,13 @@
         <v>4004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -3016,13 +3130,13 @@
         <v>4005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -3042,13 +3156,13 @@
         <v>4006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E11" s="4">
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -3071,13 +3185,13 @@
         <v>4007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -3097,13 +3211,13 @@
         <v>4008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -3123,13 +3237,13 @@
         <v>4009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -3149,13 +3263,13 @@
         <v>4010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -3175,13 +3289,13 @@
         <v>4101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -3201,13 +3315,13 @@
         <v>4102</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -3227,13 +3341,13 @@
         <v>4103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -3253,13 +3367,13 @@
         <v>4104</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -3279,13 +3393,13 @@
         <v>4105</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -3305,13 +3419,13 @@
         <v>4106</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -3334,13 +3448,13 @@
         <v>6101</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -3363,13 +3477,13 @@
         <v>6102</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -3392,13 +3506,13 @@
         <v>6103</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -3421,13 +3535,13 @@
         <v>6104</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -3450,13 +3564,13 @@
         <v>6105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -3479,13 +3593,13 @@
         <v>6106</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -3508,13 +3622,13 @@
         <v>7101</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -3537,13 +3651,13 @@
         <v>7102</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -3566,13 +3680,13 @@
         <v>7103</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -3595,13 +3709,13 @@
         <v>7104</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3624,13 +3738,13 @@
         <v>7105</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -3653,13 +3767,13 @@
         <v>7107</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -3798,13 +3912,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -3824,13 +3938,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -3850,13 +3964,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3876,13 +3990,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3902,13 +4016,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3928,13 +4042,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3954,13 +4068,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -3980,13 +4094,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4006,13 +4120,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4032,13 +4146,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4058,13 +4172,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4084,13 +4198,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4110,13 +4224,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4136,13 +4250,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4168,13 +4282,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4194,13 +4308,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4220,13 +4334,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4246,13 +4360,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4272,13 +4386,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4298,13 +4412,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4324,13 +4438,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4350,13 +4464,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4376,13 +4490,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4402,13 +4516,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4428,13 +4542,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4454,13 +4568,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4480,13 +4594,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4506,13 +4620,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4532,13 +4646,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4558,13 +4672,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4584,13 +4698,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4610,13 +4724,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4636,13 +4750,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4662,13 +4776,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4688,13 +4802,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4714,13 +4828,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4740,13 +4854,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4766,13 +4880,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -4792,13 +4906,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -4818,13 +4932,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -4844,13 +4958,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -4870,13 +4984,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -4896,13 +5010,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4922,13 +5036,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5064,13 +5178,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5090,13 +5204,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5116,13 +5230,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5142,13 +5256,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5168,13 +5282,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5194,13 +5308,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5220,13 +5334,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5246,13 +5360,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5272,13 +5386,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5298,13 +5412,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5324,13 +5438,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5350,13 +5464,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5376,13 +5490,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5402,13 +5516,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5428,13 +5542,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5454,13 +5568,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5480,13 +5594,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5506,13 +5620,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5532,13 +5646,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5558,13 +5672,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5584,13 +5698,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5610,13 +5724,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5636,13 +5750,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5662,13 +5776,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
     <sheet name="时装" sheetId="4" r:id="rId4"/>
+    <sheet name="遗物" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -183,8 +184,47 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+4.礼包
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="266">
   <si>
     <t>_Id</t>
   </si>
@@ -922,6 +962,66 @@
   </si>
   <si>
     <t>幽灵之靴</t>
+  </si>
+  <si>
+    <t>沃玛宝剑</t>
+  </si>
+  <si>
+    <t>激活或者升级对应遗物</t>
+  </si>
+  <si>
+    <t>沃玛号角</t>
+  </si>
+  <si>
+    <t>祖玛号角</t>
+  </si>
+  <si>
+    <t>猪王之心</t>
+  </si>
+  <si>
+    <t>树妖之皮</t>
+  </si>
+  <si>
+    <t>虹魔宝典</t>
+  </si>
+  <si>
+    <t>尸王獠牙</t>
+  </si>
+  <si>
+    <t>黄泉法杖</t>
+  </si>
+  <si>
+    <t>牛魔权杖</t>
+  </si>
+  <si>
+    <t>金刚战锤</t>
+  </si>
+  <si>
+    <t>巨人拳套</t>
+  </si>
+  <si>
+    <t>幸运之心</t>
+  </si>
+  <si>
+    <t>魔龙宝甲</t>
+  </si>
+  <si>
+    <t>龙神之爪</t>
+  </si>
+  <si>
+    <t>梦魇鸡爪</t>
+  </si>
+  <si>
+    <t>梦魇鹿茸</t>
+  </si>
+  <si>
+    <t>梦魇草帽</t>
+  </si>
+  <si>
+    <t>梦魇猫爪</t>
+  </si>
+  <si>
+    <t>梦魇果实</t>
   </si>
 </sst>
 </file>
@@ -1128,12 +1228,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1929,7 +2029,7 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -5075,7 +5175,7 @@
   <dimension ref="C1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F34" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5830,4 +5930,637 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="2">
+        <v>40000056</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>40000057</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C8" s="2">
+        <v>40000058</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C9" s="2">
+        <v>40000059</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C10" s="2">
+        <v>40000060</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>40000061</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>40000062</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>40000063</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>40000064</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>40000065</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>40000066</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="2">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>40000067</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>40000068</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>40000069</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>40000070</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>40000071</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>40000072</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>40000073</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="2">
+        <v>40000074</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1"/>
+    <row r="26" s="2" customFormat="1" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" customHeight="1"/>
+    <row r="28" s="2" customFormat="1" customHeight="1"/>
+    <row r="29" s="2" customFormat="1" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1"/>
+    <row r="32" s="2" customFormat="1" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" customHeight="1"/>
+    <row r="42" s="2" customFormat="1" customHeight="1"/>
+    <row r="43" s="2" customFormat="1" customHeight="1"/>
+    <row r="44" s="2" customFormat="1" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" customHeight="1"/>
+    <row r="46" s="2" customFormat="1" customHeight="1"/>
+    <row r="47" s="2" customFormat="1" customHeight="1"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
   <si>
     <t>_Id</t>
   </si>
@@ -964,10 +964,25 @@
     <t>幽灵之靴</t>
   </si>
   <si>
+    <t>钳虫心脏</t>
+  </si>
+  <si>
+    <t>激活或者升级对应遗物</t>
+  </si>
+  <si>
+    <t>蜈蚣心脏</t>
+  </si>
+  <si>
+    <t>白猪心脏</t>
+  </si>
+  <si>
+    <t>猪王之甲</t>
+  </si>
+  <si>
+    <t>蝎王之甲</t>
+  </si>
+  <si>
     <t>沃玛宝剑</t>
-  </si>
-  <si>
-    <t>激活或者升级对应遗物</t>
   </si>
   <si>
     <t>沃玛号角</t>
@@ -5935,10 +5950,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K47"/>
+  <dimension ref="C1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6036,38 +6051,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C6" s="2">
-        <v>40000056</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="7" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>40000051</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E6" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C7" s="2">
-        <v>40000057</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
@@ -6088,12 +6077,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>40000058</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>249</v>
+        <v>40000052</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
@@ -6114,12 +6103,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
+    <row r="9" customHeight="1" spans="3:10">
       <c r="C9" s="2">
-        <v>40000059</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>250</v>
+        <v>40000053</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
@@ -6140,12 +6129,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
+    <row r="10" customHeight="1" spans="3:10">
       <c r="C10" s="2">
-        <v>40000060</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>251</v>
+        <v>40000054</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
@@ -6166,12 +6155,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+    <row r="11" customHeight="1" spans="3:10">
       <c r="C11" s="2">
-        <v>40000061</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>252</v>
+        <v>40000055</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
@@ -6194,10 +6183,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
-        <v>40000062</v>
+        <v>40000056</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
@@ -6220,10 +6209,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
-        <v>40000063</v>
+        <v>40000057</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
@@ -6246,10 +6235,10 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
-        <v>40000064</v>
+        <v>40000058</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -6272,10 +6261,10 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
-        <v>40000065</v>
+        <v>40000059</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
@@ -6298,10 +6287,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
-        <v>40000066</v>
+        <v>40000060</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
@@ -6324,10 +6313,10 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C17" s="2">
-        <v>40000067</v>
+        <v>40000061</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
@@ -6350,10 +6339,10 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C18" s="2">
-        <v>40000068</v>
+        <v>40000062</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
@@ -6376,10 +6365,10 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C19" s="2">
-        <v>40000069</v>
+        <v>40000063</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
@@ -6402,10 +6391,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C20" s="2">
-        <v>40000070</v>
+        <v>40000064</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
@@ -6428,10 +6417,10 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C21" s="2">
-        <v>40000071</v>
+        <v>40000065</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
@@ -6454,10 +6443,10 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C22" s="2">
-        <v>40000072</v>
+        <v>40000066</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
@@ -6480,10 +6469,10 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C23" s="2">
-        <v>40000073</v>
+        <v>40000067</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
@@ -6506,10 +6495,10 @@
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C24" s="2">
-        <v>40000074</v>
+        <v>40000068</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
@@ -6530,29 +6519,166 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1"/>
-    <row r="26" s="2" customFormat="1" customHeight="1"/>
-    <row r="27" s="2" customFormat="1" customHeight="1"/>
-    <row r="28" s="2" customFormat="1" customHeight="1"/>
-    <row r="29" s="2" customFormat="1" customHeight="1"/>
-    <row r="30" s="2" customFormat="1" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="2">
+        <v>40000069</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>40000070</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="2">
+        <v>40000071</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C28" s="2">
+        <v>40000072</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="2">
+        <v>40000073</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="2">
+        <v>40000074</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6</v>
+      </c>
+    </row>
     <row r="31" s="2" customFormat="1" customHeight="1"/>
     <row r="32" s="2" customFormat="1" customHeight="1"/>
     <row r="33" s="2" customFormat="1" customHeight="1"/>
     <row r="34" s="2" customFormat="1" customHeight="1"/>
-    <row r="35" s="2" customFormat="1" customHeight="1"/>
-    <row r="36" s="2" customFormat="1" customHeight="1"/>
-    <row r="37" s="2" customFormat="1" customHeight="1"/>
-    <row r="38" s="2" customFormat="1" customHeight="1"/>
-    <row r="39" s="2" customFormat="1" customHeight="1"/>
-    <row r="40" s="2" customFormat="1" customHeight="1"/>
-    <row r="41" s="2" customFormat="1" customHeight="1"/>
-    <row r="42" s="2" customFormat="1" customHeight="1"/>
-    <row r="43" s="2" customFormat="1" customHeight="1"/>
-    <row r="44" s="2" customFormat="1" customHeight="1"/>
-    <row r="45" s="2" customFormat="1" customHeight="1"/>
-    <row r="46" s="2" customFormat="1" customHeight="1"/>
-    <row r="47" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="287">
   <si>
     <t>_Id</t>
   </si>
@@ -652,6 +652,12 @@
     <t>升级专属</t>
   </si>
   <si>
+    <t>红装精华</t>
+  </si>
+  <si>
+    <t>增加红色装备的随机属性词条</t>
+  </si>
+  <si>
     <t>图鉴碎片</t>
   </si>
   <si>
@@ -677,6 +683,48 @@
   </si>
   <si>
     <t>春节活动材料，兑换其他道具</t>
+  </si>
+  <si>
+    <t>1阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练1阶红装</t>
+  </si>
+  <si>
+    <t>2阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练2阶红装</t>
+  </si>
+  <si>
+    <t>3阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练3阶红装</t>
+  </si>
+  <si>
+    <t>4阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练4阶红装</t>
+  </si>
+  <si>
+    <t>5阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练5阶红装</t>
+  </si>
+  <si>
+    <t>6阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练6阶红装</t>
+  </si>
+  <si>
+    <t>7阶橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练7阶红装</t>
   </si>
   <si>
     <t>金币1小时</t>
@@ -3032,10 +3080,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K36"/>
+  <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3401,7 +3449,7 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C16" s="4">
-        <v>4101</v>
+        <v>4011</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>142</v>
@@ -3422,12 +3470,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C17" s="4">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>144</v>
@@ -3453,7 +3501,7 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C18" s="4">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>146</v>
@@ -3462,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -3479,16 +3527,16 @@
     </row>
     <row r="19" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C19" s="4">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -3505,16 +3553,16 @@
     </row>
     <row r="20" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C20" s="4">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -3531,248 +3579,252 @@
     </row>
     <row r="21" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C21" s="4">
+        <v>4105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C22" s="4">
         <v>4106</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>99999</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="23" s="4" customFormat="1" ht="19" customHeight="1"/>
-    <row r="24" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="25" spans="3:11">
+      <c r="D22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="21" customHeight="1"/>
+    <row r="24" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C24" s="4">
+        <v>4201</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C25" s="4">
-        <v>6101</v>
+        <v>4202</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E25" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C26" s="4">
-        <v>6102</v>
+        <v>4203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E26" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C27" s="4">
-        <v>6103</v>
+        <v>4204</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E27" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>4</v>
-      </c>
-      <c r="K27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C28" s="4">
-        <v>6104</v>
+        <v>4205</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E28" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C29" s="4">
-        <v>6105</v>
+        <v>4206</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E29" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>4</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C30" s="4">
-        <v>6106</v>
+        <v>4207</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E30" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>4</v>
-      </c>
-      <c r="K30" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="4">
-        <v>7101</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="4">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4">
-        <v>99</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>4</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="32" spans="3:11">
       <c r="C32" s="4">
-        <v>7102</v>
+        <v>6101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -3787,21 +3839,21 @@
         <v>4</v>
       </c>
       <c r="K32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="4">
-        <v>7103</v>
+        <v>6102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E33" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -3816,21 +3868,21 @@
         <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="4">
-        <v>7104</v>
+        <v>6103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E34" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3845,21 +3897,21 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>7105</v>
+        <v>6104</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E35" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -3874,21 +3926,21 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>7107</v>
+        <v>6105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E36" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -3903,6 +3955,209 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="4">
+        <v>6106</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="4">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>99</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>4</v>
+      </c>
+      <c r="K37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="4">
+        <v>7101</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>99</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>4</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="4">
+        <v>7102</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="4">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>99</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="4">
+        <v>7103</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>99</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="4">
+        <v>7104</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>99</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="4">
+        <v>7105</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>99</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>4</v>
+      </c>
+      <c r="K42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>99</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4</v>
+      </c>
+      <c r="K43" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4027,13 +4282,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4053,13 +4308,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4079,13 +4334,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4105,13 +4360,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4131,13 +4386,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4157,13 +4412,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4183,13 +4438,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4209,13 +4464,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4235,13 +4490,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4261,13 +4516,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4287,13 +4542,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4313,13 +4568,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4339,13 +4594,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4365,13 +4620,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4397,13 +4652,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4423,13 +4678,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4449,13 +4704,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4475,13 +4730,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4501,13 +4756,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4527,13 +4782,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4553,13 +4808,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4579,13 +4834,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4605,13 +4860,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4631,13 +4886,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4657,13 +4912,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4683,13 +4938,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4709,13 +4964,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4735,13 +4990,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4761,13 +5016,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -4787,13 +5042,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4813,13 +5068,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -4839,13 +5094,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -4865,13 +5120,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -4891,13 +5146,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -4917,13 +5172,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -4943,13 +5198,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -4969,13 +5224,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -4995,13 +5250,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5021,13 +5276,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5047,13 +5302,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5073,13 +5328,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5099,13 +5354,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5125,13 +5380,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5151,13 +5406,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5293,13 +5548,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5319,13 +5574,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5345,13 +5600,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5371,13 +5626,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5397,13 +5652,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5423,13 +5678,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5449,13 +5704,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5475,13 +5730,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5501,13 +5756,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5527,13 +5782,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5553,13 +5808,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5579,13 +5834,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5605,13 +5860,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5631,13 +5886,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5657,13 +5912,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5683,13 +5938,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5709,13 +5964,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5735,13 +5990,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -5761,13 +6016,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -5787,13 +6042,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -5813,13 +6068,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5839,13 +6094,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5865,13 +6120,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5891,13 +6146,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5952,7 +6207,7 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -6056,13 +6311,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6082,13 +6337,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6108,13 +6363,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6134,13 +6389,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6160,13 +6415,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6186,13 +6441,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6212,13 +6467,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6238,13 +6493,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6264,13 +6519,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6290,13 +6545,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6316,13 +6571,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6342,13 +6597,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6368,13 +6623,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6394,13 +6649,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6420,13 +6675,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6446,13 +6701,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6472,13 +6727,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6498,13 +6753,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6524,13 +6779,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6550,13 +6805,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6576,13 +6831,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6602,13 +6857,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -6628,13 +6883,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -6654,13 +6909,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1012,43 +1012,43 @@
     <t>幽灵之靴</t>
   </si>
   <si>
-    <t>钳虫心脏</t>
+    <t>触龙之心</t>
   </si>
   <si>
     <t>激活或者升级对应遗物</t>
   </si>
   <si>
-    <t>蜈蚣心脏</t>
-  </si>
-  <si>
-    <t>白猪心脏</t>
-  </si>
-  <si>
-    <t>猪王之甲</t>
-  </si>
-  <si>
-    <t>蝎王之甲</t>
-  </si>
-  <si>
-    <t>沃玛宝剑</t>
+    <t>白猪之心</t>
+  </si>
+  <si>
+    <t>猪王之心</t>
+  </si>
+  <si>
+    <t>蝎王宝甲</t>
+  </si>
+  <si>
+    <t>沃玛宝甲</t>
   </si>
   <si>
     <t>沃玛号角</t>
   </si>
   <si>
+    <t>祖玛头像</t>
+  </si>
+  <si>
     <t>祖玛号角</t>
   </si>
   <si>
-    <t>猪王之心</t>
-  </si>
-  <si>
-    <t>树妖之皮</t>
-  </si>
-  <si>
-    <t>虹魔宝典</t>
-  </si>
-  <si>
-    <t>尸王獠牙</t>
+    <t>虹猪宝甲</t>
+  </si>
+  <si>
+    <t>树妖之心</t>
+  </si>
+  <si>
+    <t>虹魔之心</t>
+  </si>
+  <si>
+    <t>尸王之心</t>
   </si>
   <si>
     <t>黄泉法杖</t>
@@ -1060,16 +1060,16 @@
     <t>金刚战锤</t>
   </si>
   <si>
-    <t>巨人拳套</t>
-  </si>
-  <si>
-    <t>幸运之心</t>
+    <t>巨人之心</t>
+  </si>
+  <si>
+    <t>恶魔之心</t>
   </si>
   <si>
     <t>魔龙宝甲</t>
   </si>
   <si>
-    <t>龙神之爪</t>
+    <t>龙神利爪</t>
   </si>
   <si>
     <t>梦魇鸡爪</t>
@@ -1084,7 +1084,7 @@
     <t>梦魇猫爪</t>
   </si>
   <si>
-    <t>梦魇果实</t>
+    <t>梦魇花朵</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3082,7 @@
   <sheetPr/>
   <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -6207,8 +6207,8 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6440,7 +6440,7 @@
       <c r="C12" s="2">
         <v>40000056</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E12" s="2">
@@ -6466,7 +6466,7 @@
       <c r="C13" s="2">
         <v>40000057</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>269</v>
       </c>
       <c r="E13" s="2">
@@ -6492,7 +6492,7 @@
       <c r="C14" s="2">
         <v>40000058</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E14" s="2">
@@ -6518,7 +6518,7 @@
       <c r="C15" s="2">
         <v>40000059</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>271</v>
       </c>
       <c r="E15" s="2">
@@ -6544,7 +6544,7 @@
       <c r="C16" s="2">
         <v>40000060</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E16" s="2">
@@ -6570,7 +6570,7 @@
       <c r="C17" s="2">
         <v>40000061</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>273</v>
       </c>
       <c r="E17" s="2">
@@ -6596,7 +6596,7 @@
       <c r="C18" s="2">
         <v>40000062</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E18" s="2">
@@ -6622,7 +6622,7 @@
       <c r="C19" s="2">
         <v>40000063</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E19" s="2">
@@ -6648,7 +6648,7 @@
       <c r="C20" s="2">
         <v>40000064</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>276</v>
       </c>
       <c r="E20" s="2">
@@ -6674,7 +6674,7 @@
       <c r="C21" s="2">
         <v>40000065</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>277</v>
       </c>
       <c r="E21" s="2">
@@ -6700,7 +6700,7 @@
       <c r="C22" s="2">
         <v>40000066</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>278</v>
       </c>
       <c r="E22" s="2">
@@ -6726,7 +6726,7 @@
       <c r="C23" s="2">
         <v>40000067</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>279</v>
       </c>
       <c r="E23" s="2">
@@ -6752,7 +6752,7 @@
       <c r="C24" s="2">
         <v>40000068</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E24" s="2">
@@ -6778,7 +6778,7 @@
       <c r="C25" s="2">
         <v>40000069</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>281</v>
       </c>
       <c r="E25" s="2">
@@ -6804,7 +6804,7 @@
       <c r="C26" s="2">
         <v>40000070</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>282</v>
       </c>
       <c r="E26" s="2">
@@ -6830,7 +6830,7 @@
       <c r="C27" s="2">
         <v>40000071</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E27" s="2">
@@ -6856,7 +6856,7 @@
       <c r="C28" s="2">
         <v>40000072</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E28" s="2">
@@ -6882,7 +6882,7 @@
       <c r="C29" s="2">
         <v>40000073</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>285</v>
       </c>
       <c r="E29" s="2">
@@ -6908,7 +6908,7 @@
       <c r="C30" s="2">
         <v>40000074</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E30" s="2">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能" sheetId="1" r:id="rId1"/>
     <sheet name="定制配置" sheetId="2" r:id="rId2"/>
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
     <sheet name="时装" sheetId="4" r:id="rId4"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="286">
   <si>
     <t>_Id</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>10000</t>
-  </si>
-  <si>
-    <t>9999</t>
   </si>
   <si>
     <t>10</t>
@@ -2092,8 +2089,8 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2210,243 +2207,243 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
+      <c r="H7" s="4">
+        <v>999999</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:11">
       <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
+      <c r="H8" s="4">
+        <v>999999</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J9" s="2">
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:11">
       <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H10" s="4">
+        <v>999999</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J11" s="2">
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:11">
       <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J12" s="2">
         <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="J13" s="2">
         <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H14" s="4">
+        <v>999999</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
@@ -2457,25 +2454,25 @@
     </row>
     <row r="15" customHeight="1" spans="3:11">
       <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H15" s="4">
+        <v>999999</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2">
         <v>6</v>
@@ -2486,257 +2483,257 @@
     </row>
     <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
+      <c r="H18" s="4">
+        <v>999999</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
+      <c r="H19" s="4">
+        <v>999999</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H21" s="4">
+        <v>999999</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H22" s="4">
+        <v>999999</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" s="2">
         <v>4</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H23" s="4">
+        <v>999999</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="2">
         <v>4</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:11">
       <c r="C24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H24" s="4">
+        <v>999999</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="2">
         <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>999999</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2">
         <v>5</v>
@@ -2747,25 +2744,25 @@
     </row>
     <row r="26" customHeight="1" spans="3:11">
       <c r="C26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H26" s="4">
+        <v>999999</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="2">
         <v>6</v>
@@ -2776,257 +2773,257 @@
     </row>
     <row r="28" customHeight="1" spans="3:11">
       <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>25</v>
+      <c r="H29" s="4">
+        <v>999999</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
         <v>3</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>25</v>
+      <c r="H30" s="4">
+        <v>999999</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2">
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="4">
+        <v>999999</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J31" s="2">
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:11">
       <c r="C32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H32" s="4">
+        <v>999999</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="2">
         <v>4</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="4">
+        <v>999999</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H34" s="4">
+        <v>999999</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2">
         <v>4</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H35" s="4">
+        <v>999999</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" s="2">
         <v>5</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H36" s="4">
+        <v>999999</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="2">
         <v>5</v>
@@ -3037,25 +3034,25 @@
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="H37" s="4">
+        <v>999999</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="2">
         <v>6</v>
@@ -3082,8 +3079,8 @@
   <sheetPr/>
   <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3189,13 +3186,13 @@
         <v>4001</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -3215,13 +3212,13 @@
         <v>4002</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -3241,19 +3238,19 @@
         <v>4003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4">
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -3267,19 +3264,19 @@
         <v>4004</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3293,19 +3290,19 @@
         <v>4005</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -3319,19 +3316,19 @@
         <v>4006</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3348,19 +3345,19 @@
         <v>4007</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -3374,19 +3371,19 @@
         <v>4008</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -3400,19 +3397,19 @@
         <v>4009</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -3426,19 +3423,19 @@
         <v>4010</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -3452,19 +3449,19 @@
         <v>4011</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -3478,19 +3475,19 @@
         <v>4101</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3504,19 +3501,19 @@
         <v>4102</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3530,19 +3527,19 @@
         <v>4103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -3556,19 +3553,19 @@
         <v>4104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -3582,19 +3579,19 @@
         <v>4105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -3608,19 +3605,19 @@
         <v>4106</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -3635,19 +3632,19 @@
         <v>4201</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -3661,19 +3658,19 @@
         <v>4202</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3687,19 +3684,19 @@
         <v>4203</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -3713,19 +3710,19 @@
         <v>4204</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -3739,19 +3736,19 @@
         <v>4205</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -3765,19 +3762,19 @@
         <v>4206</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -3791,19 +3788,19 @@
         <v>4207</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -3818,19 +3815,19 @@
         <v>6101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="4">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -3847,19 +3844,19 @@
         <v>6102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -3876,19 +3873,19 @@
         <v>6103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4">
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -3905,19 +3902,19 @@
         <v>6104</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" s="4">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -3934,19 +3931,19 @@
         <v>6105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="4">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -3963,19 +3960,19 @@
         <v>6106</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
       <c r="H37" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -3992,19 +3989,19 @@
         <v>7101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -4021,19 +4018,19 @@
         <v>7102</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" s="4">
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
@@ -4050,19 +4047,19 @@
         <v>7103</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="4">
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="H40" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
@@ -4079,19 +4076,19 @@
         <v>7104</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
@@ -4108,19 +4105,19 @@
         <v>7105</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -4137,19 +4134,19 @@
         <v>7107</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <v>99</v>
+        <v>999999</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -4179,7 +4176,7 @@
   <dimension ref="C1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4282,13 +4279,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4308,13 +4305,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4334,13 +4331,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4360,13 +4357,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4386,13 +4383,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4412,13 +4409,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4438,13 +4435,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4464,13 +4461,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4490,13 +4487,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4516,13 +4513,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4542,13 +4539,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4568,13 +4565,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4594,13 +4591,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4620,13 +4617,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4652,13 +4649,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4678,13 +4675,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4704,13 +4701,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4730,13 +4727,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4756,13 +4753,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4782,13 +4779,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4808,13 +4805,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4834,13 +4831,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4860,13 +4857,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4886,13 +4883,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4912,13 +4909,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4938,13 +4935,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -4964,13 +4961,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4990,13 +4987,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5016,13 +5013,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5042,13 +5039,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5068,13 +5065,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5094,13 +5091,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5120,13 +5117,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5146,13 +5143,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5172,13 +5169,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5198,13 +5195,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5224,13 +5221,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5250,13 +5247,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5276,13 +5273,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5302,13 +5299,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5328,13 +5325,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5354,13 +5351,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5380,13 +5377,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5406,13 +5403,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5548,13 +5545,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5574,13 +5571,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5600,13 +5597,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5626,13 +5623,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5652,13 +5649,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5678,13 +5675,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5704,13 +5701,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5730,13 +5727,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5756,13 +5753,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5782,13 +5779,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5808,13 +5805,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5834,13 +5831,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5860,13 +5857,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5886,13 +5883,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5912,13 +5909,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5938,13 +5935,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5964,13 +5961,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5990,13 +5987,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6016,13 +6013,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6042,13 +6039,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6068,13 +6065,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6094,13 +6091,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6120,13 +6117,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -6146,13 +6143,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -6207,7 +6204,7 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:D30"/>
     </sheetView>
   </sheetViews>
@@ -6311,13 +6308,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6337,13 +6334,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6363,13 +6360,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6389,13 +6386,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6415,13 +6412,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6441,13 +6438,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6467,13 +6464,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6493,13 +6490,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6519,13 +6516,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6545,13 +6542,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6571,13 +6568,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6597,13 +6594,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6623,13 +6620,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6649,13 +6646,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6675,13 +6672,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6701,13 +6698,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6727,13 +6724,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6753,13 +6750,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6779,13 +6776,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6805,13 +6802,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6831,13 +6828,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6857,13 +6854,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -6883,13 +6880,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -6909,13 +6906,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -2089,8 +2089,8 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="C3:K43"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -4175,8 +4175,8 @@
   <sheetPr/>
   <dimension ref="C1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="316">
   <si>
     <t>_Id</t>
   </si>
@@ -932,6 +932,96 @@
   </si>
   <si>
     <t>水晶玄铜</t>
+  </si>
+  <si>
+    <t>青金枪</t>
+  </si>
+  <si>
+    <t>白银枪</t>
+  </si>
+  <si>
+    <t>玄武剑</t>
+  </si>
+  <si>
+    <t>金阙戟</t>
+  </si>
+  <si>
+    <t>乌石刀</t>
+  </si>
+  <si>
+    <t>天照剑</t>
+  </si>
+  <si>
+    <t>封魔剑</t>
+  </si>
+  <si>
+    <t>离合戟</t>
+  </si>
+  <si>
+    <t>紫玉刀</t>
+  </si>
+  <si>
+    <t>白竹枪</t>
+  </si>
+  <si>
+    <t>九濯剑</t>
+  </si>
+  <si>
+    <t>太阴戟</t>
+  </si>
+  <si>
+    <t>灰金刀</t>
+  </si>
+  <si>
+    <t>紫金枪</t>
+  </si>
+  <si>
+    <t>少阳剑</t>
+  </si>
+  <si>
+    <t>寒魄戟</t>
+  </si>
+  <si>
+    <t>罗刹刀</t>
+  </si>
+  <si>
+    <t>戮龙枪</t>
+  </si>
+  <si>
+    <t>天宝神剑</t>
+  </si>
+  <si>
+    <t>十方银戟</t>
+  </si>
+  <si>
+    <t>天魔鬼刀</t>
+  </si>
+  <si>
+    <t>追风长枪</t>
+  </si>
+  <si>
+    <t>黑石重剑</t>
+  </si>
+  <si>
+    <t>镇山战戟</t>
+  </si>
+  <si>
+    <t>火源绝仙刀</t>
+  </si>
+  <si>
+    <t>太原白石枪</t>
+  </si>
+  <si>
+    <t>绝木紫云剑</t>
+  </si>
+  <si>
+    <t>三昧赤金戟</t>
+  </si>
+  <si>
+    <t>嗜血失魂刀</t>
+  </si>
+  <si>
+    <t>龙虎灵武枪</t>
   </si>
   <si>
     <t>战神之刃</t>
@@ -2089,7 +2179,7 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -4173,10 +4263,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K55"/>
+  <dimension ref="C1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -5421,6 +5511,786 @@
         <v>0</v>
       </c>
       <c r="J55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="2">
+        <v>2000200</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="2">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="2">
+        <v>2000201</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="2">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="2">
+        <v>2000202</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="2">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="2">
+        <v>2000203</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="2">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="2">
+        <v>2000204</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="2">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="2">
+        <v>2000205</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="2">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="2">
+        <v>2000206</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="2">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="2">
+        <v>2000207</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="2">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="2">
+        <v>2000208</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="2">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
+      <c r="C66" s="2">
+        <v>2000209</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E66" s="2">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="2">
+        <v>2000210</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="2">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
+      <c r="C68" s="2">
+        <v>2000211</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="2">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="2">
+        <v>2000212</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="2">
+        <v>2000213</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="2">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="2">
+        <v>2000214</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" s="2">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:10">
+      <c r="C72" s="2">
+        <v>2000215</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" s="2">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:10">
+      <c r="C73" s="2">
+        <v>2000216</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="2">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:10">
+      <c r="C74" s="2">
+        <v>2000217</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="2">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:10">
+      <c r="C75" s="2">
+        <v>2000218</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="2">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:10">
+      <c r="C76" s="2">
+        <v>2000219</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="2">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="2">
+        <v>2000220</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="2">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:10">
+      <c r="C78" s="2">
+        <v>2000221</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" s="2">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:10">
+      <c r="C79" s="2">
+        <v>2000222</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="2">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:10">
+      <c r="C80" s="2">
+        <v>2000223</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="2">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:10">
+      <c r="C81" s="2">
+        <v>2000224</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="2">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:10">
+      <c r="C82" s="2">
+        <v>2000225</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="2">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:10">
+      <c r="C83" s="2">
+        <v>2000226</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" s="2">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:10">
+      <c r="C84" s="2">
+        <v>2000227</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="2">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:10">
+      <c r="C85" s="2">
+        <v>2000228</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85" s="2">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:10">
+      <c r="C86" s="2">
+        <v>2000229</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" s="2">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5545,13 +6415,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -5571,13 +6441,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -5597,13 +6467,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -5623,13 +6493,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -5649,13 +6519,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5675,13 +6545,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -5701,13 +6571,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5727,13 +6597,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5753,13 +6623,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5779,13 +6649,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5805,13 +6675,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5831,13 +6701,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5857,13 +6727,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5883,13 +6753,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5909,13 +6779,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5935,13 +6805,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5961,13 +6831,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -5987,13 +6857,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6013,13 +6883,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6039,13 +6909,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6065,13 +6935,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6091,13 +6961,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6117,13 +6987,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -6143,13 +7013,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -6308,13 +7178,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6334,13 +7204,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6360,13 +7230,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6386,13 +7256,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6412,13 +7282,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6438,13 +7308,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6464,13 +7334,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6490,13 +7360,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6516,13 +7386,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6542,13 +7412,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6568,13 +7438,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6594,13 +7464,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6620,13 +7490,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6646,13 +7516,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6672,13 +7542,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6698,13 +7568,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6724,13 +7594,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6750,13 +7620,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6776,13 +7646,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6802,13 +7672,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6828,13 +7698,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6854,13 +7724,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -6880,13 +7750,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -6906,13 +7776,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -1378,12 +1378,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3169,8 +3169,8 @@
   <sheetPr/>
   <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4265,7 +4265,7 @@
   <sheetPr/>
   <dimension ref="C1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="312">
   <si>
     <t>_Id</t>
   </si>
@@ -661,19 +661,7 @@
     <t>兑换万能图鉴的碎片</t>
   </si>
   <si>
-    <t>铁矿</t>
-  </si>
-  <si>
-    <t>合成专属装备</t>
-  </si>
-  <si>
-    <t>银矿</t>
-  </si>
-  <si>
-    <t>金矿</t>
-  </si>
-  <si>
-    <t>黑铁矿</t>
+    <t>废弃</t>
   </si>
   <si>
     <t>鞭炮</t>
@@ -1378,12 +1366,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2179,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2298,7 +2286,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>25</v>
@@ -2327,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -2356,7 +2344,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -2385,7 +2373,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
@@ -2414,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -2443,7 +2431,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>46</v>
@@ -2472,7 +2460,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>50</v>
@@ -2501,7 +2489,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>54</v>
@@ -2530,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>54</v>
@@ -2559,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="H15" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>54</v>
@@ -2588,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>25</v>
@@ -2617,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -2646,7 +2634,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>34</v>
@@ -2675,7 +2663,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>39</v>
@@ -2704,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>26</v>
@@ -2733,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>46</v>
@@ -2762,7 +2750,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>50</v>
@@ -2791,7 +2779,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>54</v>
@@ -2820,7 +2808,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>54</v>
@@ -2849,7 +2837,7 @@
         <v>38</v>
       </c>
       <c r="H26" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>54</v>
@@ -2878,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>25</v>
@@ -2907,7 +2895,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>30</v>
@@ -2936,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>34</v>
@@ -2965,7 +2953,7 @@
         <v>38</v>
       </c>
       <c r="H31" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>39</v>
@@ -2994,7 +2982,7 @@
         <v>38</v>
       </c>
       <c r="H32" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>26</v>
@@ -3023,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>46</v>
@@ -3052,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="H34" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>50</v>
@@ -3081,7 +3069,7 @@
         <v>38</v>
       </c>
       <c r="H35" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>54</v>
@@ -3110,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="H36" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>54</v>
@@ -3139,7 +3127,7 @@
         <v>38</v>
       </c>
       <c r="H37" s="4">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>54</v>
@@ -3169,8 +3157,8 @@
   <sheetPr/>
   <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3288,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>99999999</v>
+        <v>999999999</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -3314,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>99999999</v>
+        <v>999999999</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -3340,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -3366,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -3392,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -3418,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>9999999</v>
+        <v>99999999</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3447,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>9999999</v>
+        <v>99999999</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -3473,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -3499,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -3525,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -3551,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -3577,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3597,13 +3585,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3617,19 +3605,19 @@
         <v>4103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -3643,19 +3631,19 @@
         <v>4104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -3669,19 +3657,19 @@
         <v>4105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -3695,19 +3683,19 @@
         <v>4106</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>999999</v>
+        <v>9999999</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -3722,19 +3710,19 @@
         <v>4201</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" s="4">
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="4">
-        <v>999999</v>
+      <c r="H24" s="2">
+        <v>99999</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -3748,19 +3736,19 @@
         <v>4202</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" s="4">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="4">
-        <v>999999</v>
+      <c r="H25" s="2">
+        <v>99999</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3774,19 +3762,19 @@
         <v>4203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E26" s="4">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="4">
-        <v>999999</v>
+      <c r="H26" s="2">
+        <v>99999</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -3800,19 +3788,19 @@
         <v>4204</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="4">
-        <v>999999</v>
+      <c r="H27" s="2">
+        <v>99999</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -3826,19 +3814,19 @@
         <v>4205</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4">
         <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="4">
-        <v>999999</v>
+      <c r="H28" s="2">
+        <v>99999</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -3852,19 +3840,19 @@
         <v>4206</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="4">
-        <v>999999</v>
+      <c r="H29" s="2">
+        <v>99999</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -3878,19 +3866,19 @@
         <v>4207</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E30" s="4">
         <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="4">
-        <v>999999</v>
+      <c r="H30" s="2">
+        <v>99999</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -3905,19 +3893,19 @@
         <v>6101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E32" s="4">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="4">
-        <v>999999</v>
+      <c r="H32" s="2">
+        <v>99999</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -3934,19 +3922,19 @@
         <v>6102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4">
-        <v>999999</v>
+      <c r="H33" s="2">
+        <v>99999</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -3963,19 +3951,19 @@
         <v>6103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E34" s="4">
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="4">
-        <v>999999</v>
+      <c r="H34" s="2">
+        <v>99999</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -3992,19 +3980,19 @@
         <v>6104</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E35" s="4">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="4">
-        <v>999999</v>
+      <c r="H35" s="2">
+        <v>99999</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -4021,19 +4009,19 @@
         <v>6105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E36" s="4">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="4">
-        <v>999999</v>
+      <c r="H36" s="2">
+        <v>99999</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -4050,19 +4038,19 @@
         <v>6106</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
-      <c r="H37" s="4">
-        <v>999999</v>
+      <c r="H37" s="2">
+        <v>99999</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -4079,19 +4067,19 @@
         <v>7101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="4">
-        <v>999999</v>
+      <c r="H38" s="2">
+        <v>99999</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -4108,19 +4096,19 @@
         <v>7102</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E39" s="4">
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
       </c>
-      <c r="H39" s="4">
-        <v>999999</v>
+      <c r="H39" s="2">
+        <v>99999</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
@@ -4137,19 +4125,19 @@
         <v>7103</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E40" s="4">
         <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="4">
-        <v>999999</v>
+      <c r="H40" s="2">
+        <v>99999</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
@@ -4166,19 +4154,19 @@
         <v>7104</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
-      <c r="H41" s="4">
-        <v>999999</v>
+      <c r="H41" s="2">
+        <v>99999</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
@@ -4195,19 +4183,19 @@
         <v>7105</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
       </c>
-      <c r="H42" s="4">
-        <v>999999</v>
+      <c r="H42" s="2">
+        <v>99999</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -4224,19 +4212,19 @@
         <v>7107</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="H43" s="4">
-        <v>999999</v>
+      <c r="H43" s="2">
+        <v>99999</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -4265,8 +4253,8 @@
   <sheetPr/>
   <dimension ref="C1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4369,13 +4357,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4395,13 +4383,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4421,13 +4409,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4447,13 +4435,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4473,13 +4461,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4499,13 +4487,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4525,13 +4513,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4551,13 +4539,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4577,13 +4565,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4603,13 +4591,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4629,13 +4617,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4655,13 +4643,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4681,13 +4669,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4707,13 +4695,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4739,13 +4727,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4765,13 +4753,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4791,13 +4779,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4817,13 +4805,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4843,13 +4831,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4869,13 +4857,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4895,13 +4883,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4921,13 +4909,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4947,13 +4935,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4973,13 +4961,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4999,13 +4987,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5025,13 +5013,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5051,13 +5039,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5077,13 +5065,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5103,13 +5091,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5129,13 +5117,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5155,13 +5143,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5181,13 +5169,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5207,13 +5195,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5233,13 +5221,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5259,13 +5247,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5285,13 +5273,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5311,13 +5299,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5337,13 +5325,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5363,13 +5351,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5389,13 +5377,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5415,13 +5403,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5441,13 +5429,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5467,13 +5455,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5493,13 +5481,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5519,13 +5507,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5545,13 +5533,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5571,13 +5559,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5597,13 +5585,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5623,13 +5611,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5649,13 +5637,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -5675,13 +5663,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -5701,13 +5689,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -5727,13 +5715,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -5753,13 +5741,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -5779,13 +5767,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -5805,13 +5793,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -5831,13 +5819,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -5857,13 +5845,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -5883,13 +5871,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -5909,13 +5897,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5935,13 +5923,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5961,13 +5949,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5987,13 +5975,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6013,13 +6001,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6039,13 +6027,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6065,13 +6053,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6091,13 +6079,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6117,13 +6105,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6143,13 +6131,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6169,13 +6157,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6195,13 +6183,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6221,13 +6209,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6247,13 +6235,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6273,13 +6261,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6312,7 +6300,7 @@
   <dimension ref="C1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6415,13 +6403,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6441,13 +6429,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6467,13 +6455,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6493,13 +6481,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6519,13 +6507,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6545,13 +6533,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6571,13 +6559,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6597,13 +6585,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6623,13 +6611,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6649,13 +6637,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6675,13 +6663,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6701,13 +6689,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6727,13 +6715,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6753,13 +6741,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6779,13 +6767,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6805,13 +6793,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6831,13 +6819,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6857,13 +6845,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6883,13 +6871,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6909,13 +6897,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6935,13 +6923,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6961,13 +6949,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6987,13 +6975,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7013,13 +7001,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7075,7 +7063,7 @@
   <dimension ref="C1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D30"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7178,13 +7166,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7204,13 +7192,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7230,13 +7218,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7256,13 +7244,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7282,13 +7270,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7308,13 +7296,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7334,13 +7322,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7360,13 +7348,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7386,13 +7374,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7412,13 +7400,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7438,13 +7426,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7464,13 +7452,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7490,13 +7478,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7516,13 +7504,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7542,13 +7530,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7568,13 +7556,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7594,13 +7582,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7620,13 +7608,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7646,13 +7634,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7672,13 +7660,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7698,13 +7686,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7724,13 +7712,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7750,13 +7738,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7776,13 +7764,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="314">
   <si>
     <t>_Id</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>春节活动材料，兑换其他道具</t>
+  </si>
+  <si>
+    <t>纸鸢</t>
+  </si>
+  <si>
+    <t>清明活动材料，兑换其他道具</t>
   </si>
   <si>
     <t>1阶橙装精华</t>
@@ -2167,7 +2173,7 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28:H37"/>
     </sheetView>
   </sheetViews>
@@ -3155,10 +3161,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K43"/>
+  <dimension ref="C3:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3704,36 +3710,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="24" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
-      <c r="C24" s="4">
+    <row r="23" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C23" s="4">
+        <v>4107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="21" customHeight="1"/>
+    <row r="25" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C25" s="4">
         <v>4201</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C25" s="4">
-        <v>4202</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>150</v>
@@ -3759,7 +3765,7 @@
     </row>
     <row r="26" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C26" s="4">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>152</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="27" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C27" s="4">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>154</v>
@@ -3811,7 +3817,7 @@
     </row>
     <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C28" s="4">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>156</v>
@@ -3837,7 +3843,7 @@
     </row>
     <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C29" s="4">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>158</v>
@@ -3863,7 +3869,7 @@
     </row>
     <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C30" s="4">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>160</v>
@@ -3887,39 +3893,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="32" spans="3:11">
-      <c r="C32" s="4">
-        <v>6101</v>
-      </c>
-      <c r="D32" s="4" t="s">
+    <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="C31" s="4">
+        <v>4207</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="4">
-        <v>7</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>4</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="33" spans="3:11">
       <c r="C33" s="4">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>164</v>
@@ -3943,12 +3946,12 @@
         <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="4">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>166</v>
@@ -3972,12 +3975,12 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>168</v>
@@ -4001,12 +4004,12 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>170</v>
@@ -4030,12 +4033,12 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>172</v>
@@ -4059,18 +4062,18 @@
         <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E38" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>175</v>
@@ -4088,12 +4091,12 @@
         <v>4</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>176</v>
@@ -4117,12 +4120,12 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="C40" s="4">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>178</v>
@@ -4146,12 +4149,12 @@
         <v>4</v>
       </c>
       <c r="K40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="3:11">
       <c r="C41" s="4">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>180</v>
@@ -4175,12 +4178,12 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="4">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>182</v>
@@ -4204,12 +4207,12 @@
         <v>4</v>
       </c>
       <c r="K42" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>184</v>
@@ -4233,6 +4236,35 @@
         <v>4</v>
       </c>
       <c r="K43" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4</v>
+      </c>
+      <c r="K44" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4357,13 +4389,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4383,13 +4415,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4409,13 +4441,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4435,13 +4467,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4461,13 +4493,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4487,13 +4519,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4513,13 +4545,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4539,13 +4571,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4565,13 +4597,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4591,13 +4623,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4617,13 +4649,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4643,13 +4675,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4669,13 +4701,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4695,13 +4727,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4727,13 +4759,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4753,13 +4785,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4779,13 +4811,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4805,13 +4837,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4831,13 +4863,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4857,13 +4889,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4883,13 +4915,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4909,13 +4941,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4935,13 +4967,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4961,13 +4993,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4987,13 +5019,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5013,13 +5045,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5039,13 +5071,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5065,13 +5097,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5091,13 +5123,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5117,13 +5149,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5143,13 +5175,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5169,13 +5201,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5195,13 +5227,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5221,13 +5253,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5247,13 +5279,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5273,13 +5305,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5299,13 +5331,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5325,13 +5357,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5351,13 +5383,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5377,13 +5409,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5403,13 +5435,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5429,13 +5461,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5455,13 +5487,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5481,13 +5513,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5507,13 +5539,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5533,13 +5565,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5559,13 +5591,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5585,13 +5617,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5611,13 +5643,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5637,13 +5669,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -5663,13 +5695,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -5689,13 +5721,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -5715,13 +5747,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -5741,13 +5773,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -5767,13 +5799,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -5793,13 +5825,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -5819,13 +5851,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -5845,13 +5877,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -5871,13 +5903,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -5897,13 +5929,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5923,13 +5955,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5949,13 +5981,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5975,13 +6007,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6001,13 +6033,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6027,13 +6059,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6053,13 +6085,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6079,13 +6111,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6105,13 +6137,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6131,13 +6163,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6157,13 +6189,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6183,13 +6215,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6209,13 +6241,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6235,13 +6267,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6261,13 +6293,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6403,13 +6435,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6429,13 +6461,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6455,13 +6487,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6481,13 +6513,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6507,13 +6539,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6533,13 +6565,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6559,13 +6591,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6585,13 +6617,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6611,13 +6643,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6637,13 +6669,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6663,13 +6695,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6689,13 +6721,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6715,13 +6747,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6741,13 +6773,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6767,13 +6799,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6793,13 +6825,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6819,13 +6851,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6845,13 +6877,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6871,13 +6903,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6897,13 +6929,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6923,13 +6955,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6949,13 +6981,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -6975,13 +7007,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7001,13 +7033,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7166,13 +7198,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7192,13 +7224,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7218,13 +7250,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7244,13 +7276,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7270,13 +7302,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7296,13 +7328,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7322,13 +7354,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7348,13 +7380,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7374,13 +7406,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7400,13 +7432,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7426,13 +7458,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7452,13 +7484,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7478,13 +7510,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7504,13 +7536,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7530,13 +7562,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7556,13 +7588,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7582,13 +7614,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7608,13 +7640,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7634,13 +7666,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7660,13 +7692,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7686,13 +7718,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7712,13 +7744,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7738,13 +7770,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7764,13 +7796,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
     <sheet name="时装" sheetId="4" r:id="rId4"/>
     <sheet name="遗物" sheetId="5" r:id="rId5"/>
+    <sheet name="红装材料" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -223,8 +224,47 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+4.礼包
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="411">
   <si>
     <t>_Id</t>
   </si>
@@ -676,6 +716,9 @@
     <t>清明活动材料，兑换其他道具</t>
   </si>
   <si>
+    <t>分解红装获取，红装升阶材料</t>
+  </si>
+  <si>
     <t>1阶橙装精华</t>
   </si>
   <si>
@@ -1166,6 +1209,294 @@
   </si>
   <si>
     <t>梦魇花朵</t>
+  </si>
+  <si>
+    <t>二阶武器升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色武器升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色衣服升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶项链升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色项链升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色头盔升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色手镯升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色戒指升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色腰带升级二阶的材料</t>
+  </si>
+  <si>
+    <t>二阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>一阶红色靴子升级二阶的材料</t>
+  </si>
+  <si>
+    <t>三阶武器升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色武器升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色衣服升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶项链升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色项链升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色头盔升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色手镯升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色戒指升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色腰带升级三阶的材料</t>
+  </si>
+  <si>
+    <t>三阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>二阶红色靴子升级三阶的材料</t>
+  </si>
+  <si>
+    <t>四阶武器升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色武器升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色衣服升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶项链升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色项链升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色头盔升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色手镯升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色戒指升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色腰带升级四阶的材料</t>
+  </si>
+  <si>
+    <t>四阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>三阶红色靴子升级四阶的材料</t>
+  </si>
+  <si>
+    <t>五阶武器升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色武器升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色衣服升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶项链升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色项链升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色头盔升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色手镯升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色戒指升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色腰带升级五阶的材料</t>
+  </si>
+  <si>
+    <t>五阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>四阶红色靴子升级五阶的材料</t>
+  </si>
+  <si>
+    <t>六阶武器升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色武器升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色衣服升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶项链升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色项链升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色头盔升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色手镯升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色戒指升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色腰带升级六阶的材料</t>
+  </si>
+  <si>
+    <t>六阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>五阶红色靴子升级六阶的材料</t>
+  </si>
+  <si>
+    <t>七阶武器升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色武器升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶衣服升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色衣服升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶项链升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色项链升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶头盔升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色头盔升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶手镯升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色手镯升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶戒指升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色戒指升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶腰带升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色腰带升级七阶的材料</t>
+  </si>
+  <si>
+    <t>七阶靴子升阶石</t>
+  </si>
+  <si>
+    <t>六阶红色靴子升级七阶的材料</t>
   </si>
 </sst>
 </file>
@@ -1372,12 +1703,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3161,10 +3492,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K44"/>
+  <dimension ref="C3:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3737,44 +4068,44 @@
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="25" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+    <row r="25" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C25" s="4">
+        <v>4200</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C26" s="4">
         <v>4201</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C26" s="4">
-        <v>4202</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -3791,16 +4122,16 @@
     </row>
     <row r="27" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C27" s="4">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -3817,16 +4148,16 @@
     </row>
     <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C28" s="4">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -3843,16 +4174,16 @@
     </row>
     <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C29" s="4">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -3869,16 +4200,16 @@
     </row>
     <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C30" s="4">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -3895,101 +4226,69 @@
     </row>
     <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C31" s="4">
+        <v>4206</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
+      <c r="C32" s="4">
         <v>4207</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="33" spans="3:11">
-      <c r="C33" s="4">
-        <v>6101</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="4">
-        <v>7</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>4</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11">
-      <c r="C34" s="4">
-        <v>6102</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="4">
-        <v>7</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>4</v>
-      </c>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>6103</v>
+        <v>6101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" s="4">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -4004,21 +4303,21 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>6104</v>
+        <v>6102</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E36" s="4">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -4033,21 +4332,21 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>6105</v>
+        <v>6103</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -4062,21 +4361,21 @@
         <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>6106</v>
+        <v>6104</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E38" s="4">
         <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -4091,21 +4390,21 @@
         <v>4</v>
       </c>
       <c r="K38" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>7101</v>
+        <v>6105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E39" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -4120,21 +4419,21 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="C40" s="4">
-        <v>7102</v>
+        <v>6106</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E40" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -4149,21 +4448,21 @@
         <v>4</v>
       </c>
       <c r="K40" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:11">
       <c r="C41" s="4">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -4178,21 +4477,21 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="4">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -4207,21 +4506,21 @@
         <v>4</v>
       </c>
       <c r="K42" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -4236,21 +4535,21 @@
         <v>4</v>
       </c>
       <c r="K43" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" s="4">
-        <v>7107</v>
+        <v>7104</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E44" s="4">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -4265,6 +4564,64 @@
         <v>4</v>
       </c>
       <c r="K44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="4">
+        <v>7105</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4</v>
+      </c>
+      <c r="K45" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="4">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4</v>
+      </c>
+      <c r="K46" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4389,13 +4746,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4415,13 +4772,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4441,13 +4798,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4467,13 +4824,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4493,13 +4850,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4519,13 +4876,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4545,13 +4902,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4571,13 +4928,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4597,13 +4954,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4623,13 +4980,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4649,13 +5006,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4675,13 +5032,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4701,13 +5058,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4727,13 +5084,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4759,13 +5116,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4785,13 +5142,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4811,13 +5168,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4837,13 +5194,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4863,13 +5220,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4889,13 +5246,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4915,13 +5272,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4941,13 +5298,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4967,13 +5324,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4993,13 +5350,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5019,13 +5376,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5045,13 +5402,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5071,13 +5428,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5097,13 +5454,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5123,13 +5480,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5149,13 +5506,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5175,13 +5532,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5201,13 +5558,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5227,13 +5584,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5253,13 +5610,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5279,13 +5636,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5305,13 +5662,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5331,13 +5688,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5357,13 +5714,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5383,13 +5740,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5409,13 +5766,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5435,13 +5792,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5461,13 +5818,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5487,13 +5844,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5513,13 +5870,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5539,13 +5896,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5565,13 +5922,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5591,13 +5948,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5617,13 +5974,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5643,13 +6000,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5669,13 +6026,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -5695,13 +6052,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -5721,13 +6078,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -5747,13 +6104,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -5773,13 +6130,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -5799,13 +6156,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -5825,13 +6182,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -5851,13 +6208,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -5877,13 +6234,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -5903,13 +6260,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -5929,13 +6286,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5955,13 +6312,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5981,13 +6338,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6007,13 +6364,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6033,13 +6390,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6059,13 +6416,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6085,13 +6442,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6111,13 +6468,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6137,13 +6494,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6163,13 +6520,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6189,13 +6546,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6215,13 +6572,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6241,13 +6598,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6267,13 +6624,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6293,13 +6650,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6435,13 +6792,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6461,13 +6818,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6487,13 +6844,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6513,13 +6870,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6539,13 +6896,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6565,13 +6922,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6591,13 +6948,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6617,13 +6974,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6643,13 +7000,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6669,13 +7026,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6695,13 +7052,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6721,13 +7078,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6747,13 +7104,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6773,13 +7130,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6799,13 +7156,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6825,13 +7182,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -6851,13 +7208,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -6877,13 +7234,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -6903,13 +7260,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -6929,13 +7286,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -6955,13 +7312,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -6981,13 +7338,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7007,13 +7364,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7033,13 +7390,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7095,7 +7452,7 @@
   <dimension ref="C1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -7198,13 +7555,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7224,13 +7581,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7250,13 +7607,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7276,13 +7633,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7302,13 +7659,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7328,13 +7685,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7354,13 +7711,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7380,13 +7737,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7406,13 +7763,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7432,13 +7789,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7458,13 +7815,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7484,13 +7841,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7510,13 +7867,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7536,13 +7893,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7562,13 +7919,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7588,13 +7945,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7614,13 +7971,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7640,13 +7997,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7666,13 +8023,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7692,13 +8049,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7718,13 +8075,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7744,13 +8101,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7770,13 +8127,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7796,13 +8153,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -7831,4 +8188,1848 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:K104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:10">
+      <c r="C6" s="2">
+        <v>50000001</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>50000002</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
+      <c r="C8" s="2">
+        <v>50000003</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="2">
+        <v>50000004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
+      <c r="C10" s="2">
+        <v>50000005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>50000006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>50000007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>50000008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>50000009</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>50000010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>50000011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>50000012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>50000013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>50000014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>50000015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>50000016</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>50000017</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>50000018</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="2">
+        <v>50000019</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="2">
+        <v>50000020</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>50000021</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="2">
+        <v>50000022</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C28" s="2">
+        <v>50000023</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="2">
+        <v>50000024</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="2">
+        <v>50000025</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="2">
+        <v>50000026</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="2">
+        <v>50000027</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C33" s="2">
+        <v>50000028</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
+      <c r="C34" s="2">
+        <v>50000029</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="2">
+        <v>50000030</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:10">
+      <c r="C36" s="2">
+        <v>50000031</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="2">
+        <v>50000032</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
+      <c r="C38" s="2">
+        <v>50000033</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
+      <c r="C39" s="2">
+        <v>50000034</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
+      <c r="C40" s="2">
+        <v>50000035</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="2">
+        <v>50000036</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
+      <c r="C42" s="2">
+        <v>50000037</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
+      <c r="C43" s="2">
+        <v>50000038</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
+      <c r="C44" s="2">
+        <v>50000039</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
+      <c r="C45" s="2">
+        <v>50000040</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
+      <c r="C46" s="2">
+        <v>50000041</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
+      <c r="C47" s="2">
+        <v>50000042</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
+      <c r="C48" s="2">
+        <v>50000043</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
+      <c r="C49" s="2">
+        <v>50000044</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
+      <c r="C50" s="2">
+        <v>50000045</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
+      <c r="C51" s="2">
+        <v>50000046</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
+      <c r="C52" s="2">
+        <v>50000047</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="2">
+        <v>50000048</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="2"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="2"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="2"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
+      <c r="C68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="2"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="2"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" customHeight="1" spans="3:10">
+      <c r="C72" s="2"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" customHeight="1" spans="3:10">
+      <c r="C73" s="2"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" customHeight="1" spans="3:10">
+      <c r="C74" s="2"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" customHeight="1" spans="3:10">
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" customHeight="1" spans="3:10">
+      <c r="C76" s="2"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" customHeight="1" spans="3:10">
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" customHeight="1" spans="3:10">
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" customHeight="1" spans="3:10">
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" customHeight="1" spans="3:10">
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" customHeight="1" spans="3:10">
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" customHeight="1" spans="3:10">
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" customHeight="1" spans="3:10">
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" customHeight="1" spans="3:10">
+      <c r="C85" s="2"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" customHeight="1" spans="3:10">
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="2"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" customHeight="1" spans="3:10">
+      <c r="C88" s="2"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" customHeight="1" spans="3:10">
+      <c r="C89" s="2"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" customHeight="1" spans="3:10">
+      <c r="C90" s="2"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" customHeight="1" spans="3:10">
+      <c r="C91" s="2"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" customHeight="1" spans="3:10">
+      <c r="C92" s="2"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" customHeight="1" spans="3:10">
+      <c r="C93" s="2"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" customHeight="1" spans="3:10">
+      <c r="C94" s="2"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" customHeight="1" spans="3:10">
+      <c r="C95" s="2"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="3:10">
+      <c r="C96" s="2"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" customHeight="1" spans="3:10">
+      <c r="C97" s="2"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" customHeight="1" spans="3:10">
+      <c r="C98" s="2"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" customHeight="1" spans="3:10">
+      <c r="C99" s="2"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" customHeight="1" spans="3:10">
+      <c r="C100" s="2"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" customHeight="1" spans="3:10">
+      <c r="C101" s="2"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" customHeight="1" spans="3:10">
+      <c r="C102" s="2"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" customHeight="1" spans="3:10">
+      <c r="C103" s="2"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" customHeight="1" spans="3:10">
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="410">
   <si>
     <t>_Id</t>
   </si>
@@ -692,7 +692,7 @@
     <t>红装精华</t>
   </si>
   <si>
-    <t>增加红色装备的随机属性词条</t>
+    <t>分解红装获取，红装升阶材料，红装随机属性强化材料</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>清明活动材料，兑换其他道具</t>
-  </si>
-  <si>
-    <t>分解红装获取，红装升阶材料</t>
   </si>
   <si>
     <t>1阶橙装精华</t>
@@ -1703,12 +1700,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3492,10 +3489,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K46"/>
+  <dimension ref="C3:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4068,18 +4065,18 @@
       </c>
     </row>
     <row r="24" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="25" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
+    <row r="25" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
       <c r="C25" s="4">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E25" s="4">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -4091,21 +4088,21 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C26" s="4">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" s="4">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -4122,16 +4119,16 @@
     </row>
     <row r="27" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C27" s="4">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -4148,16 +4145,16 @@
     </row>
     <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C28" s="4">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4">
         <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -4174,16 +4171,16 @@
     </row>
     <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C29" s="4">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -4200,16 +4197,16 @@
     </row>
     <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C30" s="4">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" s="4">
         <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -4226,16 +4223,16 @@
     </row>
     <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
       <c r="C31" s="4">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" s="4">
         <v>5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -4250,45 +4247,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C32" s="4">
-        <v>4207</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4" t="s">
+    <row r="33" s="4" customFormat="1" ht="18" customHeight="1"/>
+    <row r="34" spans="3:11">
+      <c r="C34" s="4">
+        <v>6101</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" ht="18" customHeight="1"/>
+      <c r="E34" s="4">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E35" s="4">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -4303,21 +4303,21 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>6102</v>
+        <v>6103</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E36" s="4">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -4332,21 +4332,21 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>6103</v>
+        <v>6104</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -4361,21 +4361,21 @@
         <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>6104</v>
+        <v>6105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E38" s="4">
         <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -4390,21 +4390,21 @@
         <v>4</v>
       </c>
       <c r="K38" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>6105</v>
+        <v>6106</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="4">
         <v>7</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -4419,21 +4419,21 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="C40" s="4">
-        <v>6106</v>
+        <v>7101</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E40" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -4448,21 +4448,21 @@
         <v>4</v>
       </c>
       <c r="K40" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:11">
       <c r="C41" s="4">
-        <v>7101</v>
+        <v>7102</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -4477,21 +4477,21 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="4">
-        <v>7102</v>
+        <v>7103</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -4506,21 +4506,21 @@
         <v>4</v>
       </c>
       <c r="K42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4">
-        <v>7103</v>
+        <v>7104</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -4535,21 +4535,21 @@
         <v>4</v>
       </c>
       <c r="K43" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" s="4">
-        <v>7104</v>
+        <v>7105</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E44" s="4">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -4564,21 +4564,21 @@
         <v>4</v>
       </c>
       <c r="K44" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" s="4">
-        <v>7105</v>
+        <v>7107</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E45" s="4">
         <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -4593,35 +4593,6 @@
         <v>4</v>
       </c>
       <c r="K45" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11">
-      <c r="C46" s="4">
-        <v>7107</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>4</v>
-      </c>
-      <c r="K46" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4746,13 +4717,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4772,13 +4743,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4798,13 +4769,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4824,13 +4795,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4850,13 +4821,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4876,13 +4847,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4902,13 +4873,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4928,13 +4899,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4954,13 +4925,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4980,13 +4951,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5006,13 +4977,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5032,13 +5003,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5058,13 +5029,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5084,13 +5055,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5116,13 +5087,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5142,13 +5113,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5168,13 +5139,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5194,13 +5165,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5220,13 +5191,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5246,13 +5217,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5272,13 +5243,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5298,13 +5269,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5324,13 +5295,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5350,13 +5321,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5376,13 +5347,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5402,13 +5373,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5428,13 +5399,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5454,13 +5425,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5480,13 +5451,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5506,13 +5477,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5532,13 +5503,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5558,13 +5529,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5584,13 +5555,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5610,13 +5581,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5636,13 +5607,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5662,13 +5633,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5688,13 +5659,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5714,13 +5685,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5740,13 +5711,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5766,13 +5737,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5792,13 +5763,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5818,13 +5789,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5844,13 +5815,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5870,13 +5841,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5896,13 +5867,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5922,13 +5893,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5948,13 +5919,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5974,13 +5945,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6000,13 +5971,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6026,13 +5997,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6052,13 +6023,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6078,13 +6049,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6104,13 +6075,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6130,13 +6101,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -6156,13 +6127,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6182,13 +6153,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6208,13 +6179,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6234,13 +6205,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6260,13 +6231,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6286,13 +6257,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6312,13 +6283,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6338,13 +6309,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6364,13 +6335,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6390,13 +6361,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6416,13 +6387,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6442,13 +6413,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6468,13 +6439,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6494,13 +6465,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6520,13 +6491,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6546,13 +6517,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6572,13 +6543,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6598,13 +6569,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6624,13 +6595,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6650,13 +6621,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6792,13 +6763,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6818,13 +6789,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6844,13 +6815,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6870,13 +6841,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6896,13 +6867,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6922,13 +6893,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6948,13 +6919,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6974,13 +6945,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7000,13 +6971,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7026,13 +6997,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7052,13 +7023,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7078,13 +7049,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7104,13 +7075,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7130,13 +7101,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7156,13 +7127,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7182,13 +7153,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7208,13 +7179,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7234,13 +7205,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7260,13 +7231,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7286,13 +7257,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7312,13 +7283,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7338,13 +7309,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7364,13 +7335,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7390,13 +7361,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7555,13 +7526,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7581,13 +7552,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7607,13 +7578,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7633,13 +7604,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7659,13 +7630,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7685,13 +7656,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7711,13 +7682,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7737,13 +7708,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7763,13 +7734,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7789,13 +7760,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7815,13 +7786,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7841,13 +7812,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7867,13 +7838,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7893,13 +7864,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7919,13 +7890,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7945,13 +7916,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7971,13 +7942,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7997,13 +7968,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8023,13 +7994,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8049,13 +8020,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8075,13 +8046,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8101,13 +8072,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8127,13 +8098,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8153,13 +8124,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8195,7 +8166,7 @@
   <sheetPr/>
   <dimension ref="C1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -8299,13 +8270,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8325,13 +8296,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8351,13 +8322,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8377,13 +8348,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8403,13 +8374,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8429,13 +8400,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8455,13 +8426,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8481,13 +8452,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8507,13 +8478,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8533,13 +8504,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8559,13 +8530,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8585,13 +8556,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8611,13 +8582,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8637,13 +8608,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8663,13 +8634,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8689,13 +8660,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8715,13 +8686,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8741,13 +8712,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8767,13 +8738,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8793,13 +8764,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8819,13 +8790,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8845,13 +8816,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8871,13 +8842,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8897,13 +8868,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8923,13 +8894,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8949,13 +8920,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8975,13 +8946,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9001,13 +8972,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9027,13 +8998,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9053,13 +9024,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9079,13 +9050,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9105,13 +9076,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E37" s="2">
-        <v>5</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9131,13 +9102,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9157,13 +9128,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9183,13 +9154,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9209,13 +9180,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="E41" s="2">
-        <v>5</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9235,13 +9206,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9261,13 +9232,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9287,13 +9258,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9313,13 +9284,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9339,13 +9310,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9365,13 +9336,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9391,13 +9362,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="E48" s="2">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9417,13 +9388,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9443,13 +9414,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9469,13 +9440,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9495,13 +9466,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9521,13 +9492,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E53" s="2">
-        <v>5</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="415">
   <si>
     <t>_Id</t>
   </si>
@@ -1206,6 +1206,21 @@
   </si>
   <si>
     <t>梦魇花朵</t>
+  </si>
+  <si>
+    <t>梦魇冰晶</t>
+  </si>
+  <si>
+    <t>梦魇蝠翼</t>
+  </si>
+  <si>
+    <t>梦魇魂火</t>
+  </si>
+  <si>
+    <t>梦魇腐肉</t>
+  </si>
+  <si>
+    <t>梦魇蛇胆</t>
   </si>
   <si>
     <t>二阶武器升阶石</t>
@@ -3491,7 +3506,7 @@
   <sheetPr/>
   <dimension ref="C3:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -7420,13 +7435,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K34"/>
+  <dimension ref="C1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M39" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
@@ -8145,10 +8160,136 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1"/>
-    <row r="32" s="2" customFormat="1" customHeight="1"/>
-    <row r="33" s="2" customFormat="1" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="2">
+        <v>40000075</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="2">
+        <v>40000076</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C33" s="2">
+        <v>40000077</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" s="2">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C34" s="2">
+        <v>40000078</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" s="2">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C35" s="2">
+        <v>40000079</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
@@ -8270,13 +8411,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8296,13 +8437,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8322,13 +8463,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8348,13 +8489,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8374,13 +8515,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8400,13 +8541,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8426,13 +8567,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8452,13 +8593,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8478,13 +8619,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8504,13 +8645,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8530,13 +8671,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8556,13 +8697,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8582,13 +8723,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8608,13 +8749,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8634,13 +8775,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8660,13 +8801,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8686,13 +8827,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8712,13 +8853,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8738,13 +8879,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8764,13 +8905,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8790,13 +8931,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8816,13 +8957,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8842,13 +8983,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8868,13 +9009,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8894,13 +9035,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8920,13 +9061,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8946,13 +9087,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8972,13 +9113,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8998,13 +9139,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9024,13 +9165,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9050,13 +9191,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9076,13 +9217,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9102,13 +9243,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9128,13 +9269,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9154,13 +9295,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9180,13 +9321,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9206,13 +9347,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9232,13 +9373,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9258,13 +9399,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9284,13 +9425,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9310,13 +9451,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9336,13 +9477,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9362,13 +9503,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9388,13 +9529,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9414,13 +9555,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9440,13 +9581,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9466,13 +9607,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9492,13 +9633,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="403">
   <si>
     <t>_Id</t>
   </si>
@@ -716,46 +716,10 @@
     <t>清明活动材料，兑换其他道具</t>
   </si>
   <si>
-    <t>1阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练1阶红装</t>
-  </si>
-  <si>
-    <t>2阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练2阶红装</t>
-  </si>
-  <si>
-    <t>3阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练3阶红装</t>
-  </si>
-  <si>
-    <t>4阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练4阶红装</t>
-  </si>
-  <si>
-    <t>5阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练5阶红装</t>
-  </si>
-  <si>
-    <t>6阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练6阶红装</t>
-  </si>
-  <si>
-    <t>7阶橙装精华</t>
-  </si>
-  <si>
-    <t>升级或洗练7阶红装</t>
+    <t>橙装精华</t>
+  </si>
+  <si>
+    <t>升级或洗练红装</t>
   </si>
   <si>
     <t>金币1小时</t>
@@ -3504,10 +3468,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K45"/>
+  <dimension ref="C3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4106,172 +4070,191 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C26" s="4">
-        <v>4202</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="26" s="4" customFormat="1" ht="18" customHeight="1"/>
+    <row r="27" s="4" customFormat="1" ht="18" customHeight="1"/>
+    <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C28" s="4">
+        <v>6101</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E28" s="4">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C27" s="4">
-        <v>4203</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C29" s="4">
+        <v>6102</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E29" s="4">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C28" s="4">
-        <v>4204</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C30" s="4">
+        <v>6103</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C29" s="4">
-        <v>4205</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C31" s="4">
+        <v>6104</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E31" s="4">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C30" s="4">
-        <v>4206</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="4">
+        <v>6105</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E32" s="4">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:10">
-      <c r="C31" s="4">
-        <v>4207</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+      <c r="C33" s="4">
+        <v>6106</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="E33" s="4">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="18" customHeight="1"/>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4</v>
+      </c>
+      <c r="K33" s="4">
+        <v>6</v>
+      </c>
+    </row>
     <row r="34" spans="3:11">
       <c r="C34" s="4">
-        <v>6101</v>
+        <v>7101</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E34" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>165</v>
@@ -4294,13 +4277,13 @@
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>6102</v>
+        <v>7102</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E35" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>167</v>
@@ -4323,13 +4306,13 @@
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>6103</v>
+        <v>7103</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E36" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>169</v>
@@ -4352,13 +4335,13 @@
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>6104</v>
+        <v>7104</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E37" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>171</v>
@@ -4381,13 +4364,13 @@
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>6105</v>
+        <v>7105</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E38" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>173</v>
@@ -4410,13 +4393,13 @@
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>6106</v>
+        <v>7107</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>175</v>
@@ -4434,180 +4417,6 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11">
-      <c r="C40" s="4">
-        <v>7101</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>4</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11">
-      <c r="C41" s="4">
-        <v>7102</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="4">
-        <v>8</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>4</v>
-      </c>
-      <c r="K41" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11">
-      <c r="C42" s="4">
-        <v>7103</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>4</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="C43" s="4">
-        <v>7104</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="4">
-        <v>8</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>4</v>
-      </c>
-      <c r="K43" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="4">
-        <v>7105</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="4">
-        <v>8</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>4</v>
-      </c>
-      <c r="K44" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="4">
-        <v>7107</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="4">
-        <v>8</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>4</v>
-      </c>
-      <c r="K45" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4732,13 +4541,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4758,13 +4567,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4784,13 +4593,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4810,13 +4619,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4836,13 +4645,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4862,13 +4671,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4888,13 +4697,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4914,13 +4723,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4940,13 +4749,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4966,13 +4775,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4992,13 +4801,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5018,13 +4827,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5044,13 +4853,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5070,13 +4879,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5102,13 +4911,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -5128,13 +4937,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -5154,13 +4963,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5180,13 +4989,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5206,13 +5015,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5232,13 +5041,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5258,13 +5067,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5284,13 +5093,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5310,13 +5119,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5336,13 +5145,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5362,13 +5171,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5388,13 +5197,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5414,13 +5223,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5440,13 +5249,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5466,13 +5275,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5492,13 +5301,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5518,13 +5327,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5544,13 +5353,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5570,13 +5379,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5596,13 +5405,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5622,13 +5431,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5648,13 +5457,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5674,13 +5483,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5700,13 +5509,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5726,13 +5535,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5752,13 +5561,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5778,13 +5587,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5804,13 +5613,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5830,13 +5639,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5856,13 +5665,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5882,13 +5691,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5908,13 +5717,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5934,13 +5743,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5960,13 +5769,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5986,13 +5795,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6012,13 +5821,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6038,13 +5847,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6064,13 +5873,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6090,13 +5899,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6116,13 +5925,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -6142,13 +5951,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6168,13 +5977,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6194,13 +6003,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6220,13 +6029,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6246,13 +6055,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6272,13 +6081,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6298,13 +6107,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6324,13 +6133,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6350,13 +6159,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6376,13 +6185,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6402,13 +6211,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6428,13 +6237,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6454,13 +6263,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6480,13 +6289,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6506,13 +6315,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6532,13 +6341,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6558,13 +6367,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6584,13 +6393,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6610,13 +6419,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6636,13 +6445,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6778,13 +6587,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6804,13 +6613,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6830,13 +6639,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6856,13 +6665,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6882,13 +6691,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6908,13 +6717,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6934,13 +6743,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6960,13 +6769,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6986,13 +6795,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7012,13 +6821,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7038,13 +6847,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7064,13 +6873,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7090,13 +6899,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7116,13 +6925,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7142,13 +6951,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7168,13 +6977,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7194,13 +7003,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7220,13 +7029,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7246,13 +7055,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7272,13 +7081,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7298,13 +7107,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7324,13 +7133,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7350,13 +7159,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7376,13 +7185,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7437,7 +7246,7 @@
   <sheetPr/>
   <dimension ref="C1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M39" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7541,13 +7350,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7567,13 +7376,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7593,13 +7402,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7619,13 +7428,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7645,13 +7454,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7671,13 +7480,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7697,13 +7506,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7723,13 +7532,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7749,13 +7558,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7775,13 +7584,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7801,13 +7610,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7827,13 +7636,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7853,13 +7662,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7879,13 +7688,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7905,13 +7714,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7931,13 +7740,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7957,13 +7766,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7983,13 +7792,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8009,13 +7818,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8035,13 +7844,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8061,13 +7870,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8087,13 +7896,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8113,13 +7922,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8139,13 +7948,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8165,13 +7974,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8191,13 +8000,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8217,13 +8026,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8243,13 +8052,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8269,13 +8078,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -8307,7 +8116,7 @@
   <sheetPr/>
   <dimension ref="C1:K104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -8411,13 +8220,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8437,13 +8246,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8463,13 +8272,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8489,13 +8298,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8515,13 +8324,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8541,13 +8350,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8567,13 +8376,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8593,13 +8402,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8619,13 +8428,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8645,13 +8454,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8671,13 +8480,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8697,13 +8506,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8723,13 +8532,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8749,13 +8558,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8775,13 +8584,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8801,13 +8610,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8827,13 +8636,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8853,13 +8662,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8879,13 +8688,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8905,13 +8714,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8931,13 +8740,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8957,13 +8766,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8983,13 +8792,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -9009,13 +8818,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -9035,13 +8844,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -9061,13 +8870,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -9087,13 +8896,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9113,13 +8922,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9139,13 +8948,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9165,13 +8974,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9191,13 +9000,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9217,13 +9026,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9243,13 +9052,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9269,13 +9078,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9295,13 +9104,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9321,13 +9130,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9347,13 +9156,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9373,13 +9182,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9399,13 +9208,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9425,13 +9234,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9451,13 +9260,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9477,13 +9286,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9503,13 +9312,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9529,13 +9338,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9555,13 +9364,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9581,13 +9390,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9607,13 +9416,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9633,13 +9442,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="404">
   <si>
     <t>_Id</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>升级或洗练红装</t>
+  </si>
+  <si>
+    <t>橙装精华(废弃)</t>
   </si>
   <si>
     <t>金币1小时</t>
@@ -1679,12 +1682,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3470,8 +3473,8 @@
   <sheetPr/>
   <dimension ref="C3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4070,20 +4073,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="18" customHeight="1"/>
+    <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C26" s="4">
+        <v>4202</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+    </row>
     <row r="27" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C28" s="4">
         <v>6101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -4106,13 +4134,13 @@
         <v>6102</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -4135,13 +4163,13 @@
         <v>6103</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -4164,13 +4192,13 @@
         <v>6104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E31" s="4">
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -4193,13 +4221,13 @@
         <v>6105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="4">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -4222,13 +4250,13 @@
         <v>6106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -4251,13 +4279,13 @@
         <v>7101</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -4280,13 +4308,13 @@
         <v>7102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -4309,13 +4337,13 @@
         <v>7103</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -4338,13 +4366,13 @@
         <v>7104</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -4367,13 +4395,13 @@
         <v>7105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -4396,13 +4424,13 @@
         <v>7107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E39" s="4">
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -4541,13 +4569,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4567,13 +4595,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4593,13 +4621,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4619,13 +4647,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4645,13 +4673,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4671,13 +4699,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4697,13 +4725,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4723,13 +4751,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4749,13 +4777,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4775,13 +4803,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4801,13 +4829,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4827,13 +4855,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4853,13 +4881,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4879,13 +4907,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4911,13 +4939,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4937,13 +4965,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4963,13 +4991,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4989,13 +5017,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5015,13 +5043,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5041,13 +5069,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5067,13 +5095,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5093,13 +5121,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5119,13 +5147,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5145,13 +5173,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5171,13 +5199,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5197,13 +5225,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5223,13 +5251,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5249,13 +5277,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5275,13 +5303,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5301,13 +5329,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5327,13 +5355,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5353,13 +5381,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5379,13 +5407,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5405,13 +5433,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5431,13 +5459,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5457,13 +5485,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5483,13 +5511,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5509,13 +5537,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5535,13 +5563,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5561,13 +5589,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5587,13 +5615,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5613,13 +5641,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5639,13 +5667,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5665,13 +5693,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5691,13 +5719,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5717,13 +5745,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5743,13 +5771,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5769,13 +5797,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5795,13 +5823,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5821,13 +5849,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -5847,13 +5875,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -5873,13 +5901,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -5899,13 +5927,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -5925,13 +5953,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -5951,13 +5979,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -5977,13 +6005,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6003,13 +6031,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6029,13 +6057,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6055,13 +6083,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6081,13 +6109,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6107,13 +6135,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6133,13 +6161,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6159,13 +6187,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6185,13 +6213,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6211,13 +6239,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6237,13 +6265,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6263,13 +6291,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6289,13 +6317,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6315,13 +6343,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6341,13 +6369,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6367,13 +6395,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6393,13 +6421,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6419,13 +6447,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6445,13 +6473,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6587,13 +6615,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6613,13 +6641,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6639,13 +6667,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6665,13 +6693,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6691,13 +6719,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6717,13 +6745,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6743,13 +6771,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6769,13 +6797,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6795,13 +6823,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6821,13 +6849,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6847,13 +6875,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6873,13 +6901,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6899,13 +6927,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6925,13 +6953,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6951,13 +6979,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -6977,13 +7005,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7003,13 +7031,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7029,13 +7057,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7055,13 +7083,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7081,13 +7109,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7107,13 +7135,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7133,13 +7161,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7159,13 +7187,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7185,13 +7213,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7350,13 +7378,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7376,13 +7404,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7402,13 +7430,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7428,13 +7456,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7454,13 +7482,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7480,13 +7508,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7506,13 +7534,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7532,13 +7560,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7558,13 +7586,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7584,13 +7612,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7610,13 +7638,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7636,13 +7664,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7662,13 +7690,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7688,13 +7716,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7714,13 +7742,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7740,13 +7768,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7766,13 +7794,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7792,13 +7820,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7818,13 +7846,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7844,13 +7872,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7870,13 +7898,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7896,13 +7924,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7922,13 +7950,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7948,13 +7976,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -7974,13 +8002,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8000,13 +8028,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8026,13 +8054,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8052,13 +8080,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8078,13 +8106,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -8220,13 +8248,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8246,13 +8274,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8272,13 +8300,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8298,13 +8326,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8324,13 +8352,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8350,13 +8378,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8376,13 +8404,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8402,13 +8430,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8428,13 +8456,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8454,13 +8482,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8480,13 +8508,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8506,13 +8534,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8532,13 +8560,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8558,13 +8586,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8584,13 +8612,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8610,13 +8638,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8636,13 +8664,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8662,13 +8690,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8688,13 +8716,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8714,13 +8742,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8740,13 +8768,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8766,13 +8794,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8792,13 +8820,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8818,13 +8846,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8844,13 +8872,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8870,13 +8898,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8896,13 +8924,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8922,13 +8950,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8948,13 +8976,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8974,13 +9002,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9000,13 +9028,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9026,13 +9054,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9052,13 +9080,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9078,13 +9106,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9104,13 +9132,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9130,13 +9158,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9156,13 +9184,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9182,13 +9210,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9208,13 +9236,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9234,13 +9262,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9260,13 +9288,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9286,13 +9314,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9312,13 +9340,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9338,13 +9366,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9364,13 +9392,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9390,13 +9418,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9416,13 +9444,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9442,13 +9470,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -3473,7 +3473,7 @@
   <sheetPr/>
   <dimension ref="C3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -7275,7 +7275,7 @@
   <dimension ref="C1:K35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M39" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8144,8 +8144,8 @@
   <sheetPr/>
   <dimension ref="C1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -9491,6 +9491,9 @@
         <v>6</v>
       </c>
     </row>
+    <row r="54" customHeight="1" spans="3:3">
+      <c r="C54" s="2"/>
+    </row>
     <row r="57" customHeight="1" spans="3:10">
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -12,7 +12,8 @@
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
     <sheet name="时装" sheetId="4" r:id="rId4"/>
     <sheet name="遗物" sheetId="5" r:id="rId5"/>
-    <sheet name="红装材料" sheetId="6" r:id="rId6"/>
+    <sheet name="神器" sheetId="7" r:id="rId6"/>
+    <sheet name="红装材料" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -263,8 +264,47 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 金币
+2 装备
+3 技能书
+4.礼包
+5.材料
+6.buff
+7,金币收益
+8,经验收益</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="406">
   <si>
     <t>_Id</t>
   </si>
@@ -699,6 +739,12 @@
   </si>
   <si>
     <t>兑换万能图鉴的碎片</t>
+  </si>
+  <si>
+    <t>高级书页</t>
+  </si>
+  <si>
+    <t>升级10阶技能</t>
   </si>
   <si>
     <t>废弃</t>
@@ -1682,12 +1728,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2484,7 +2530,7 @@
   <dimension ref="C3:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H37"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -3473,8 +3519,8 @@
   <sheetPr/>
   <dimension ref="C3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3901,7 +3947,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -3921,7 +3967,7 @@
         <v>4103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
@@ -3947,7 +3993,7 @@
         <v>4104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
@@ -3973,7 +4019,7 @@
         <v>4105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
@@ -3999,13 +4045,13 @@
         <v>4106</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -4025,13 +4071,13 @@
         <v>4107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -4052,13 +4098,13 @@
         <v>4201</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E25" s="4">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -4078,13 +4124,13 @@
         <v>4202</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E26" s="4">
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -4105,13 +4151,13 @@
         <v>6101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -4134,13 +4180,13 @@
         <v>6102</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -4163,13 +4209,13 @@
         <v>6103</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -4192,13 +4238,13 @@
         <v>6104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E31" s="4">
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -4221,13 +4267,13 @@
         <v>6105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E32" s="4">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -4250,13 +4296,13 @@
         <v>6106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E33" s="4">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -4279,13 +4325,13 @@
         <v>7101</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -4308,13 +4354,13 @@
         <v>7102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -4337,13 +4383,13 @@
         <v>7103</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -4366,13 +4412,13 @@
         <v>7104</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -4395,13 +4441,13 @@
         <v>7105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -4424,13 +4470,13 @@
         <v>7107</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E39" s="4">
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -4465,7 +4511,7 @@
   <sheetPr/>
   <dimension ref="C1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -4569,13 +4615,13 @@
         <v>1999995</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4595,13 +4641,13 @@
         <v>1999996</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4621,13 +4667,13 @@
         <v>1999997</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4647,13 +4693,13 @@
         <v>2000000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4673,13 +4719,13 @@
         <v>2000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4699,13 +4745,13 @@
         <v>2000002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4725,13 +4771,13 @@
         <v>2000003</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4751,13 +4797,13 @@
         <v>2000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4777,13 +4823,13 @@
         <v>2000005</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4803,13 +4849,13 @@
         <v>2000006</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -4829,13 +4875,13 @@
         <v>2000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4855,13 +4901,13 @@
         <v>2000008</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -4881,13 +4927,13 @@
         <v>2000009</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4907,13 +4953,13 @@
         <v>2000010</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4939,13 +4985,13 @@
         <v>2000100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4965,13 +5011,13 @@
         <v>2000101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4991,13 +5037,13 @@
         <v>2000102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5017,13 +5063,13 @@
         <v>2000103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5043,13 +5089,13 @@
         <v>2000104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5069,13 +5115,13 @@
         <v>2000105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5095,13 +5141,13 @@
         <v>2000106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5121,13 +5167,13 @@
         <v>2000107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5147,13 +5193,13 @@
         <v>2000108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5173,13 +5219,13 @@
         <v>2000109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5199,13 +5245,13 @@
         <v>2000110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5225,13 +5271,13 @@
         <v>2000111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5251,13 +5297,13 @@
         <v>2000112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5277,13 +5323,13 @@
         <v>2000113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5303,13 +5349,13 @@
         <v>2000114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5329,13 +5375,13 @@
         <v>2000115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5355,13 +5401,13 @@
         <v>2000116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5381,13 +5427,13 @@
         <v>2000117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5407,13 +5453,13 @@
         <v>2000118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5433,13 +5479,13 @@
         <v>2000119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5459,13 +5505,13 @@
         <v>2000120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5485,13 +5531,13 @@
         <v>2000121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5511,13 +5557,13 @@
         <v>2000122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5537,13 +5583,13 @@
         <v>2000123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5563,13 +5609,13 @@
         <v>2000124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5589,13 +5635,13 @@
         <v>2000125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5615,13 +5661,13 @@
         <v>2000126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5641,13 +5687,13 @@
         <v>2000127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5667,13 +5713,13 @@
         <v>2000128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5693,13 +5739,13 @@
         <v>2000129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5719,13 +5765,13 @@
         <v>2000200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5745,13 +5791,13 @@
         <v>2000201</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -5771,13 +5817,13 @@
         <v>2000202</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5797,13 +5843,13 @@
         <v>2000203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5823,13 +5869,13 @@
         <v>2000204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5849,13 +5895,13 @@
         <v>2000205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -5875,13 +5921,13 @@
         <v>2000206</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -5901,13 +5947,13 @@
         <v>2000207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -5927,13 +5973,13 @@
         <v>2000208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -5953,13 +5999,13 @@
         <v>2000209</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -5979,13 +6025,13 @@
         <v>2000210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6005,13 +6051,13 @@
         <v>2000211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6031,13 +6077,13 @@
         <v>2000212</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6057,13 +6103,13 @@
         <v>2000213</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6083,13 +6129,13 @@
         <v>2000214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6109,13 +6155,13 @@
         <v>2000215</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6135,13 +6181,13 @@
         <v>2000216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6161,13 +6207,13 @@
         <v>2000217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6187,13 +6233,13 @@
         <v>2000218</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6213,13 +6259,13 @@
         <v>2000219</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6239,13 +6285,13 @@
         <v>2000220</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6265,13 +6311,13 @@
         <v>2000221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6291,13 +6337,13 @@
         <v>2000222</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6317,13 +6363,13 @@
         <v>2000223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6343,13 +6389,13 @@
         <v>2000224</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6369,13 +6415,13 @@
         <v>2000225</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6395,13 +6441,13 @@
         <v>2000226</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6421,13 +6467,13 @@
         <v>2000227</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6447,13 +6493,13 @@
         <v>2000228</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6473,13 +6519,13 @@
         <v>2000229</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6615,13 +6661,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6641,13 +6687,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6667,13 +6713,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6693,13 +6739,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6719,13 +6765,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6745,13 +6791,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6771,13 +6817,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6797,13 +6843,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6823,13 +6869,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6849,13 +6895,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6875,13 +6921,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6901,13 +6947,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -6927,13 +6973,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -6953,13 +6999,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -6979,13 +7025,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7005,13 +7051,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7031,13 +7077,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7057,13 +7103,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7083,13 +7129,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7109,13 +7155,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7135,13 +7181,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7161,13 +7207,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7187,13 +7233,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7213,13 +7259,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7274,8 +7320,8 @@
   <sheetPr/>
   <dimension ref="C1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7378,13 +7424,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7404,13 +7450,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7430,13 +7476,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7456,13 +7502,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7482,13 +7528,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7508,13 +7554,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7534,13 +7580,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7560,13 +7606,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7586,13 +7632,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7612,13 +7658,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7638,13 +7684,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7664,13 +7710,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7690,13 +7736,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7716,13 +7762,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7742,13 +7788,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7768,13 +7814,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7794,13 +7840,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7820,13 +7866,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7846,13 +7892,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7872,13 +7918,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7898,13 +7944,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7924,13 +7970,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7950,13 +7996,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7976,13 +8022,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8002,13 +8048,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8028,13 +8074,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8054,13 +8100,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8080,13 +8126,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8106,13 +8152,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -8142,9 +8188,295 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C1:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:10">
+      <c r="C6" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:10">
+      <c r="C7" s="2">
+        <v>50000001</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
+      <c r="C8" s="2">
+        <v>50000002</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -8248,13 +8580,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8274,13 +8606,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8300,13 +8632,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8326,13 +8658,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8352,13 +8684,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8378,13 +8710,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8404,13 +8736,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8430,13 +8762,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8456,13 +8788,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8482,13 +8814,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8508,13 +8840,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8534,13 +8866,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8560,13 +8892,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8586,13 +8918,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8612,13 +8944,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8638,13 +8970,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8664,13 +8996,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8690,13 +9022,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8716,13 +9048,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8742,13 +9074,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8768,13 +9100,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8794,13 +9126,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8820,13 +9152,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8846,13 +9178,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8872,13 +9204,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8898,13 +9230,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8924,13 +9256,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8950,13 +9282,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8976,13 +9308,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9002,13 +9334,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9028,13 +9360,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9054,13 +9386,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9080,13 +9412,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9106,13 +9438,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9132,13 +9464,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9158,13 +9490,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9184,13 +9516,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9210,13 +9542,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9236,13 +9568,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9262,13 +9594,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9288,13 +9620,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9314,13 +9646,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9340,13 +9672,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9366,13 +9698,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9392,13 +9724,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9418,13 +9750,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9444,13 +9776,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9470,13 +9802,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="图鉴" sheetId="3" r:id="rId3"/>
     <sheet name="时装" sheetId="4" r:id="rId4"/>
     <sheet name="遗物" sheetId="5" r:id="rId5"/>
-    <sheet name="神器" sheetId="7" r:id="rId6"/>
-    <sheet name="红装材料" sheetId="6" r:id="rId7"/>
+    <sheet name="红装材料" sheetId="6" r:id="rId6"/>
+    <sheet name="神器" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4511,7 +4511,7 @@
   <sheetPr/>
   <dimension ref="C1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -7320,7 +7320,7 @@
   <sheetPr/>
   <dimension ref="C1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8188,15 +8188,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K34"/>
+  <dimension ref="C1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8291,16 +8291,16 @@
     </row>
     <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="2">
-        <v>50000000</v>
+        <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E6" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8317,16 +8317,16 @@
     </row>
     <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="2">
-        <v>50000001</v>
+        <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8343,16 +8343,16 @@
     </row>
     <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>50000002</v>
+        <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="E8" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8368,96 +8368,1657 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="2">
+        <v>50000004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="3:10">
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D34" s="4"/>
+      <c r="C10" s="2">
+        <v>50000005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>50000006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>50000007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>50000008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>50000009</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>50000010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>50000011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>50000012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>50000013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>50000014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>50000015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>50000016</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>50000017</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>50000018</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="2">
+        <v>50000019</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="2">
+        <v>50000020</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="2">
+        <v>50000021</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="2">
+        <v>50000022</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C28" s="2">
+        <v>50000023</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="2">
+        <v>50000024</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="2">
+        <v>50000025</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="2">
+        <v>50000026</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="2">
+        <v>50000027</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C33" s="2">
+        <v>50000028</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
+      <c r="C34" s="2">
+        <v>50000029</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="2">
+        <v>50000030</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:10">
+      <c r="C36" s="2">
+        <v>50000031</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="2">
+        <v>50000032</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
+      <c r="C38" s="2">
+        <v>50000033</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
+      <c r="C39" s="2">
+        <v>50000034</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
+      <c r="C40" s="2">
+        <v>50000035</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="2">
+        <v>50000036</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
+      <c r="C42" s="2">
+        <v>50000037</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
+      <c r="C43" s="2">
+        <v>50000038</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
+      <c r="C44" s="2">
+        <v>50000039</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
+      <c r="C45" s="2">
+        <v>50000040</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
+      <c r="C46" s="2">
+        <v>50000041</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
+      <c r="C47" s="2">
+        <v>50000042</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
+      <c r="C48" s="2">
+        <v>50000043</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
+      <c r="C49" s="2">
+        <v>50000044</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
+      <c r="C50" s="2">
+        <v>50000045</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
+      <c r="C51" s="2">
+        <v>50000046</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
+      <c r="C52" s="2">
+        <v>50000047</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="2">
+        <v>50000048</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="2"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="2"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="2"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
+      <c r="C68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="2"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="2"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" customHeight="1" spans="3:10">
+      <c r="C72" s="2"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" customHeight="1" spans="3:10">
+      <c r="C73" s="2"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" customHeight="1" spans="3:10">
+      <c r="C74" s="2"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" customHeight="1" spans="3:10">
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" customHeight="1" spans="3:10">
+      <c r="C76" s="2"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" customHeight="1" spans="3:10">
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" customHeight="1" spans="3:10">
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" customHeight="1" spans="3:10">
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" customHeight="1" spans="3:10">
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" customHeight="1" spans="3:10">
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" customHeight="1" spans="3:10">
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" customHeight="1" spans="3:10">
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" customHeight="1" spans="3:10">
+      <c r="C85" s="2"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" customHeight="1" spans="3:10">
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="2"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" customHeight="1" spans="3:10">
+      <c r="C88" s="2"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" customHeight="1" spans="3:10">
+      <c r="C89" s="2"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" customHeight="1" spans="3:10">
+      <c r="C90" s="2"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" customHeight="1" spans="3:10">
+      <c r="C91" s="2"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" customHeight="1" spans="3:10">
+      <c r="C92" s="2"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" customHeight="1" spans="3:10">
+      <c r="C93" s="2"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" customHeight="1" spans="3:10">
+      <c r="C94" s="2"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" customHeight="1" spans="3:10">
+      <c r="C95" s="2"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" customHeight="1" spans="3:10">
+      <c r="C96" s="2"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" customHeight="1" spans="3:10">
+      <c r="C97" s="2"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" customHeight="1" spans="3:10">
+      <c r="C98" s="2"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" customHeight="1" spans="3:10">
+      <c r="C99" s="2"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" customHeight="1" spans="3:10">
+      <c r="C100" s="2"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" customHeight="1" spans="3:10">
+      <c r="C101" s="2"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" customHeight="1" spans="3:10">
+      <c r="C102" s="2"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" customHeight="1" spans="3:10">
+      <c r="C103" s="2"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" customHeight="1" spans="3:10">
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -8474,15 +10035,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K104"/>
+  <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8577,16 +10138,16 @@
     </row>
     <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="2">
-        <v>50000001</v>
+        <v>60000000</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8603,16 +10164,16 @@
     </row>
     <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="2">
-        <v>50000002</v>
+        <v>60000001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8629,16 +10190,16 @@
     </row>
     <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>50000003</v>
+        <v>60000002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8654,1657 +10215,96 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="2">
-        <v>50000004</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="3:10">
-      <c r="C10" s="2">
-        <v>50000005</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C11" s="2">
-        <v>50000006</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C12" s="2">
-        <v>50000007</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C13" s="2">
-        <v>50000008</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C14" s="2">
-        <v>50000009</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C15" s="2">
-        <v>50000010</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C16" s="2">
-        <v>50000011</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C17" s="2">
-        <v>50000012</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C18" s="2">
-        <v>50000013</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C19" s="2">
-        <v>50000014</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C20" s="2">
-        <v>50000015</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C21" s="2">
-        <v>50000016</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C22" s="2">
-        <v>50000017</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C23" s="2">
-        <v>50000018</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C24" s="2">
-        <v>50000019</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C25" s="2">
-        <v>50000020</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="2">
-        <v>50000021</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="2">
-        <v>50000022</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C28" s="2">
-        <v>50000023</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C29" s="2">
-        <v>50000024</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C30" s="2">
-        <v>50000025</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C31" s="2">
-        <v>50000026</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C32" s="2">
-        <v>50000027</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C33" s="2">
-        <v>50000028</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:10">
-      <c r="C34" s="2">
-        <v>50000029</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:10">
-      <c r="C35" s="2">
-        <v>50000030</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:10">
-      <c r="C36" s="2">
-        <v>50000031</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:10">
-      <c r="C37" s="2">
-        <v>50000032</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E37" s="2">
-        <v>5</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:10">
-      <c r="C38" s="2">
-        <v>50000033</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:10">
-      <c r="C39" s="2">
-        <v>50000034</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:10">
-      <c r="C40" s="2">
-        <v>50000035</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:10">
-      <c r="C41" s="2">
-        <v>50000036</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E41" s="2">
-        <v>5</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:10">
-      <c r="C42" s="2">
-        <v>50000037</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:10">
-      <c r="C43" s="2">
-        <v>50000038</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:10">
-      <c r="C44" s="2">
-        <v>50000039</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:10">
-      <c r="C45" s="2">
-        <v>50000040</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:10">
-      <c r="C46" s="2">
-        <v>50000041</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:10">
-      <c r="C47" s="2">
-        <v>50000042</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:10">
-      <c r="C48" s="2">
-        <v>50000043</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E48" s="2">
-        <v>5</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:10">
-      <c r="C49" s="2">
-        <v>50000044</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:10">
-      <c r="C50" s="2">
-        <v>50000045</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:10">
-      <c r="C51" s="2">
-        <v>50000046</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:10">
-      <c r="C52" s="2">
-        <v>50000047</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:10">
-      <c r="C53" s="2">
-        <v>50000048</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E53" s="2">
-        <v>5</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:3">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="57" customHeight="1" spans="3:10">
-      <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" customHeight="1" spans="3:10">
-      <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" customHeight="1" spans="3:10">
-      <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" customHeight="1" spans="3:10">
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" customHeight="1" spans="3:10">
-      <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" customHeight="1" spans="3:10">
-      <c r="C62" s="2"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" customHeight="1" spans="3:10">
-      <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" customHeight="1" spans="3:10">
-      <c r="C64" s="2"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" customHeight="1" spans="3:10">
-      <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" customHeight="1" spans="3:10">
-      <c r="C66" s="2"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" customHeight="1" spans="3:10">
-      <c r="C67" s="2"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" customHeight="1" spans="3:10">
-      <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" customHeight="1" spans="3:10">
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" customHeight="1" spans="3:10">
-      <c r="C70" s="2"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" customHeight="1" spans="3:10">
-      <c r="C71" s="2"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" customHeight="1" spans="3:10">
-      <c r="C72" s="2"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" customHeight="1" spans="3:10">
-      <c r="C73" s="2"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" customHeight="1" spans="3:10">
-      <c r="C74" s="2"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" customHeight="1" spans="3:10">
-      <c r="C75" s="2"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" customHeight="1" spans="3:10">
-      <c r="C76" s="2"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" customHeight="1" spans="3:10">
-      <c r="C77" s="2"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" customHeight="1" spans="3:10">
-      <c r="C78" s="2"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" customHeight="1" spans="3:10">
-      <c r="C79" s="2"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" customHeight="1" spans="3:10">
-      <c r="C80" s="2"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" customHeight="1" spans="3:10">
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" customHeight="1" spans="3:10">
-      <c r="C82" s="2"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" customHeight="1" spans="3:10">
-      <c r="C83" s="2"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" customHeight="1" spans="3:10">
-      <c r="C84" s="2"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" customHeight="1" spans="3:10">
-      <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" customHeight="1" spans="3:10">
-      <c r="C86" s="2"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" customHeight="1" spans="3:10">
-      <c r="C87" s="2"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" customHeight="1" spans="3:10">
-      <c r="C88" s="2"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" customHeight="1" spans="3:10">
-      <c r="C89" s="2"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" customHeight="1" spans="3:10">
-      <c r="C90" s="2"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" customHeight="1" spans="3:10">
-      <c r="C91" s="2"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" customHeight="1" spans="3:10">
-      <c r="C92" s="2"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" customHeight="1" spans="3:10">
-      <c r="C93" s="2"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" customHeight="1" spans="3:10">
-      <c r="C94" s="2"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" customHeight="1" spans="3:10">
-      <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:10">
-      <c r="C96" s="2"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" customHeight="1" spans="3:10">
-      <c r="C97" s="2"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" customHeight="1" spans="3:10">
-      <c r="C98" s="2"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" customHeight="1" spans="3:10">
-      <c r="C99" s="2"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" customHeight="1" spans="3:10">
-      <c r="C100" s="2"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" customHeight="1" spans="3:10">
-      <c r="C101" s="2"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" customHeight="1" spans="3:10">
-      <c r="C102" s="2"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" customHeight="1" spans="3:10">
-      <c r="C103" s="2"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" customHeight="1" spans="3:10">
-      <c r="C104" s="2"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="4:4">
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="420">
   <si>
     <t>_Id</t>
   </si>
@@ -1522,6 +1522,48 @@
   </si>
   <si>
     <t>六阶红色靴子升级七阶的材料</t>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+  </si>
+  <si>
+    <t>激活或者升级对应神器</t>
+  </si>
+  <si>
+    <t>BOSS契约</t>
+  </si>
+  <si>
+    <t>命运沙漏</t>
+  </si>
+  <si>
+    <t>副本契约</t>
+  </si>
+  <si>
+    <t>卖身契</t>
+  </si>
+  <si>
+    <t>万界图</t>
+  </si>
+  <si>
+    <t>破限本源</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+  </si>
+  <si>
+    <t>无限之魂</t>
+  </si>
+  <si>
+    <t>昊天神锤</t>
+  </si>
+  <si>
+    <t>天外神石</t>
+  </si>
+  <si>
+    <t>金蛟剪</t>
   </si>
 </sst>
 </file>
@@ -3519,7 +3561,7 @@
   <sheetPr/>
   <dimension ref="C3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -10038,7 +10080,7 @@
   <dimension ref="C1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -10138,16 +10180,16 @@
     </row>
     <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="2">
-        <v>60000000</v>
+        <v>180001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="E6" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -10164,16 +10206,16 @@
     </row>
     <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="2">
-        <v>60000001</v>
+        <v>180002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -10190,16 +10232,16 @@
     </row>
     <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>60000002</v>
+        <v>180003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -10215,48 +10257,264 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="2">
+        <v>180004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="3:10">
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D18" s="4"/>
+      <c r="C10" s="2">
+        <v>180005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="2">
+        <v>180006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="2">
+        <v>180007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="2">
+        <v>180008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="2">
+        <v>180009</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="2">
+        <v>180010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="2">
+        <v>180011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="2">
+        <v>180012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="2">
+        <v>180013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="4:4">
       <c r="D19" s="4"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="时装" sheetId="4" r:id="rId4"/>
     <sheet name="遗物" sheetId="5" r:id="rId5"/>
     <sheet name="红装材料" sheetId="6" r:id="rId6"/>
-    <sheet name="神器" sheetId="7" r:id="rId7"/>
+    <sheet name="法宝" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="448">
   <si>
     <t>_Id</t>
   </si>
@@ -843,12 +843,18 @@
     <t>6小时经验收益</t>
   </si>
   <si>
+    <t>龙之血</t>
+  </si>
+  <si>
+    <t>激活对应图鉴</t>
+  </si>
+  <si>
+    <t>龙之御</t>
+  </si>
+  <si>
     <t>龙之力</t>
   </si>
   <si>
-    <t>激活对应图鉴</t>
-  </si>
-  <si>
     <t>龙之智</t>
   </si>
   <si>
@@ -1146,6 +1152,78 @@
     <t>幽灵之靴</t>
   </si>
   <si>
+    <t>圣战之刃</t>
+  </si>
+  <si>
+    <t>圣战之甲</t>
+  </si>
+  <si>
+    <t>圣战之头</t>
+  </si>
+  <si>
+    <t>圣战之链</t>
+  </si>
+  <si>
+    <t>圣战之镯</t>
+  </si>
+  <si>
+    <t>圣战之戒</t>
+  </si>
+  <si>
+    <t>圣战之带</t>
+  </si>
+  <si>
+    <t>圣战之靴</t>
+  </si>
+  <si>
+    <t>法神之杖</t>
+  </si>
+  <si>
+    <t>法神之衣</t>
+  </si>
+  <si>
+    <t>法神之头</t>
+  </si>
+  <si>
+    <t>法神之链</t>
+  </si>
+  <si>
+    <t>法神之镯</t>
+  </si>
+  <si>
+    <t>法神之戒</t>
+  </si>
+  <si>
+    <t>法神之带</t>
+  </si>
+  <si>
+    <t>法神之靴</t>
+  </si>
+  <si>
+    <t>天尊之剑</t>
+  </si>
+  <si>
+    <t>天尊之袍</t>
+  </si>
+  <si>
+    <t>天尊之头</t>
+  </si>
+  <si>
+    <t>天尊之链</t>
+  </si>
+  <si>
+    <t>天尊之镯</t>
+  </si>
+  <si>
+    <t>天尊之戒</t>
+  </si>
+  <si>
+    <t>天尊之带</t>
+  </si>
+  <si>
+    <t>天尊之靴</t>
+  </si>
+  <si>
     <t>触龙之心</t>
   </si>
   <si>
@@ -1527,7 +1605,7 @@
     <t>BOSS杀手</t>
   </si>
   <si>
-    <t>激活或者升级对应神器</t>
+    <t>激活或者升级对应法宝</t>
   </si>
   <si>
     <t>BOSS契约</t>
@@ -1564,6 +1642,12 @@
   </si>
   <si>
     <t>金蛟剪</t>
+  </si>
+  <si>
+    <t>精练契约</t>
+  </si>
+  <si>
+    <t>财富契约</t>
   </si>
 </sst>
 </file>
@@ -1770,12 +1854,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4551,10 +4635,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K86"/>
+  <dimension ref="C1:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4654,7 +4738,7 @@
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
-        <v>1999995</v>
+        <v>1999993</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>179</v>
@@ -4680,7 +4764,7 @@
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
-        <v>1999996</v>
+        <v>1999994</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>181</v>
@@ -4706,7 +4790,7 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
-        <v>1999997</v>
+        <v>1999995</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>182</v>
@@ -4732,16 +4816,16 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>1999996</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4753,15 +4837,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="2">
-        <v>2000001</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>185</v>
+        <v>1999997</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
@@ -4779,21 +4863,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="2">
-        <v>2000002</v>
+        <v>2000000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4810,7 +4894,7 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>187</v>
@@ -4836,7 +4920,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
-        <v>2000004</v>
+        <v>2000002</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>188</v>
@@ -4862,7 +4946,7 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
-        <v>2000005</v>
+        <v>2000003</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>189</v>
@@ -4888,7 +4972,7 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
-        <v>2000006</v>
+        <v>2000004</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>190</v>
@@ -4914,7 +4998,7 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
-        <v>2000007</v>
+        <v>2000005</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>191</v>
@@ -4940,7 +5024,7 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C17" s="2">
-        <v>2000008</v>
+        <v>2000006</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>192</v>
@@ -4966,7 +5050,7 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C18" s="2">
-        <v>2000009</v>
+        <v>2000007</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>193</v>
@@ -4992,7 +5076,7 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C19" s="2">
-        <v>2000010</v>
+        <v>2000008</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>194</v>
@@ -5016,67 +5100,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>2000009</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="2">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>2000010</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="22" s="2" customFormat="1" customHeight="1"/>
     <row r="23" s="2" customFormat="1" customHeight="1"/>
     <row r="24" s="2" customFormat="1" customHeight="1"/>
     <row r="25" s="2" customFormat="1" customHeight="1"/>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="2">
-        <v>2000100</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="2">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="2">
-        <v>2000101</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="2">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" customHeight="1"/>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C28" s="2">
-        <v>2000102</v>
+        <v>2000100</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>197</v>
@@ -5102,7 +5186,7 @@
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C29" s="2">
-        <v>2000103</v>
+        <v>2000101</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>198</v>
@@ -5128,7 +5212,7 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C30" s="2">
-        <v>2000104</v>
+        <v>2000102</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>199</v>
@@ -5154,7 +5238,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
-        <v>2000105</v>
+        <v>2000103</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>200</v>
@@ -5180,7 +5264,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C32" s="2">
-        <v>2000106</v>
+        <v>2000104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>201</v>
@@ -5206,7 +5290,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
-        <v>2000107</v>
+        <v>2000105</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>202</v>
@@ -5232,7 +5316,7 @@
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C34" s="2">
-        <v>2000108</v>
+        <v>2000106</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>203</v>
@@ -5258,7 +5342,7 @@
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C35" s="2">
-        <v>2000109</v>
+        <v>2000107</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>204</v>
@@ -5284,7 +5368,7 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C36" s="2">
-        <v>2000110</v>
+        <v>2000108</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>205</v>
@@ -5310,7 +5394,7 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C37" s="2">
-        <v>2000111</v>
+        <v>2000109</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>206</v>
@@ -5336,7 +5420,7 @@
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C38" s="2">
-        <v>2000112</v>
+        <v>2000110</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>207</v>
@@ -5357,12 +5441,12 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C39" s="2">
-        <v>2000113</v>
+        <v>2000111</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>208</v>
@@ -5383,12 +5467,12 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C40" s="2">
-        <v>2000114</v>
+        <v>2000112</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>209</v>
@@ -5414,7 +5498,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C41" s="2">
-        <v>2000115</v>
+        <v>2000113</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>210</v>
@@ -5440,7 +5524,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C42" s="2">
-        <v>2000116</v>
+        <v>2000114</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>211</v>
@@ -5466,7 +5550,7 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C43" s="2">
-        <v>2000117</v>
+        <v>2000115</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>212</v>
@@ -5492,7 +5576,7 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C44" s="2">
-        <v>2000118</v>
+        <v>2000116</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>213</v>
@@ -5518,7 +5602,7 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C45" s="2">
-        <v>2000119</v>
+        <v>2000117</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>214</v>
@@ -5544,7 +5628,7 @@
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C46" s="2">
-        <v>2000120</v>
+        <v>2000118</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>215</v>
@@ -5570,7 +5654,7 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C47" s="2">
-        <v>2000121</v>
+        <v>2000119</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>216</v>
@@ -5591,12 +5675,12 @@
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C48" s="2">
-        <v>2000122</v>
+        <v>2000120</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>217</v>
@@ -5617,12 +5701,12 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C49" s="2">
-        <v>2000123</v>
+        <v>2000121</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>218</v>
@@ -5648,7 +5732,7 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C50" s="2">
-        <v>2000124</v>
+        <v>2000122</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>219</v>
@@ -5674,7 +5758,7 @@
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C51" s="2">
-        <v>2000125</v>
+        <v>2000123</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>220</v>
@@ -5700,7 +5784,7 @@
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C52" s="2">
-        <v>2000126</v>
+        <v>2000124</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>221</v>
@@ -5726,7 +5810,7 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C53" s="2">
-        <v>2000127</v>
+        <v>2000125</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>222</v>
@@ -5747,12 +5831,12 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C54" s="2">
-        <v>2000128</v>
+        <v>2000126</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>223</v>
@@ -5773,12 +5857,12 @@
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C55" s="2">
-        <v>2000129</v>
+        <v>2000127</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>224</v>
@@ -5802,12 +5886,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="3:10">
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C56" s="2">
+        <v>2000128</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="2">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:10">
       <c r="C57" s="2">
-        <v>2000200</v>
+        <v>2000129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
@@ -5825,38 +5935,12 @@
         <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:10">
-      <c r="C58" s="2">
-        <v>2000201</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" s="2">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:10">
       <c r="C59" s="2">
-        <v>2000202</v>
+        <v>2000200</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>227</v>
@@ -5882,7 +5966,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:10">
       <c r="C60" s="2">
-        <v>2000203</v>
+        <v>2000201</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>228</v>
@@ -5908,7 +5992,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:10">
       <c r="C61" s="2">
-        <v>2000204</v>
+        <v>2000202</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>229</v>
@@ -5934,7 +6018,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:10">
       <c r="C62" s="2">
-        <v>2000205</v>
+        <v>2000203</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>230</v>
@@ -5960,7 +6044,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:10">
       <c r="C63" s="2">
-        <v>2000206</v>
+        <v>2000204</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>231</v>
@@ -5986,7 +6070,7 @@
     </row>
     <row r="64" customHeight="1" spans="3:10">
       <c r="C64" s="2">
-        <v>2000207</v>
+        <v>2000205</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>232</v>
@@ -6012,7 +6096,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:10">
       <c r="C65" s="2">
-        <v>2000208</v>
+        <v>2000206</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>233</v>
@@ -6038,7 +6122,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:10">
       <c r="C66" s="2">
-        <v>2000209</v>
+        <v>2000207</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>234</v>
@@ -6064,7 +6148,7 @@
     </row>
     <row r="67" customHeight="1" spans="3:10">
       <c r="C67" s="2">
-        <v>2000210</v>
+        <v>2000208</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>235</v>
@@ -6090,7 +6174,7 @@
     </row>
     <row r="68" customHeight="1" spans="3:10">
       <c r="C68" s="2">
-        <v>2000211</v>
+        <v>2000209</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>236</v>
@@ -6116,7 +6200,7 @@
     </row>
     <row r="69" customHeight="1" spans="3:10">
       <c r="C69" s="2">
-        <v>2000212</v>
+        <v>2000210</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>237</v>
@@ -6137,12 +6221,12 @@
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:10">
       <c r="C70" s="2">
-        <v>2000213</v>
+        <v>2000211</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>238</v>
@@ -6163,12 +6247,12 @@
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:10">
       <c r="C71" s="2">
-        <v>2000214</v>
+        <v>2000212</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>239</v>
@@ -6194,7 +6278,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:10">
       <c r="C72" s="2">
-        <v>2000215</v>
+        <v>2000213</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>240</v>
@@ -6220,7 +6304,7 @@
     </row>
     <row r="73" customHeight="1" spans="3:10">
       <c r="C73" s="2">
-        <v>2000216</v>
+        <v>2000214</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>241</v>
@@ -6246,7 +6330,7 @@
     </row>
     <row r="74" customHeight="1" spans="3:10">
       <c r="C74" s="2">
-        <v>2000217</v>
+        <v>2000215</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>242</v>
@@ -6272,7 +6356,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:10">
       <c r="C75" s="2">
-        <v>2000218</v>
+        <v>2000216</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>243</v>
@@ -6298,7 +6382,7 @@
     </row>
     <row r="76" customHeight="1" spans="3:10">
       <c r="C76" s="2">
-        <v>2000219</v>
+        <v>2000217</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>244</v>
@@ -6324,7 +6408,7 @@
     </row>
     <row r="77" customHeight="1" spans="3:10">
       <c r="C77" s="2">
-        <v>2000220</v>
+        <v>2000218</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>245</v>
@@ -6350,7 +6434,7 @@
     </row>
     <row r="78" customHeight="1" spans="3:10">
       <c r="C78" s="2">
-        <v>2000221</v>
+        <v>2000219</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>246</v>
@@ -6371,12 +6455,12 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:10">
       <c r="C79" s="2">
-        <v>2000222</v>
+        <v>2000220</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>247</v>
@@ -6397,12 +6481,12 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:10">
       <c r="C80" s="2">
-        <v>2000223</v>
+        <v>2000221</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>248</v>
@@ -6428,7 +6512,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:10">
       <c r="C81" s="2">
-        <v>2000224</v>
+        <v>2000222</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>249</v>
@@ -6454,7 +6538,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:10">
       <c r="C82" s="2">
-        <v>2000225</v>
+        <v>2000223</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>250</v>
@@ -6480,7 +6564,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:10">
       <c r="C83" s="2">
-        <v>2000226</v>
+        <v>2000224</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>251</v>
@@ -6506,7 +6590,7 @@
     </row>
     <row r="84" customHeight="1" spans="3:10">
       <c r="C84" s="2">
-        <v>2000227</v>
+        <v>2000225</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>252</v>
@@ -6527,12 +6611,12 @@
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:10">
       <c r="C85" s="2">
-        <v>2000228</v>
+        <v>2000226</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>253</v>
@@ -6553,12 +6637,12 @@
         <v>0</v>
       </c>
       <c r="J85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:10">
       <c r="C86" s="2">
-        <v>2000229</v>
+        <v>2000227</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>254</v>
@@ -6579,6 +6663,58 @@
         <v>0</v>
       </c>
       <c r="J86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="2">
+        <v>2000228</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="2">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:10">
+      <c r="C88" s="2">
+        <v>2000229</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="2">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
         <v>4</v>
       </c>
     </row>
@@ -6597,10 +6733,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K52"/>
+  <dimension ref="C1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -6703,13 +6839,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6729,13 +6865,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6755,13 +6891,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6781,13 +6917,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6807,13 +6943,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6833,13 +6969,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6859,13 +6995,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -6885,13 +7021,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -6911,13 +7047,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -6937,13 +7073,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -6963,13 +7099,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -6989,13 +7125,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7015,13 +7151,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7041,13 +7177,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7067,13 +7203,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7093,13 +7229,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7119,13 +7255,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7145,13 +7281,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7171,13 +7307,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7197,13 +7333,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7223,13 +7359,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7249,13 +7385,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7275,13 +7411,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7301,13 +7437,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7322,29 +7458,630 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1"/>
-    <row r="31" s="2" customFormat="1" customHeight="1"/>
-    <row r="32" s="2" customFormat="1" customHeight="1"/>
-    <row r="33" s="2" customFormat="1" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" customHeight="1"/>
-    <row r="35" s="2" customFormat="1" customHeight="1"/>
-    <row r="36" s="2" customFormat="1" customHeight="1"/>
-    <row r="37" s="2" customFormat="1" customHeight="1"/>
-    <row r="38" s="2" customFormat="1" customHeight="1"/>
-    <row r="39" s="2" customFormat="1" customHeight="1"/>
-    <row r="40" s="2" customFormat="1" customHeight="1"/>
-    <row r="41" s="2" customFormat="1" customHeight="1"/>
-    <row r="42" s="2" customFormat="1" customHeight="1"/>
-    <row r="43" s="2" customFormat="1" customHeight="1"/>
-    <row r="44" s="2" customFormat="1" customHeight="1"/>
-    <row r="45" s="2" customFormat="1" customHeight="1"/>
-    <row r="46" s="2" customFormat="1" customHeight="1"/>
-    <row r="47" s="2" customFormat="1" customHeight="1"/>
-    <row r="48" s="2" customFormat="1" customHeight="1"/>
-    <row r="49" s="2" customFormat="1" customHeight="1"/>
-    <row r="50" s="2" customFormat="1" customHeight="1"/>
-    <row r="51" s="2" customFormat="1" customHeight="1"/>
-    <row r="52" s="2" customFormat="1" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="2">
+        <v>3000025</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="2">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="2">
+        <v>3000026</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="2">
+        <v>3000027</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="2">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C33" s="2">
+        <v>3000028</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C34" s="2">
+        <v>3000029</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="2">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C35" s="2">
+        <v>3000030</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="2">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C36" s="2">
+        <v>3000031</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C37" s="2">
+        <v>3000032</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="2">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C38" s="2">
+        <v>3000033</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="2">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C39" s="2">
+        <v>3000034</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="2">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C40" s="2">
+        <v>3000035</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C41" s="2">
+        <v>3000036</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" s="2">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C42" s="2">
+        <v>3000037</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="2">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C43" s="2">
+        <v>3000038</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="2">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C44" s="2">
+        <v>3000039</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="2">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C45" s="2">
+        <v>3000040</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="2">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C46" s="2">
+        <v>3000041</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="2">
+        <v>13</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C47" s="2">
+        <v>3000042</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" s="2">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C48" s="2">
+        <v>3000043</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48" s="2">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C49" s="2">
+        <v>3000044</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E49" s="2">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C50" s="2">
+        <v>3000045</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="2">
+        <v>13</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C51" s="2">
+        <v>3000046</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="2">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C52" s="2">
+        <v>3000047</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="2">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="2">
+        <v>3000048</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="2">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D5" errorStyle="warning">
@@ -7466,13 +8203,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -7492,13 +8229,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -7518,13 +8255,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -7544,13 +8281,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7570,13 +8307,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7596,13 +8333,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7622,13 +8359,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7648,13 +8385,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7674,13 +8411,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7700,13 +8437,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7726,13 +8463,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7752,13 +8489,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7778,13 +8515,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7804,13 +8541,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7830,13 +8567,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7856,13 +8593,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7882,13 +8619,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7908,13 +8645,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7934,13 +8671,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7960,13 +8697,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7986,13 +8723,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8012,13 +8749,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8038,13 +8775,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8064,13 +8801,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8090,13 +8827,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8116,13 +8853,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8142,13 +8879,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8168,13 +8905,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8194,13 +8931,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -8336,13 +9073,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -8362,13 +9099,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8388,13 +9125,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8414,13 +9151,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8440,13 +9177,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8466,13 +9203,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8492,13 +9229,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8518,13 +9255,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8544,13 +9281,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8570,13 +9307,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8596,13 +9333,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8622,13 +9359,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8648,13 +9385,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8674,13 +9411,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8700,13 +9437,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8726,13 +9463,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8752,13 +9489,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8778,13 +9515,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8804,13 +9541,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8830,13 +9567,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8856,13 +9593,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8882,13 +9619,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8908,13 +9645,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8934,13 +9671,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8960,13 +9697,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8986,13 +9723,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -9012,13 +9749,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9038,13 +9775,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9064,13 +9801,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9090,13 +9827,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9116,13 +9853,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9142,13 +9879,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9168,13 +9905,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9194,13 +9931,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9220,13 +9957,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9246,13 +9983,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -9272,13 +10009,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -9298,13 +10035,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9324,13 +10061,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9350,13 +10087,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -9376,13 +10113,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -9402,13 +10139,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -9428,13 +10165,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -9454,13 +10191,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -9480,13 +10217,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -9506,13 +10243,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -9532,13 +10269,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -9558,13 +10295,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -10079,8 +10816,8 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -10183,13 +10920,13 @@
         <v>180001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="E6" s="2">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -10209,13 +10946,13 @@
         <v>180002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E7" s="2">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -10235,13 +10972,13 @@
         <v>180003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="E8" s="2">
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -10261,13 +10998,13 @@
         <v>180004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E9" s="2">
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -10287,13 +11024,13 @@
         <v>180005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E10" s="2">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -10313,13 +11050,13 @@
         <v>180006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="E11" s="2">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -10339,13 +11076,13 @@
         <v>180007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -10365,13 +11102,13 @@
         <v>180008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E13" s="2">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -10391,13 +11128,13 @@
         <v>180009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="E14" s="2">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -10417,13 +11154,13 @@
         <v>180010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -10443,13 +11180,13 @@
         <v>180011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="E16" s="2">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -10469,13 +11206,13 @@
         <v>180012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E17" s="2">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -10495,13 +11232,13 @@
         <v>180013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -10516,11 +11253,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D20" s="4"/>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="2">
+        <v>180014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="2">
+        <v>180015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="4:4">
       <c r="D21" s="4"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="450">
   <si>
     <t>_Id</t>
   </si>
@@ -760,6 +760,12 @@
   </si>
   <si>
     <t>清明活动材料，兑换其他道具</t>
+  </si>
+  <si>
+    <t>锄头</t>
+  </si>
+  <si>
+    <t>五一活动材料，兑换其他道具</t>
   </si>
   <si>
     <t>橙装精华</t>
@@ -3643,10 +3649,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K39"/>
+  <dimension ref="C3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4218,36 +4224,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="25" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
-      <c r="C25" s="4">
-        <v>4201</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="24" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C24" s="4">
+        <v>4108</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="21" customHeight="1"/>
     <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
       <c r="C26" s="4">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>154</v>
@@ -4256,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -4271,39 +4277,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="28" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C28" s="4">
-        <v>6101</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="27" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C27" s="4">
+        <v>4202</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="4">
-        <v>7</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C29" s="4">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>157</v>
@@ -4327,12 +4330,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C30" s="4">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>159</v>
@@ -4356,12 +4359,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C31" s="4">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>161</v>
@@ -4385,12 +4388,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C32" s="4">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>163</v>
@@ -4414,12 +4417,12 @@
         <v>4</v>
       </c>
       <c r="K32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" s="4">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>165</v>
@@ -4443,18 +4446,18 @@
         <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C34" s="4">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E34" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>168</v>
@@ -4472,12 +4475,12 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="4">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>169</v>
@@ -4501,12 +4504,12 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>171</v>
@@ -4530,12 +4533,12 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>173</v>
@@ -4559,12 +4562,12 @@
         <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>175</v>
@@ -4588,12 +4591,12 @@
         <v>4</v>
       </c>
       <c r="K38" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>177</v>
@@ -4617,6 +4620,35 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
+      </c>
+      <c r="K40" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4637,7 +4669,7 @@
   <sheetPr/>
   <dimension ref="C1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4741,13 +4773,13 @@
         <v>1999993</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4767,13 +4799,13 @@
         <v>1999994</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4793,13 +4825,13 @@
         <v>1999995</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4819,13 +4851,13 @@
         <v>1999996</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4845,13 +4877,13 @@
         <v>1999997</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4871,13 +4903,13 @@
         <v>2000000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4897,13 +4929,13 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4923,13 +4955,13 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -4949,13 +4981,13 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -4975,13 +5007,13 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5001,13 +5033,13 @@
         <v>2000005</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5027,13 +5059,13 @@
         <v>2000006</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5053,13 +5085,13 @@
         <v>2000007</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5079,13 +5111,13 @@
         <v>2000008</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5105,13 +5137,13 @@
         <v>2000009</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5131,13 +5163,13 @@
         <v>2000010</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5163,13 +5195,13 @@
         <v>2000100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5189,13 +5221,13 @@
         <v>2000101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5215,13 +5247,13 @@
         <v>2000102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5241,13 +5273,13 @@
         <v>2000103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5267,13 +5299,13 @@
         <v>2000104</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5293,13 +5325,13 @@
         <v>2000105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5319,13 +5351,13 @@
         <v>2000106</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5345,13 +5377,13 @@
         <v>2000107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5371,13 +5403,13 @@
         <v>2000108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5397,13 +5429,13 @@
         <v>2000109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5423,13 +5455,13 @@
         <v>2000110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5449,13 +5481,13 @@
         <v>2000111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5475,13 +5507,13 @@
         <v>2000112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5501,13 +5533,13 @@
         <v>2000113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5527,13 +5559,13 @@
         <v>2000114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5553,13 +5585,13 @@
         <v>2000115</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5579,13 +5611,13 @@
         <v>2000116</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5605,13 +5637,13 @@
         <v>2000117</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5631,13 +5663,13 @@
         <v>2000118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5657,13 +5689,13 @@
         <v>2000119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5683,13 +5715,13 @@
         <v>2000120</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5709,13 +5741,13 @@
         <v>2000121</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5735,13 +5767,13 @@
         <v>2000122</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5761,13 +5793,13 @@
         <v>2000123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5787,13 +5819,13 @@
         <v>2000124</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5813,13 +5845,13 @@
         <v>2000125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5839,13 +5871,13 @@
         <v>2000126</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5865,13 +5897,13 @@
         <v>2000127</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5891,13 +5923,13 @@
         <v>2000128</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" s="2">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5917,13 +5949,13 @@
         <v>2000129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5943,13 +5975,13 @@
         <v>2000200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -5969,13 +6001,13 @@
         <v>2000201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -5995,13 +6027,13 @@
         <v>2000202</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6021,13 +6053,13 @@
         <v>2000203</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6047,13 +6079,13 @@
         <v>2000204</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6073,13 +6105,13 @@
         <v>2000205</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6099,13 +6131,13 @@
         <v>2000206</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6125,13 +6157,13 @@
         <v>2000207</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -6151,13 +6183,13 @@
         <v>2000208</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6177,13 +6209,13 @@
         <v>2000209</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6203,13 +6235,13 @@
         <v>2000210</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6229,13 +6261,13 @@
         <v>2000211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6255,13 +6287,13 @@
         <v>2000212</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6281,13 +6313,13 @@
         <v>2000213</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6307,13 +6339,13 @@
         <v>2000214</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6333,13 +6365,13 @@
         <v>2000215</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6359,13 +6391,13 @@
         <v>2000216</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6385,13 +6417,13 @@
         <v>2000217</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6411,13 +6443,13 @@
         <v>2000218</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6437,13 +6469,13 @@
         <v>2000219</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6463,13 +6495,13 @@
         <v>2000220</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6489,13 +6521,13 @@
         <v>2000221</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6515,13 +6547,13 @@
         <v>2000222</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6541,13 +6573,13 @@
         <v>2000223</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6567,13 +6599,13 @@
         <v>2000224</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6593,13 +6625,13 @@
         <v>2000225</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6619,13 +6651,13 @@
         <v>2000226</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6645,13 +6677,13 @@
         <v>2000227</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6671,13 +6703,13 @@
         <v>2000228</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E87" s="2">
         <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -6697,13 +6729,13 @@
         <v>2000229</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E88" s="2">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -6839,13 +6871,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6865,13 +6897,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6891,13 +6923,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6917,13 +6949,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6943,13 +6975,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -6969,13 +7001,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -6995,13 +7027,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7021,13 +7053,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7047,13 +7079,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7073,13 +7105,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7099,13 +7131,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7125,13 +7157,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7151,13 +7183,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7177,13 +7209,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7203,13 +7235,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7229,13 +7261,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7255,13 +7287,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7281,13 +7313,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7307,13 +7339,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7333,13 +7365,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7359,13 +7391,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7385,13 +7417,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7411,13 +7443,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7437,13 +7469,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7463,13 +7495,13 @@
         <v>3000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E30" s="2">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -7489,13 +7521,13 @@
         <v>3000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -7515,13 +7547,13 @@
         <v>3000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2">
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -7541,13 +7573,13 @@
         <v>3000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E33" s="2">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -7567,13 +7599,13 @@
         <v>3000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E34" s="2">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -7593,13 +7625,13 @@
         <v>3000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E35" s="2">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -7619,13 +7651,13 @@
         <v>3000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E36" s="2">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -7645,13 +7677,13 @@
         <v>3000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E37" s="2">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -7671,13 +7703,13 @@
         <v>3000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E38" s="2">
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -7697,13 +7729,13 @@
         <v>3000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E39" s="2">
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -7723,13 +7755,13 @@
         <v>3000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E40" s="2">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -7749,13 +7781,13 @@
         <v>3000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E41" s="2">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -7775,13 +7807,13 @@
         <v>3000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E42" s="2">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -7801,13 +7833,13 @@
         <v>3000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E43" s="2">
         <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -7827,13 +7859,13 @@
         <v>3000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E44" s="2">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -7853,13 +7885,13 @@
         <v>3000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E45" s="2">
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -7879,13 +7911,13 @@
         <v>3000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E46" s="2">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -7905,13 +7937,13 @@
         <v>3000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E47" s="2">
         <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -7931,13 +7963,13 @@
         <v>3000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E48" s="2">
         <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -7957,13 +7989,13 @@
         <v>3000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E49" s="2">
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -7983,13 +8015,13 @@
         <v>3000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E50" s="2">
         <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -8009,13 +8041,13 @@
         <v>3000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E51" s="2">
         <v>13</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -8035,13 +8067,13 @@
         <v>3000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E52" s="2">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -8061,13 +8093,13 @@
         <v>3000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E53" s="2">
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -8203,13 +8235,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8229,13 +8261,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8255,13 +8287,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8281,13 +8313,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8307,13 +8339,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8333,13 +8365,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8359,13 +8391,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8385,13 +8417,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8411,13 +8443,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8437,13 +8469,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8463,13 +8495,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8489,13 +8521,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8515,13 +8547,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8541,13 +8573,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8567,13 +8599,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8593,13 +8625,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8619,13 +8651,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8645,13 +8677,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8671,13 +8703,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8697,13 +8729,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8723,13 +8755,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8749,13 +8781,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8775,13 +8807,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8801,13 +8833,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8827,13 +8859,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8853,13 +8885,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8879,13 +8911,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8905,13 +8937,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8931,13 +8963,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9073,13 +9105,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -9099,13 +9131,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -9125,13 +9157,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -9151,13 +9183,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -9177,13 +9209,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -9203,13 +9235,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -9229,13 +9261,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -9255,13 +9287,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -9281,13 +9313,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -9307,13 +9339,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -9333,13 +9365,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -9359,13 +9391,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -9385,13 +9417,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -9411,13 +9443,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -9437,13 +9469,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -9463,13 +9495,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -9489,13 +9521,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -9515,13 +9547,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -9541,13 +9573,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -9567,13 +9599,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -9593,13 +9625,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -9619,13 +9651,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -9645,13 +9677,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -9671,13 +9703,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -9697,13 +9729,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -9723,13 +9755,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -9749,13 +9781,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9775,13 +9807,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9801,13 +9833,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9827,13 +9859,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9853,13 +9885,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9879,13 +9911,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9905,13 +9937,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9931,13 +9963,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9957,13 +9989,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9983,13 +10015,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -10009,13 +10041,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -10035,13 +10067,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -10061,13 +10093,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -10087,13 +10119,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -10113,13 +10145,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -10139,13 +10171,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -10165,13 +10197,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -10191,13 +10223,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -10217,13 +10249,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -10243,13 +10275,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -10269,13 +10301,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -10295,13 +10327,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -10920,13 +10952,13 @@
         <v>180001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E6" s="2">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -10946,13 +10978,13 @@
         <v>180002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E7" s="2">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -10972,13 +11004,13 @@
         <v>180003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E8" s="2">
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -10998,13 +11030,13 @@
         <v>180004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E9" s="2">
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -11024,13 +11056,13 @@
         <v>180005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E10" s="2">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -11050,13 +11082,13 @@
         <v>180006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E11" s="2">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -11076,13 +11108,13 @@
         <v>180007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -11102,13 +11134,13 @@
         <v>180008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E13" s="2">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -11128,13 +11160,13 @@
         <v>180009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E14" s="2">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -11154,13 +11186,13 @@
         <v>180010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -11180,13 +11212,13 @@
         <v>180011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E16" s="2">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -11206,13 +11238,13 @@
         <v>180012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E17" s="2">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -11232,13 +11264,13 @@
         <v>180013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -11258,13 +11290,13 @@
         <v>180014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -11284,13 +11316,13 @@
         <v>180015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E20" s="2">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="453">
   <si>
     <t>_Id</t>
   </si>
@@ -1654,6 +1654,15 @@
   </si>
   <si>
     <t>财富契约</t>
+  </si>
+  <si>
+    <t>天使之翼</t>
+  </si>
+  <si>
+    <t>分解机</t>
+  </si>
+  <si>
+    <t>灵魂之引</t>
   </si>
 </sst>
 </file>
@@ -1860,12 +1869,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3651,7 +3660,7 @@
   <sheetPr/>
   <dimension ref="C3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -10848,8 +10857,8 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -11337,14 +11346,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="4:4">
-      <c r="D23" s="4"/>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="2">
+        <v>180016</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="2">
+        <v>180017</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="2">
+        <v>180018</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="4:4">
       <c r="D24" s="4"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="458">
   <si>
     <t>_Id</t>
   </si>
@@ -1318,6 +1318,21 @@
   </si>
   <si>
     <t>梦魇蛇胆</t>
+  </si>
+  <si>
+    <t>梦魇狼爪</t>
+  </si>
+  <si>
+    <t>梦魇虫皮</t>
+  </si>
+  <si>
+    <t>梦魇鹰羽</t>
+  </si>
+  <si>
+    <t>梦魇虫角</t>
+  </si>
+  <si>
+    <t>梦魇蜈膏</t>
   </si>
   <si>
     <t>二阶武器升阶石</t>
@@ -8138,10 +8153,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:K35"/>
+  <dimension ref="C1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8990,6 +9005,136 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C36" s="2">
+        <v>40000080</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C37" s="2">
+        <v>40000081</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="2">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C38" s="2">
+        <v>40000082</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="2">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C39" s="2">
+        <v>40000083</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C40" s="2">
+        <v>40000084</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="2">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>6</v>
       </c>
     </row>
@@ -9114,13 +9259,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -9140,13 +9285,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -9166,13 +9311,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -9192,13 +9337,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -9218,13 +9363,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -9244,13 +9389,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -9270,13 +9415,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -9296,13 +9441,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -9322,13 +9467,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -9348,13 +9493,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -9374,13 +9519,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -9400,13 +9545,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -9426,13 +9571,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -9452,13 +9597,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -9478,13 +9623,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -9504,13 +9649,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -9530,13 +9675,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -9556,13 +9701,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -9582,13 +9727,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -9608,13 +9753,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -9634,13 +9779,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -9660,13 +9805,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -9686,13 +9831,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -9712,13 +9857,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -9738,13 +9883,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -9764,13 +9909,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -9790,13 +9935,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9816,13 +9961,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9842,13 +9987,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -9868,13 +10013,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9894,13 +10039,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9920,13 +10065,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9946,13 +10091,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9972,13 +10117,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9998,13 +10143,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -10024,13 +10169,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -10050,13 +10195,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -10076,13 +10221,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -10102,13 +10247,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -10128,13 +10273,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -10154,13 +10299,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -10180,13 +10325,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -10206,13 +10351,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -10232,13 +10377,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -10258,13 +10403,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -10284,13 +10429,13 @@
         <v>50000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -10310,13 +10455,13 @@
         <v>50000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -10336,13 +10481,13 @@
         <v>50000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -10857,7 +11002,7 @@
   <sheetPr/>
   <dimension ref="C1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -10961,13 +11106,13 @@
         <v>180001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E6" s="2">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -10987,13 +11132,13 @@
         <v>180002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E7" s="2">
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -11013,13 +11158,13 @@
         <v>180003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E8" s="2">
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -11039,13 +11184,13 @@
         <v>180004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E9" s="2">
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -11065,13 +11210,13 @@
         <v>180005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E10" s="2">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -11091,13 +11236,13 @@
         <v>180006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E11" s="2">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -11117,13 +11262,13 @@
         <v>180007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -11143,13 +11288,13 @@
         <v>180008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E13" s="2">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -11169,13 +11314,13 @@
         <v>180009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E14" s="2">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -11195,13 +11340,13 @@
         <v>180010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E15" s="2">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -11221,13 +11366,13 @@
         <v>180011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E16" s="2">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -11247,13 +11392,13 @@
         <v>180012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E17" s="2">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -11273,13 +11418,13 @@
         <v>180013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -11299,13 +11444,13 @@
         <v>180014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -11325,13 +11470,13 @@
         <v>180015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E20" s="2">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -11351,13 +11496,13 @@
         <v>180016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E21" s="2">
         <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -11377,13 +11522,13 @@
         <v>180017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E22" s="2">
         <v>18</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -11403,13 +11548,13 @@
         <v>180018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E23" s="2">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -663,10 +663,10 @@
     <t>3010</t>
   </si>
   <si>
-    <t>飓风破</t>
-  </si>
-  <si>
-    <t>学习或者升级道士技能飓风破</t>
+    <t>无极道体</t>
+  </si>
+  <si>
+    <t>学习或者升级道士技能无极道体</t>
   </si>
   <si>
     <t>魂环碎片</t>
@@ -1884,12 +1884,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2685,8 +2685,8 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8155,7 +8155,7 @@
   <sheetPr/>
   <dimension ref="C1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="460">
   <si>
     <t>_Id</t>
   </si>
@@ -733,6 +733,12 @@
   </si>
   <si>
     <t>分解红装获取，红装升阶材料，红装随机属性强化材料</t>
+  </si>
+  <si>
+    <t>传世精华</t>
+  </si>
+  <si>
+    <t>分解传世装备获取，升级传世装备</t>
   </si>
   <si>
     <t>图鉴碎片</t>
@@ -1884,12 +1890,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2685,7 +2691,7 @@
   <sheetPr/>
   <dimension ref="C3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -3673,10 +3679,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K40"/>
+  <dimension ref="C3:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4068,7 +4074,7 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C17" s="4">
-        <v>4101</v>
+        <v>4012</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>143</v>
@@ -4089,12 +4095,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C18" s="4">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>145</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="19" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C19" s="4">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>147</v>
@@ -4129,7 +4135,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -4146,10 +4152,10 @@
     </row>
     <row r="20" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C20" s="4">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
@@ -4172,10 +4178,10 @@
     </row>
     <row r="21" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C21" s="4">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
@@ -4198,16 +4204,16 @@
     </row>
     <row r="22" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C22" s="4">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E22" s="4">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="23" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C23" s="4">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>150</v>
@@ -4250,7 +4256,7 @@
     </row>
     <row r="24" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
       <c r="C24" s="4">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>152</v>
@@ -4274,36 +4280,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="21" customHeight="1"/>
-    <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
-      <c r="C26" s="4">
-        <v>4201</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="25" s="4" customFormat="1" ht="24" customHeight="1" spans="3:10">
+      <c r="C25" s="4">
+        <v>4108</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="21" customHeight="1"/>
     <row r="27" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
       <c r="C27" s="4">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>156</v>
@@ -4312,7 +4318,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -4327,39 +4333,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" ht="18" customHeight="1"/>
-    <row r="29" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
-      <c r="C29" s="4">
-        <v>6101</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="28" s="4" customFormat="1" ht="19" customHeight="1" spans="3:10">
+      <c r="C28" s="4">
+        <v>4202</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="4">
-        <v>7</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>99999</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>4</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="18" customHeight="1"/>
     <row r="30" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C30" s="4">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>159</v>
@@ -4383,12 +4386,12 @@
         <v>4</v>
       </c>
       <c r="K30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C31" s="4">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>161</v>
@@ -4412,12 +4415,12 @@
         <v>4</v>
       </c>
       <c r="K31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C32" s="4">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>163</v>
@@ -4441,12 +4444,12 @@
         <v>4</v>
       </c>
       <c r="K32" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C33" s="4">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>165</v>
@@ -4470,12 +4473,12 @@
         <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34" s="4">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>167</v>
@@ -4499,18 +4502,18 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="18" customHeight="1" spans="3:11">
       <c r="C35" s="4">
-        <v>7101</v>
+        <v>6106</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E35" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>170</v>
@@ -4528,12 +4531,12 @@
         <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" s="4">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>171</v>
@@ -4557,12 +4560,12 @@
         <v>4</v>
       </c>
       <c r="K36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:11">
       <c r="C37" s="4">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>173</v>
@@ -4586,12 +4589,12 @@
         <v>4</v>
       </c>
       <c r="K37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="C38" s="4">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>175</v>
@@ -4615,12 +4618,12 @@
         <v>4</v>
       </c>
       <c r="K38" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="4">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>177</v>
@@ -4644,12 +4647,12 @@
         <v>4</v>
       </c>
       <c r="K39" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="C40" s="4">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>179</v>
@@ -4673,6 +4676,35 @@
         <v>4</v>
       </c>
       <c r="K40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="4">
+        <v>7107</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>99999</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4797,13 +4829,13 @@
         <v>1999993</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4823,13 +4855,13 @@
         <v>1999994</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -4849,13 +4881,13 @@
         <v>1999995</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4875,13 +4907,13 @@
         <v>1999996</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -4901,13 +4933,13 @@
         <v>1999997</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -4927,13 +4959,13 @@
         <v>2000000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4953,13 +4985,13 @@
         <v>2000001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -4979,13 +5011,13 @@
         <v>2000002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5005,13 +5037,13 @@
         <v>2000003</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5031,13 +5063,13 @@
         <v>2000004</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -5057,13 +5089,13 @@
         <v>2000005</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5083,13 +5115,13 @@
         <v>2000006</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -5109,13 +5141,13 @@
         <v>2000007</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -5135,13 +5167,13 @@
         <v>2000008</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -5161,13 +5193,13 @@
         <v>2000009</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -5187,13 +5219,13 @@
         <v>2000010</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -5219,13 +5251,13 @@
         <v>2000100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -5245,13 +5277,13 @@
         <v>2000101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E29" s="2">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5271,13 +5303,13 @@
         <v>2000102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -5297,13 +5329,13 @@
         <v>2000103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -5323,13 +5355,13 @@
         <v>2000104</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5349,13 +5381,13 @@
         <v>2000105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -5375,13 +5407,13 @@
         <v>2000106</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5401,13 +5433,13 @@
         <v>2000107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" s="2">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5427,13 +5459,13 @@
         <v>2000108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5453,13 +5485,13 @@
         <v>2000109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E37" s="2">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5479,13 +5511,13 @@
         <v>2000110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E38" s="2">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5505,13 +5537,13 @@
         <v>2000111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E39" s="2">
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5531,13 +5563,13 @@
         <v>2000112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2">
         <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5557,13 +5589,13 @@
         <v>2000113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5583,13 +5615,13 @@
         <v>2000114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E42" s="2">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5609,13 +5641,13 @@
         <v>2000115</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E43" s="2">
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5635,13 +5667,13 @@
         <v>2000116</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5661,13 +5693,13 @@
         <v>2000117</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E45" s="2">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5687,13 +5719,13 @@
         <v>2000118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E46" s="2">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5713,13 +5745,13 @@
         <v>2000119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E47" s="2">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5739,13 +5771,13 @@
         <v>2000120</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5765,13 +5797,13 @@
         <v>2000121</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E49" s="2">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5791,13 +5823,13 @@
         <v>2000122</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E50" s="2">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5817,13 +5849,13 @@
         <v>2000123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5843,13 +5875,13 @@
         <v>2000124</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E52" s="2">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5869,13 +5901,13 @@
         <v>2000125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E53" s="2">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -5895,13 +5927,13 @@
         <v>2000126</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E54" s="2">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -5921,13 +5953,13 @@
         <v>2000127</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E55" s="2">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -5947,13 +5979,13 @@
         <v>2000128</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E56" s="2">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5973,13 +6005,13 @@
         <v>2000129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E57" s="2">
         <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -5999,13 +6031,13 @@
         <v>2000200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -6025,13 +6057,13 @@
         <v>2000201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E60" s="2">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6051,13 +6083,13 @@
         <v>2000202</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6077,13 +6109,13 @@
         <v>2000203</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6103,13 +6135,13 @@
         <v>2000204</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E63" s="2">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6129,13 +6161,13 @@
         <v>2000205</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E64" s="2">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6155,13 +6187,13 @@
         <v>2000206</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E65" s="2">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6181,13 +6213,13 @@
         <v>2000207</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E66" s="2">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -6207,13 +6239,13 @@
         <v>2000208</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E67" s="2">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6233,13 +6265,13 @@
         <v>2000209</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6259,13 +6291,13 @@
         <v>2000210</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6285,13 +6317,13 @@
         <v>2000211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -6311,13 +6343,13 @@
         <v>2000212</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E71" s="2">
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -6337,13 +6369,13 @@
         <v>2000213</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E72" s="2">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -6363,13 +6395,13 @@
         <v>2000214</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -6389,13 +6421,13 @@
         <v>2000215</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E74" s="2">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -6415,13 +6447,13 @@
         <v>2000216</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E75" s="2">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -6441,13 +6473,13 @@
         <v>2000217</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E76" s="2">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -6467,13 +6499,13 @@
         <v>2000218</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E77" s="2">
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -6493,13 +6525,13 @@
         <v>2000219</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -6519,13 +6551,13 @@
         <v>2000220</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E79" s="2">
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6545,13 +6577,13 @@
         <v>2000221</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E80" s="2">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -6571,13 +6603,13 @@
         <v>2000222</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E81" s="2">
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -6597,13 +6629,13 @@
         <v>2000223</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -6623,13 +6655,13 @@
         <v>2000224</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E83" s="2">
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -6649,13 +6681,13 @@
         <v>2000225</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E84" s="2">
         <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -6675,13 +6707,13 @@
         <v>2000226</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E85" s="2">
         <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -6701,13 +6733,13 @@
         <v>2000227</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -6727,13 +6759,13 @@
         <v>2000228</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E87" s="2">
         <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -6753,13 +6785,13 @@
         <v>2000229</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E88" s="2">
         <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -6895,13 +6927,13 @@
         <v>3000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -6921,13 +6953,13 @@
         <v>3000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -6947,13 +6979,13 @@
         <v>3000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -6973,13 +7005,13 @@
         <v>3000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E9" s="2">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -6999,13 +7031,13 @@
         <v>3000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E10" s="2">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -7025,13 +7057,13 @@
         <v>3000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -7051,13 +7083,13 @@
         <v>3000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7077,13 +7109,13 @@
         <v>3000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -7103,13 +7135,13 @@
         <v>3000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -7129,13 +7161,13 @@
         <v>3000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -7155,13 +7187,13 @@
         <v>3000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -7181,13 +7213,13 @@
         <v>3000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -7207,13 +7239,13 @@
         <v>3000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -7233,13 +7265,13 @@
         <v>3000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -7259,13 +7291,13 @@
         <v>3000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -7285,13 +7317,13 @@
         <v>3000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -7311,13 +7343,13 @@
         <v>3000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -7337,13 +7369,13 @@
         <v>3000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -7363,13 +7395,13 @@
         <v>3000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -7389,13 +7421,13 @@
         <v>3000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E25" s="2">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -7415,13 +7447,13 @@
         <v>3000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -7441,13 +7473,13 @@
         <v>3000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -7467,13 +7499,13 @@
         <v>3000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -7493,13 +7525,13 @@
         <v>3000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E29" s="2">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -7519,13 +7551,13 @@
         <v>3000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -7545,13 +7577,13 @@
         <v>3000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -7571,13 +7603,13 @@
         <v>3000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E32" s="2">
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -7597,13 +7629,13 @@
         <v>3000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E33" s="2">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -7623,13 +7655,13 @@
         <v>3000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E34" s="2">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -7649,13 +7681,13 @@
         <v>3000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E35" s="2">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -7675,13 +7707,13 @@
         <v>3000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E36" s="2">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -7701,13 +7733,13 @@
         <v>3000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E37" s="2">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -7727,13 +7759,13 @@
         <v>3000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E38" s="2">
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -7753,13 +7785,13 @@
         <v>3000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E39" s="2">
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -7779,13 +7811,13 @@
         <v>3000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E40" s="2">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -7805,13 +7837,13 @@
         <v>3000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E41" s="2">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -7831,13 +7863,13 @@
         <v>3000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -7857,13 +7889,13 @@
         <v>3000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E43" s="2">
         <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -7883,13 +7915,13 @@
         <v>3000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E44" s="2">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -7909,13 +7941,13 @@
         <v>3000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E45" s="2">
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -7935,13 +7967,13 @@
         <v>3000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E46" s="2">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -7961,13 +7993,13 @@
         <v>3000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E47" s="2">
         <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -7987,13 +8019,13 @@
         <v>3000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E48" s="2">
         <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -8013,13 +8045,13 @@
         <v>3000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E49" s="2">
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -8039,13 +8071,13 @@
         <v>3000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E50" s="2">
         <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -8065,13 +8097,13 @@
         <v>3000046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E51" s="2">
         <v>13</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -8091,13 +8123,13 @@
         <v>3000047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E52" s="2">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -8117,13 +8149,13 @@
         <v>3000048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E53" s="2">
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -8259,13 +8291,13 @@
         <v>40000051</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -8285,13 +8317,13 @@
         <v>40000052</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -8311,13 +8343,13 @@
         <v>40000053</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -8337,13 +8369,13 @@
         <v>40000054</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -8363,13 +8395,13 @@
         <v>40000055</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -8389,13 +8421,13 @@
         <v>40000056</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E12" s="2">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -8415,13 +8447,13 @@
         <v>40000057</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -8441,13 +8473,13 @@
         <v>40000058</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -8467,13 +8499,13 @@
         <v>40000059</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -8493,13 +8525,13 @@
         <v>40000060</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -8519,13 +8551,13 @@
         <v>40000061</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -8545,13 +8577,13 @@
         <v>40000062</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -8571,13 +8603,13 @@
         <v>40000063</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -8597,13 +8629,13 @@
         <v>40000064</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -8623,13 +8655,13 @@
         <v>40000065</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -8649,13 +8681,13 @@
         <v>40000066</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -8675,13 +8707,13 @@
         <v>40000067</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8701,13 +8733,13 @@
         <v>40000068</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -8727,13 +8759,13 @@
         <v>40000069</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -8753,13 +8785,13 @@
         <v>40000070</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -8779,13 +8811,13 @@
         <v>40000071</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E27" s="2">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -8805,13 +8837,13 @@
         <v>40000072</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E28" s="2">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -8831,13 +8863,13 @@
         <v>40000073</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -8857,13 +8889,13 @@
         <v>40000074</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8883,13 +8915,13 @@
         <v>40000075</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -8909,13 +8941,13 @@
         <v>40000076</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -8935,13 +8967,13 @@
         <v>40000077</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E33" s="2">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -8961,13 +8993,13 @@
         <v>40000078</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E34" s="2">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -8987,13 +9019,13 @@
         <v>40000079</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E35" s="2">
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -9013,13 +9045,13 @@
         <v>40000080</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E36" s="2">
         <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9039,13 +9071,13 @@
         <v>40000081</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E37" s="2">
         <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9065,13 +9097,13 @@
         <v>40000082</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E38" s="2">
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9091,13 +9123,13 @@
         <v>40000083</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E39" s="2">
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9117,13 +9149,13 @@
         <v>40000084</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9259,13 +9291,13 @@
         <v>50000001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -9285,13 +9317,13 @@
         <v>50000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -9311,13 +9343,13 @@
         <v>50000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -9337,13 +9369,13 @@
         <v>50000004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -9363,13 +9395,13 @@
         <v>50000005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -9389,13 +9421,13 @@
         <v>50000006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -9415,13 +9447,13 @@
         <v>50000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -9441,13 +9473,13 @@
         <v>50000008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -9467,13 +9499,13 @@
         <v>50000009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -9493,13 +9525,13 @@
         <v>50000010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -9519,13 +9551,13 @@
         <v>50000011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -9545,13 +9577,13 @@
         <v>50000012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -9571,13 +9603,13 @@
         <v>50000013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -9597,13 +9629,13 @@
         <v>50000014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -9623,13 +9655,13 @@
         <v>50000015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -9649,13 +9681,13 @@
         <v>50000016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -9675,13 +9707,13 @@
         <v>50000017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -9701,13 +9733,13 @@
         <v>50000018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -9727,13 +9759,13 @@
         <v>50000019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -9753,13 +9785,13 @@
         <v>50000020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -9779,13 +9811,13 @@
         <v>50000021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -9805,13 +9837,13 @@
         <v>50000022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -9831,13 +9863,13 @@
         <v>50000023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -9857,13 +9889,13 @@
         <v>50000024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -9883,13 +9915,13 @@
         <v>50000025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -9909,13 +9941,13 @@
         <v>50000026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -9935,13 +9967,13 @@
         <v>50000027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -9961,13 +9993,13 @@
         <v>50000028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9987,13 +10019,13 @@
         <v>50000029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -10013,13 +10045,13 @@
         <v>50000030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E35" s="2">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -10039,13 +10071,13 @@
         <v>50000031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -10065,13 +10097,13 @@
         <v>50000032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E37" s="2">
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -10091,13 +10123,13 @@
         <v>50000033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E38" s="2">
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -10117,13 +10149,13 @@
         <v>50000034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -10143,13 +10175,13 @@
         <v>50000035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -10169,13 +10201,13 @@
         <v>50000036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -10195,13 +10227,13 @@
         <v>50000037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -10221,13 +10253,13 @@
         <v>50000038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -10247,13 +10279,13 @@
         <v>50000039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -10273,13 +10305,13 @@
         <v>50000040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -10299,13 +10331,13 @@
         <v>50000041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -10325,13 +10357,13 @@
         <v>50000042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -10351,13 +10383,13 @@
         <v>50000043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -10377,13 +10409,13 @@
         <v>50000044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -10403,13 +10435,13 @@
         <v>50000045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     